--- a/Output/AllModels_final_with_plan_12000.xlsx
+++ b/Output/AllModels_final_with_plan_12000.xlsx
@@ -1,1165 +1,1356 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kueng\DataAnalysis\02TimeAndTiesControl_updatedBRMS\Output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994551C3-9FE8-4542-A66D-7AF7B9D1ACF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-19303" yWindow="3369" windowWidth="19406" windowHeight="11485" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="380">
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Subjective MVPA Hurdle Lognormal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Device-Based MVPA Log (Gaussian)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mood Gaussian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reactance Ordinal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reactance Dichotome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp(Est.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95% CI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Est.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intercept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.92***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[33.02, 43.54]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.17***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[99.95, 123.93]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 3.46, 3.88]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.17,   0.64]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hurdle Intercept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.26***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.19,  0.35]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conditional Within-Person Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily persuasion experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.98,  1.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.00,   1.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.04, 0.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.84*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.71,     0.99]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.68,   1.01]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.99,  1.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.99,   1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.02, 0.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.810</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.83,     1.23]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.84,   1.53]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.780</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pressure experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.82,  1.00]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.88,   1.01]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.14, 0.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  1.16,     2.66]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.01,   4.43]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.86,  1.03]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.92,   1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.15, 0.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.69,     2.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.58,   4.18]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pushing experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.92,  1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.96,   1.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.06, 0.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.98,     1.52]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.03,   1.75]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pushing utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.90,  1.02]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.96,   1.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.510</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.07*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.00, 0.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.71,     1.22]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.62,   1.36]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.88,  1.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.91,   1.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.15, 0.37]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.75,     2.88]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.77,   3.60]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Own actionplan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.21,  1.45]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.01,   1.12]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.10**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.03, 0.18]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.49,     1.49]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.46,   1.64]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partner actionplan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.99,  1.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.00,   1.10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.11, 0.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.55,     1.52]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.49,   1.54]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily weartime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.00,   1.00]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conditional Between-Person Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean persuasion experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.77,  1.40]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.590</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.83,   1.46]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.20, 0.90]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.39,     3.02]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.57,   6.60]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.73,  1.34]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.73,   1.30]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.32, 0.78]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.45,     4.27]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.50,   7.20]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pressure experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.83,  1.67]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.74,   1.33]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.85, 0.24]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  1.22,    10.68]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.34**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[2.51, 165.74]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.65,  1.32]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.74,   1.29]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.86, 0.22]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.36,     3.54]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.23,  19.25]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pushing experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.77,  1.88]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.63,   1.43]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.55, 0.97]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.30,     5.72]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.12,   6.20]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pushing utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.82,  2.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.82,   1.84]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.840</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.39, 1.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.02,     0.65]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01,   0.68]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean weartime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hurdle Within-Person Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily persuasion experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.39,  1.85]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.19,  1.54]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily pressure experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.69,  1.29]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.05,  2.29]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily pushing experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.71,  1.28]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily pushing utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.04,  1.64]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.64,  1.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Own actionplan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 7.77, 11.60]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Partner actionplan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.96,  1.42]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily weartime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hurdle Between-Person Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean persuasion experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.69,  2.84]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.65,  2.67]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean pressure experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.40*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.18,  0.90]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.22,  1.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean pushing experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.41,  3.28]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean pushing utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.71,  5.84]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean weartime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Random Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Intercept)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.23, 0.41]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.23, 0.39]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.48, 0.78]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.46, 1.27]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.74, 1.76]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Hurdle Intercept)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.56, 0.99]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily persuasion experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.07, 0.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.43]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.51]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily persuasion utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.04, 0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.03, 0.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.52]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.13, 0.98]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily pressure experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.22]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.24]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.11, 1.18]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.14, 2.43]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily pressure utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.18]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.26]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 1.56]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.04, 2.75]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily pushing experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.62]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily pushing utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.62]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.96]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Hu Daily persuasion experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.03, 0.40]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Hu Daily persuasion utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.37]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Hu Daily pressure experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.68]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Hu Daily pressure utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.89]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Hu Daily pushing experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.30, 0.98]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Hu Daily pushing utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.54]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Additional Parameters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sigma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.65, 0.70]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.56, 0.59]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.94, 0.98]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="441">
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Subjective MVPA Hurdle Lognormal</t>
+  </si>
+  <si>
+    <t>Device-Based MVPA Log (Gaussian)</t>
+  </si>
+  <si>
+    <t>Mood Gaussian</t>
+  </si>
+  <si>
+    <t>Reactance Ordinal</t>
+  </si>
+  <si>
+    <t>Reactance Dichotome</t>
+  </si>
+  <si>
+    <t>exp(Est.)</t>
+  </si>
+  <si>
+    <t>95% CI</t>
+  </si>
+  <si>
+    <t>pd</t>
+  </si>
+  <si>
+    <t>Est.</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>37.92***</t>
+  </si>
+  <si>
+    <t>[33.02, 43.54]</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
+    <t>111.17***</t>
+  </si>
+  <si>
+    <t>[99.95, 123.93]</t>
+  </si>
+  <si>
+    <t>3.67***</t>
+  </si>
+  <si>
+    <t>[ 3.46, 3.88]</t>
+  </si>
+  <si>
+    <t>0.34***</t>
+  </si>
+  <si>
+    <t>[0.17,   0.64]</t>
+  </si>
+  <si>
+    <t>Hurdle Intercept</t>
+  </si>
+  <si>
+    <t>0.26***</t>
+  </si>
+  <si>
+    <t>[ 0.19,  0.35]</t>
+  </si>
+  <si>
+    <t>Conditional Within-Person Effects</t>
+  </si>
+  <si>
+    <t>Daily persuasion experienced</t>
+  </si>
+  <si>
+    <t>1.03</t>
+  </si>
+  <si>
+    <t>[ 0.98,  1.09]</t>
+  </si>
+  <si>
+    <t>0.859</t>
+  </si>
+  <si>
+    <t>[ 1.00,   1.06]</t>
+  </si>
+  <si>
+    <t>0.953</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>[-0.04, 0.04]</t>
+  </si>
+  <si>
+    <t>0.523</t>
+  </si>
+  <si>
+    <t>0.84*</t>
+  </si>
+  <si>
+    <t>[  0.71,     0.99]</t>
+  </si>
+  <si>
+    <t>0.982</t>
+  </si>
+  <si>
+    <t>0.84</t>
+  </si>
+  <si>
+    <t>[0.68,   1.01]</t>
+  </si>
+  <si>
+    <t>0.968</t>
+  </si>
+  <si>
+    <t>Daily persuasion utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>[ 0.99,  1.08]</t>
+  </si>
+  <si>
+    <t>0.916</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>[ 0.99,   1.05]</t>
+  </si>
+  <si>
+    <t>0.864</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>[-0.02, 0.07]</t>
+  </si>
+  <si>
+    <t>0.810</t>
+  </si>
+  <si>
+    <t>[  0.83,     1.23]</t>
+  </si>
+  <si>
+    <t>0.583</t>
+  </si>
+  <si>
+    <t>1.12</t>
+  </si>
+  <si>
+    <t>[0.84,   1.53]</t>
+  </si>
+  <si>
+    <t>0.780</t>
+  </si>
+  <si>
+    <t>Daily pressure experienced</t>
+  </si>
+  <si>
+    <t>0.91*</t>
+  </si>
+  <si>
+    <t>[ 0.82,  1.00]</t>
+  </si>
+  <si>
+    <t>0.975</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>[ 0.88,   1.01]</t>
+  </si>
+  <si>
+    <t>0.947</t>
+  </si>
+  <si>
+    <t>-0.03</t>
+  </si>
+  <si>
+    <t>[-0.14, 0.07]</t>
+  </si>
+  <si>
+    <t>0.717</t>
+  </si>
+  <si>
+    <t>1.84*</t>
+  </si>
+  <si>
+    <t>[  1.16,     2.66]</t>
+  </si>
+  <si>
+    <t>0.992</t>
+  </si>
+  <si>
+    <t>1.97*</t>
+  </si>
+  <si>
+    <t>[1.01,   4.43]</t>
+  </si>
+  <si>
+    <t>0.976</t>
+  </si>
+  <si>
+    <t>Daily pressure utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>[ 0.86,  1.03]</t>
+  </si>
+  <si>
+    <t>0.894</t>
+  </si>
+  <si>
+    <t>0.98</t>
+  </si>
+  <si>
+    <t>[ 0.92,   1.05]</t>
+  </si>
+  <si>
+    <t>0.694</t>
+  </si>
+  <si>
+    <t>[-0.15, 0.08]</t>
+  </si>
+  <si>
+    <t>1.24</t>
+  </si>
+  <si>
+    <t>[  0.69,     2.11]</t>
+  </si>
+  <si>
+    <t>0.807</t>
+  </si>
+  <si>
+    <t>1.42</t>
+  </si>
+  <si>
+    <t>[0.58,   4.18]</t>
+  </si>
+  <si>
+    <t>0.804</t>
+  </si>
+  <si>
+    <t>Daily pushing experienced</t>
+  </si>
+  <si>
+    <t>0.99</t>
+  </si>
+  <si>
+    <t>[ 0.92,  1.05]</t>
+  </si>
+  <si>
+    <t>0.674</t>
+  </si>
+  <si>
+    <t>[ 0.96,   1.07]</t>
+  </si>
+  <si>
+    <t>0.731</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>[-0.06, 0.07]</t>
+  </si>
+  <si>
+    <t>0.577</t>
+  </si>
+  <si>
+    <t>1.22</t>
+  </si>
+  <si>
+    <t>[  0.98,     1.52]</t>
+  </si>
+  <si>
+    <t>0.962</t>
+  </si>
+  <si>
+    <t>1.33*</t>
+  </si>
+  <si>
+    <t>[1.03,   1.75]</t>
+  </si>
+  <si>
+    <t>0.986</t>
+  </si>
+  <si>
+    <t>Daily pushing utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>[ 0.90,  1.02]</t>
+  </si>
+  <si>
+    <t>0.914</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>[ 0.96,   1.04]</t>
+  </si>
+  <si>
+    <t>0.510</t>
+  </si>
+  <si>
+    <t>0.07*</t>
+  </si>
+  <si>
+    <t>[ 0.00, 0.14]</t>
+  </si>
+  <si>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>[  0.71,     1.22]</t>
+  </si>
+  <si>
+    <t>0.693</t>
+  </si>
+  <si>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>[0.62,   1.36]</t>
+  </si>
+  <si>
+    <t>0.677</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>[ 0.88,  1.11]</t>
+  </si>
+  <si>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>[ 0.91,   1.04]</t>
+  </si>
+  <si>
+    <t>0.788</t>
+  </si>
+  <si>
+    <t>[ 0.15, 0.37]</t>
+  </si>
+  <si>
+    <t>1.48</t>
+  </si>
+  <si>
+    <t>[  0.75,     2.88]</t>
+  </si>
+  <si>
+    <t>0.872</t>
+  </si>
+  <si>
+    <t>1.66</t>
+  </si>
+  <si>
+    <t>[0.77,   3.60]</t>
+  </si>
+  <si>
+    <t>0.905</t>
+  </si>
+  <si>
+    <t>Own actionplan</t>
+  </si>
+  <si>
+    <t>1.33***</t>
+  </si>
+  <si>
+    <t>[ 1.21,  1.45]</t>
+  </si>
+  <si>
+    <t>1.06*</t>
+  </si>
+  <si>
+    <t>[ 1.01,   1.12]</t>
+  </si>
+  <si>
+    <t>0.993</t>
+  </si>
+  <si>
+    <t>0.10**</t>
+  </si>
+  <si>
+    <t>[ 0.03, 0.18]</t>
+  </si>
+  <si>
+    <t>0.996</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>[  0.49,     1.49]</t>
+  </si>
+  <si>
+    <t>0.714</t>
+  </si>
+  <si>
+    <t>0.87</t>
+  </si>
+  <si>
+    <t>[0.46,   1.64]</t>
+  </si>
+  <si>
+    <t>0.665</t>
+  </si>
+  <si>
+    <t>Partner actionplan</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>[ 0.99,  1.17]</t>
+  </si>
+  <si>
+    <t>1.05</t>
+  </si>
+  <si>
+    <t>[ 1.00,   1.10]</t>
+  </si>
+  <si>
+    <t>0.972</t>
+  </si>
+  <si>
+    <t>[-0.11, 0.05]</t>
+  </si>
+  <si>
+    <t>0.792</t>
+  </si>
+  <si>
+    <t>[  0.55,     1.52]</t>
+  </si>
+  <si>
+    <t>0.632</t>
+  </si>
+  <si>
+    <t>[0.49,   1.54]</t>
+  </si>
+  <si>
+    <t>0.681</t>
+  </si>
+  <si>
+    <t>Daily weartime</t>
+  </si>
+  <si>
+    <t>1.00***</t>
+  </si>
+  <si>
+    <t>[ 1.00,   1.00]</t>
+  </si>
+  <si>
+    <t>Conditional Between-Person Effects</t>
+  </si>
+  <si>
+    <t>Mean persuasion experienced</t>
+  </si>
+  <si>
+    <t>[ 0.77,  1.40]</t>
+  </si>
+  <si>
+    <t>0.590</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>[ 0.83,   1.46]</t>
+  </si>
+  <si>
+    <t>0.756</t>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>[-0.20, 0.90]</t>
+  </si>
+  <si>
+    <t>0.892</t>
+  </si>
+  <si>
+    <t>[  0.39,     3.02]</t>
+  </si>
+  <si>
+    <t>0.572</t>
+  </si>
+  <si>
+    <t>1.90</t>
+  </si>
+  <si>
+    <t>[0.57,   6.60]</t>
+  </si>
+  <si>
+    <t>0.856</t>
+  </si>
+  <si>
+    <t>Mean persuasion utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>[ 0.73,  1.34]</t>
+  </si>
+  <si>
+    <t>0.524</t>
+  </si>
+  <si>
+    <t>[ 0.73,   1.30]</t>
+  </si>
+  <si>
+    <t>0.562</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>[-0.32, 0.78]</t>
+  </si>
+  <si>
+    <t>0.794</t>
+  </si>
+  <si>
+    <t>1.37</t>
+  </si>
+  <si>
+    <t>[  0.45,     4.27]</t>
+  </si>
+  <si>
+    <t>0.709</t>
+  </si>
+  <si>
+    <t>1.83</t>
+  </si>
+  <si>
+    <t>[0.50,   7.20]</t>
+  </si>
+  <si>
+    <t>0.819</t>
+  </si>
+  <si>
+    <t>Mean pressure experienced</t>
+  </si>
+  <si>
+    <t>1.18</t>
+  </si>
+  <si>
+    <t>[ 0.83,  1.67]</t>
+  </si>
+  <si>
+    <t>0.826</t>
+  </si>
+  <si>
+    <t>[ 0.74,   1.33]</t>
+  </si>
+  <si>
+    <t>0.531</t>
+  </si>
+  <si>
+    <t>-0.30</t>
+  </si>
+  <si>
+    <t>[-0.85, 0.24]</t>
+  </si>
+  <si>
+    <t>0.866</t>
+  </si>
+  <si>
+    <t>3.52*</t>
+  </si>
+  <si>
+    <t>[  1.22,    10.68]</t>
+  </si>
+  <si>
+    <t>0.990</t>
+  </si>
+  <si>
+    <t>18.34**</t>
+  </si>
+  <si>
+    <t>[2.51, 165.74]</t>
+  </si>
+  <si>
+    <t>0.998</t>
+  </si>
+  <si>
+    <t>Mean pressure utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>[ 0.65,  1.32]</t>
+  </si>
+  <si>
+    <t>0.671</t>
+  </si>
+  <si>
+    <t>[ 0.74,   1.29]</t>
+  </si>
+  <si>
+    <t>-0.31</t>
+  </si>
+  <si>
+    <t>[-0.86, 0.22]</t>
+  </si>
+  <si>
+    <t>0.877</t>
+  </si>
+  <si>
+    <t>1.16</t>
+  </si>
+  <si>
+    <t>[  0.36,     3.54]</t>
+  </si>
+  <si>
+    <t>0.602</t>
+  </si>
+  <si>
+    <t>2.29</t>
+  </si>
+  <si>
+    <t>[0.23,  19.25]</t>
+  </si>
+  <si>
+    <t>0.769</t>
+  </si>
+  <si>
+    <t>Mean pushing experienced</t>
+  </si>
+  <si>
+    <t>1.21</t>
+  </si>
+  <si>
+    <t>[ 0.77,  1.88]</t>
+  </si>
+  <si>
+    <t>0.797</t>
+  </si>
+  <si>
+    <t>[ 0.63,   1.43]</t>
+  </si>
+  <si>
+    <t>0.600</t>
+  </si>
+  <si>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>[-0.55, 0.97]</t>
+  </si>
+  <si>
+    <t>0.707</t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>[  0.30,     5.72]</t>
+  </si>
+  <si>
+    <t>0.623</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>[0.12,   6.20]</t>
+  </si>
+  <si>
+    <t>Mean pushing utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>1.30</t>
+  </si>
+  <si>
+    <t>[ 0.82,  2.06]</t>
+  </si>
+  <si>
+    <t>0.871</t>
+  </si>
+  <si>
+    <t>[ 0.82,   1.84]</t>
+  </si>
+  <si>
+    <t>0.840</t>
+  </si>
+  <si>
+    <t>0.37</t>
+  </si>
+  <si>
+    <t>[-0.39, 1.13]</t>
+  </si>
+  <si>
+    <t>0.835</t>
+  </si>
+  <si>
+    <t>0.11*</t>
+  </si>
+  <si>
+    <t>[  0.02,     0.65]</t>
+  </si>
+  <si>
+    <t>0.08*</t>
+  </si>
+  <si>
+    <t>[0.01,   0.68]</t>
+  </si>
+  <si>
+    <t>Mean weartime</t>
+  </si>
+  <si>
+    <t>Hurdle Within-Person Effects</t>
+  </si>
+  <si>
+    <t>Hu Daily persuasion experienced</t>
+  </si>
+  <si>
+    <t>1.59***</t>
+  </si>
+  <si>
+    <t>[ 1.39,  1.85]</t>
+  </si>
+  <si>
+    <t>Hu Daily persuasion utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>1.34***</t>
+  </si>
+  <si>
+    <t>[ 1.19,  1.54]</t>
+  </si>
+  <si>
+    <t>Hu Daily pressure experienced</t>
+  </si>
+  <si>
+    <t>[ 0.69,  1.29]</t>
+  </si>
+  <si>
+    <t>0.622</t>
+  </si>
+  <si>
+    <t>Hu Daily pressure utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>1.49*</t>
+  </si>
+  <si>
+    <t>[ 1.05,  2.29]</t>
+  </si>
+  <si>
+    <t>0.987</t>
+  </si>
+  <si>
+    <t>Hu Daily pushing experienced</t>
+  </si>
+  <si>
+    <t>[ 0.71,  1.28]</t>
+  </si>
+  <si>
+    <t>Hu Daily pushing utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>1.28*</t>
+  </si>
+  <si>
+    <t>[ 1.04,  1.64]</t>
+  </si>
+  <si>
+    <t>Hu Day</t>
+  </si>
+  <si>
+    <t>[ 0.64,  1.15]</t>
+  </si>
+  <si>
+    <t>0.843</t>
+  </si>
+  <si>
+    <t>Hu Own actionplan</t>
+  </si>
+  <si>
+    <t>9.48***</t>
+  </si>
+  <si>
+    <t>[ 7.77, 11.60]</t>
+  </si>
+  <si>
+    <t>Hu Partner actionplan</t>
+  </si>
+  <si>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t>[ 0.96,  1.42]</t>
+  </si>
+  <si>
+    <t>0.941</t>
+  </si>
+  <si>
+    <t>Hu Daily weartime</t>
+  </si>
+  <si>
+    <t>Hurdle Between-Person Effects</t>
+  </si>
+  <si>
+    <t>Hu Mean persuasion experienced</t>
+  </si>
+  <si>
+    <t>1.40</t>
+  </si>
+  <si>
+    <t>[ 0.69,  2.84]</t>
+  </si>
+  <si>
+    <t>0.825</t>
+  </si>
+  <si>
+    <t>Hu Mean persuasion utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>1.33</t>
+  </si>
+  <si>
+    <t>[ 0.65,  2.67]</t>
+  </si>
+  <si>
+    <t>0.783</t>
+  </si>
+  <si>
+    <t>Hu Mean pressure experienced</t>
+  </si>
+  <si>
+    <t>0.40*</t>
+  </si>
+  <si>
+    <t>[ 0.18,  0.90]</t>
+  </si>
+  <si>
+    <t>Hu Mean pressure utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>[ 0.22,  1.15]</t>
+  </si>
+  <si>
+    <t>0.948</t>
+  </si>
+  <si>
+    <t>Hu Mean pushing experienced</t>
+  </si>
+  <si>
+    <t>[ 0.41,  3.28]</t>
+  </si>
+  <si>
+    <t>0.616</t>
+  </si>
+  <si>
+    <t>Hu Mean pushing utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>2.07</t>
+  </si>
+  <si>
+    <t>[ 0.71,  5.84]</t>
+  </si>
+  <si>
+    <t>Hu Mean weartime</t>
+  </si>
+  <si>
+    <t>Random Effects</t>
+  </si>
+  <si>
+    <t>sd(Intercept)</t>
+  </si>
+  <si>
+    <t>0.30</t>
+  </si>
+  <si>
+    <t>[0.23, 0.41]</t>
+  </si>
+  <si>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>[0.23, 0.39]</t>
+  </si>
+  <si>
+    <t>0.60</t>
+  </si>
+  <si>
+    <t>[0.48, 0.78]</t>
+  </si>
+  <si>
+    <t>0.80</t>
+  </si>
+  <si>
+    <t>[0.46, 1.27]</t>
+  </si>
+  <si>
+    <t>1.15</t>
+  </si>
+  <si>
+    <t>[0.74, 1.76]</t>
+  </si>
+  <si>
+    <t>sd(Hurdle Intercept)</t>
+  </si>
+  <si>
+    <t>0.73</t>
+  </si>
+  <si>
+    <t>[0.56, 0.99]</t>
+  </si>
+  <si>
+    <t>sd(Daily persuasion experienced)</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>[0.07, 0.17]</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>[0.02, 0.08]</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>[0.00, 0.10]</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>[0.01, 0.43]</t>
+  </si>
+  <si>
+    <t>[0.01, 0.51]</t>
+  </si>
+  <si>
+    <t>sd(Daily persuasion utilized (partner's view))</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>[0.04, 0.13]</t>
+  </si>
+  <si>
+    <t>[0.03, 0.09]</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>[0.01, 0.13]</t>
+  </si>
+  <si>
+    <t>[0.01, 0.52]</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>[0.13, 0.98]</t>
+  </si>
+  <si>
+    <t>sd(Daily pressure experienced)</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>[0.00, 0.22]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.13]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.24]</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>[0.11, 1.18]</t>
+  </si>
+  <si>
+    <t>[0.14, 2.43]</t>
+  </si>
+  <si>
+    <t>sd(Daily pressure utilized (partner's view))</t>
+  </si>
+  <si>
+    <t>[0.00, 0.18]</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>[0.00, 0.11]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.26]</t>
+  </si>
+  <si>
+    <t>0.42</t>
+  </si>
+  <si>
+    <t>[0.02, 1.56]</t>
+  </si>
+  <si>
+    <t>0.83</t>
+  </si>
+  <si>
+    <t>[0.04, 2.75]</t>
+  </si>
+  <si>
+    <t>sd(Daily pushing experienced)</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>[0.01, 0.17]</t>
+  </si>
+  <si>
+    <t>[0.01, 0.15]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.15]</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>[0.02, 0.62]</t>
+  </si>
+  <si>
+    <t>sd(Daily pushing utilized (partner's view))</t>
+  </si>
+  <si>
+    <t>[0.00, 0.09]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.17]</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>[0.01, 0.62]</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>[0.01, 0.96]</t>
+  </si>
+  <si>
+    <t>sd(Hu Daily persuasion experienced)</t>
+  </si>
+  <si>
+    <t>[0.03, 0.40]</t>
+  </si>
+  <si>
+    <t>sd(Hu Daily persuasion utilized (partner's view))</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>[0.02, 0.37]</t>
+  </si>
+  <si>
+    <t>sd(Hu Daily pressure experienced)</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>[0.01, 0.68]</t>
+  </si>
+  <si>
+    <t>sd(Hu Daily pressure utilized (partner's view))</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>[0.01, 0.89]</t>
+  </si>
+  <si>
+    <t>sd(Hu Daily pushing experienced)</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>[0.30, 0.98]</t>
+  </si>
+  <si>
+    <t>sd(Hu Daily pushing utilized (partner's view))</t>
+  </si>
+  <si>
+    <t>[0.02, 0.54]</t>
+  </si>
+  <si>
+    <t>Additional Parameters</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>[0.65, 0.70]</t>
+  </si>
+  <si>
+    <t>[0.56, 0.59]</t>
+  </si>
+  <si>
+    <t>[0.94, 0.98]</t>
+  </si>
+  <si>
+    <t>Hurdle Component</t>
+  </si>
+  <si>
+    <t>Non-Zero Component</t>
+  </si>
+  <si>
+    <t>Self-Reported MVPA</t>
+  </si>
+  <si>
+    <t>Daily persuasion exerted (partner's view)</t>
+  </si>
+  <si>
+    <t>Daily pressure exerted (partner's view)</t>
+  </si>
+  <si>
+    <t>Daily pushing exerted (partner's view)</t>
+  </si>
+  <si>
+    <t>Mean persuasion exerted (partner's view)</t>
+  </si>
+  <si>
+    <t>Mean pressure exerted (partner's view)</t>
+  </si>
+  <si>
+    <t>Mean pushing exerted (partner's view)</t>
+  </si>
+  <si>
+    <t>sd(Daily persuasion exerted (partner's view))</t>
+  </si>
+  <si>
+    <t>sd(Daily pressure exerted (partner's view))</t>
+  </si>
+  <si>
+    <t>sd(Daily pushing exerted (partner's view))</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.19, 0.35]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1.39, 1.85]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.98, 1.09]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1.00, 1.06]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1.19, 1.54]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.99, 1.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.99, 1.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.69, 1.29]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.82, 1.00]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.88, 1.01]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1.05, 2.29]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.86, 1.03]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.92, 1.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.71, 1.28]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.96, 1.07]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1.04, 1.64]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.90, 1.02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.96, 1.04]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.64, 1.15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.88, 1.11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.91, 1.04]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7.77, 11.60]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1.21, 1.45]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1.01, 1.12]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.96, 1.42]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.99, 1.17]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1.00, 1.10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1.00, 1.00]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.69, 2.84]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.77, 1.40]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.83, 1.46]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.65, 2.67]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.73, 1.34]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.73, 1.30]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.18, 0.90]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.83, 1.67]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.74, 1.33]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.22, 1.15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.65, 1.32]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.74, 1.29]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.41, 3.28]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.77, 1.88]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.63, 1.43]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.71, 5.84]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.82, 2.06]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.82, 1.84]</t>
+  </si>
+  <si>
+    <t>Device-Based MVPA</t>
+  </si>
+  <si>
+    <t>Fixed Effects</t>
+  </si>
+  <si>
+    <t>sd(sigma)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1173,16 +1364,37 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <b/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <i/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1193,7 +1405,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1202,20 +1414,68 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1231,20 +1491,122 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1526,64 +1888,83 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P72"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView zoomScale="66" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="43.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.58984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.58984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.58984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.04296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.6796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.58984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.7265625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1633,7 +2014,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -1677,7 +2058,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1703,58 +2084,58 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="P5" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A6" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1803,8 +2184,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A7" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1853,8 +2234,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A8" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1903,8 +2284,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A9" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1953,8 +2334,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A10" s="7" t="s">
         <v>83</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -2003,8 +2384,8 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A11" s="7" t="s">
         <v>98</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2053,8 +2434,8 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A12" s="7" t="s">
         <v>113</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -2103,8 +2484,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A13" s="7" t="s">
         <v>125</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -2153,8 +2534,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A14" s="7" t="s">
         <v>140</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -2203,8 +2584,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A15" s="7" t="s">
         <v>152</v>
       </c>
       <c r="B15" s="1"/>
@@ -2229,58 +2610,58 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A16" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K16" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="L16" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="M16" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="N16" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="O16" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="P16" s="11" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A17" s="7" t="s">
         <v>156</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -2329,8 +2710,8 @@
         <v>169</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A18" s="7" t="s">
         <v>170</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -2379,8 +2760,8 @@
         <v>183</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A19" s="7" t="s">
         <v>184</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -2429,8 +2810,8 @@
         <v>198</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A20" s="7" t="s">
         <v>199</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2479,8 +2860,8 @@
         <v>211</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A21" s="7" t="s">
         <v>212</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -2529,8 +2910,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A22" s="7" t="s">
         <v>226</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -2579,8 +2960,8 @@
         <v>195</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A23" s="7" t="s">
         <v>239</v>
       </c>
       <c r="B23" s="1"/>
@@ -2605,58 +2986,58 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A24" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="K24" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="L24" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="M24" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="N24" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="O24" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="P24" s="1" t="s">
+      <c r="P24" s="11" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A25" s="7" t="s">
         <v>241</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -2681,8 +3062,8 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A26" s="7" t="s">
         <v>244</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -2707,8 +3088,8 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A27" s="7" t="s">
         <v>247</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2733,8 +3114,8 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A28" s="7" t="s">
         <v>250</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -2759,8 +3140,8 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A29" s="7" t="s">
         <v>254</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2785,8 +3166,8 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30">
-      <c r="A30" s="8" t="s">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A30" s="7" t="s">
         <v>256</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -2811,8 +3192,8 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31">
-      <c r="A31" s="8" t="s">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A31" s="7" t="s">
         <v>259</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -2837,8 +3218,8 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32">
-      <c r="A32" s="8" t="s">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A32" s="7" t="s">
         <v>262</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -2863,8 +3244,8 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33">
-      <c r="A33" s="8" t="s">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A33" s="7" t="s">
         <v>265</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -2889,8 +3270,8 @@
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
     </row>
-    <row r="34">
-      <c r="A34" s="8" t="s">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A34" s="7" t="s">
         <v>269</v>
       </c>
       <c r="B34" s="1"/>
@@ -2909,58 +3290,58 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
     </row>
-    <row r="35">
-      <c r="A35" s="7" t="s">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A35" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H35" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I35" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="J35" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="K35" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="L35" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="M35" s="1" t="s">
+      <c r="M35" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="N35" s="1" t="s">
+      <c r="N35" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="O35" s="1" t="s">
+      <c r="O35" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="P35" s="1" t="s">
+      <c r="P35" s="11" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="8" t="s">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A36" s="7" t="s">
         <v>271</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -2985,8 +3366,8 @@
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
     </row>
-    <row r="37">
-      <c r="A37" s="8" t="s">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A37" s="7" t="s">
         <v>275</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -3011,8 +3392,8 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
     </row>
-    <row r="38">
-      <c r="A38" s="8" t="s">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A38" s="7" t="s">
         <v>279</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -3037,8 +3418,8 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39">
-      <c r="A39" s="8" t="s">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A39" s="7" t="s">
         <v>282</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -3063,8 +3444,8 @@
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
     </row>
-    <row r="40">
-      <c r="A40" s="8" t="s">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A40" s="7" t="s">
         <v>286</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -3089,8 +3470,8 @@
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
     </row>
-    <row r="41">
-      <c r="A41" s="8" t="s">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A41" s="7" t="s">
         <v>289</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -3115,8 +3496,8 @@
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
     </row>
-    <row r="42">
-      <c r="A42" s="8" t="s">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A42" s="7" t="s">
         <v>292</v>
       </c>
       <c r="B42" s="1"/>
@@ -3135,58 +3516,58 @@
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
     </row>
-    <row r="43">
-      <c r="A43" s="7" t="s">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A43" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="H43" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I43" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="J43" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="K43" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="L43" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="M43" s="1" t="s">
+      <c r="M43" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="N43" s="1" t="s">
+      <c r="N43" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="O43" s="1" t="s">
+      <c r="O43" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="P43" s="1" t="s">
+      <c r="P43" s="11" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="8" t="s">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A44" s="7" t="s">
         <v>294</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -3225,8 +3606,8 @@
       </c>
       <c r="P44" s="1"/>
     </row>
-    <row r="45">
-      <c r="A45" s="8" t="s">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A45" s="7" t="s">
         <v>305</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -3249,8 +3630,8 @@
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
     </row>
-    <row r="46">
-      <c r="A46" s="8" t="s">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A46" s="7" t="s">
         <v>308</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -3289,8 +3670,8 @@
       </c>
       <c r="P46" s="1"/>
     </row>
-    <row r="47">
-      <c r="A47" s="8" t="s">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A47" s="7" t="s">
         <v>318</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -3329,8 +3710,8 @@
       </c>
       <c r="P47" s="1"/>
     </row>
-    <row r="48">
-      <c r="A48" s="8" t="s">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A48" s="7" t="s">
         <v>327</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -3369,8 +3750,8 @@
       </c>
       <c r="P48" s="1"/>
     </row>
-    <row r="49">
-      <c r="A49" s="8" t="s">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A49" s="7" t="s">
         <v>335</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -3409,8 +3790,8 @@
       </c>
       <c r="P49" s="1"/>
     </row>
-    <row r="50">
-      <c r="A50" s="8" t="s">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A50" s="7" t="s">
         <v>344</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -3449,8 +3830,8 @@
       </c>
       <c r="P50" s="1"/>
     </row>
-    <row r="51">
-      <c r="A51" s="8" t="s">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A51" s="7" t="s">
         <v>351</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -3489,8 +3870,8 @@
       </c>
       <c r="P51" s="1"/>
     </row>
-    <row r="52">
-      <c r="A52" s="8" t="s">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A52" s="7" t="s">
         <v>358</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -3513,8 +3894,8 @@
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
     </row>
-    <row r="53">
-      <c r="A53" s="8" t="s">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A53" s="7" t="s">
         <v>360</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -3537,8 +3918,8 @@
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
     </row>
-    <row r="54">
-      <c r="A54" s="8" t="s">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A54" s="7" t="s">
         <v>363</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -3561,8 +3942,8 @@
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
     </row>
-    <row r="55">
-      <c r="A55" s="8" t="s">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A55" s="7" t="s">
         <v>366</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -3585,8 +3966,8 @@
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
     </row>
-    <row r="56">
-      <c r="A56" s="8" t="s">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A56" s="7" t="s">
         <v>369</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -3609,8 +3990,8 @@
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
     </row>
-    <row r="57">
-      <c r="A57" s="8" t="s">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A57" s="7" t="s">
         <v>372</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -3633,58 +4014,58 @@
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
     </row>
-    <row r="58">
-      <c r="A58" s="7" t="s">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A58" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F58" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="G58" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="H58" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="I58" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="J58" s="1" t="s">
+      <c r="J58" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="K58" s="1" t="s">
+      <c r="K58" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="L58" s="1" t="s">
+      <c r="L58" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="M58" s="1" t="s">
+      <c r="M58" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="N58" s="1" t="s">
+      <c r="N58" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="O58" s="1" t="s">
+      <c r="O58" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="P58" s="1" t="s">
+      <c r="P58" s="11" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="9" t="s">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A59" s="8" t="s">
         <v>375</v>
       </c>
       <c r="B59" s="4" t="s">
@@ -3715,60 +4096,950 @@
       <c r="O59" s="4"/>
       <c r="P59" s="4"/>
     </row>
-    <row r="60">
-      <c r="A60" s="8"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="8"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="8"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="8"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="8"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="8"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="8"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="8"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="8"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="8"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="8"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="8"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="8"/>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A60" s="7"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A61" s="7"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A62" s="7"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A63" s="7"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A64" s="7"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A65" s="7"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A66" s="7"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A67" s="7"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A68" s="7"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A69" s="7"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A70" s="7"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A71" s="7"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A72" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A58:P58"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A16:P16"/>
+    <mergeCell ref="A24:P24"/>
+    <mergeCell ref="A35:P35"/>
+    <mergeCell ref="A43:P43"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A16:P16"/>
-    <mergeCell ref="A24:P24"/>
-    <mergeCell ref="A35:P35"/>
-    <mergeCell ref="A43:P43"/>
-    <mergeCell ref="A58:P58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E876E58-69A6-40D5-A138-00AF2B8A39AF}">
+  <dimension ref="A2:I49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="73" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="43.36328125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.86328125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="1.6328125" style="12" customWidth="1"/>
+    <col min="5" max="6" width="11.86328125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="1.6328125" style="12" customWidth="1"/>
+    <col min="8" max="9" width="11.86328125" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A2" s="13"/>
+      <c r="B2" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="29" t="s">
+        <v>438</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A4" s="30" t="s">
+        <v>439</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="27"/>
+      <c r="H4" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A5" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A6" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A7" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A8" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A9" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>400</v>
+      </c>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A10" s="39" t="s">
+        <v>384</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A11" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A12" s="39" t="s">
+        <v>385</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>407</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A13" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A14" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="D14" s="26"/>
+      <c r="E14" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="G14" s="26"/>
+      <c r="H14" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A15" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>416</v>
+      </c>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A16" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A17" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A18" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>420</v>
+      </c>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>421</v>
+      </c>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A19" s="39" t="s">
+        <v>386</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>423</v>
+      </c>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>424</v>
+      </c>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A20" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A21" s="39" t="s">
+        <v>387</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>429</v>
+      </c>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A22" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>432</v>
+      </c>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>433</v>
+      </c>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A23" s="39" t="s">
+        <v>388</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>435</v>
+      </c>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>436</v>
+      </c>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="I23" s="26" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A24" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A25" s="24"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="29" t="s">
+        <v>438</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A27" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>380</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="36"/>
+      <c r="E27" s="35" t="s">
+        <v>381</v>
+      </c>
+      <c r="F27" s="35"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A28" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A29" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I29" s="26" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A30" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="I30" s="26" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A31" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="I31" s="26" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A32" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="I32" s="26" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A33" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="I33" s="26" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A34" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="I34" s="26" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A35" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="I35" s="26" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A36" s="40" t="s">
+        <v>440</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D36" s="28"/>
+      <c r="E36" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="G36" s="28"/>
+      <c r="H36" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="I36" s="27" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A37" s="24"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A38" s="24"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A39" s="24"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A40" s="24"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A41" s="24"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A42" s="24"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A43" s="24"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A44" s="24"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A45" s="24"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A46" s="24"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A47" s="24"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A48" s="24"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A49" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Output/AllModels_final_with_plan_12000.xlsx
+++ b/Output/AllModels_final_with_plan_12000.xlsx
@@ -1,760 +1,780 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kueng\DataAnalysis\02TimeAndTiesControl_updatedBRMS\Output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD36CB0C-7351-4FE9-B8E6-1CA169049FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Subjective MVPA Hurdle Lognormal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Device-Based MVPA Log (Gaussian)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mood Gaussian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reactance Dichotome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp(Est.)_hu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95% CI_hu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp(Est.)_nonzero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95% CI_nonzero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp(Est.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95% CI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Est.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intercept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.26***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.19,  0.35]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.92***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[33.02, 43.54]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.17***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[99.95, 123.93]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 3.46, 3.88]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.17,   0.64]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Within-Person Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily persuasion experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.39,  1.85]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.98,  1.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.00,   1.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.04, 0.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.68,   1.01]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.19,  1.54]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.99,  1.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.99,   1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.02, 0.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.84,   1.53]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pressure experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.69,  1.29]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.82,  1.00]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.88,   1.01]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.14, 0.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.01,   4.43]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.05,  2.29]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.86,  1.03]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.92,   1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.15, 0.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.58,   4.18]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pushing experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.71,  1.28]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.92,  1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.96,   1.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.06, 0.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.03,   1.75]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pushing utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.04,  1.64]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.90,  1.02]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.96,   1.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.07*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.00, 0.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.62,   1.36]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.64,  1.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.88,  1.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.91,   1.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.15, 0.37]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.77,   3.60]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Own Actionplan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 7.77, 11.60]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.21,  1.45]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.01,   1.12]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.10**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.03, 0.18]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.46,   1.64]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partner Actionplan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.96,  1.42]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.99,  1.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.00,   1.10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.11, 0.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.49,   1.54]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily weartime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.00,   1.00]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Between-Person Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean persuasion experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.69,  2.84]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.77,  1.40]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.83,   1.46]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.20, 0.90]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.57,   6.60]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.65,  2.67]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.73,  1.34]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.73,   1.30]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.32, 0.78]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.50,   7.20]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pressure experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.40*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.18,  0.90]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.83,  1.67]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.74,   1.33]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.85, 0.24]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.34**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[2.51, 165.74]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.22,  1.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.65,  1.32]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.74,   1.29]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.86, 0.22]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.23,  19.25]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pushing experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.41,  3.28]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.77,  1.88]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.63,   1.43]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.55, 0.97]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.12,   6.20]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pushing utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.71,  5.84]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.82,  2.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.82,   1.84]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.39, 1.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01,   0.68]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean weartime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Random Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Intercept)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.56, 0.99]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.23, 0.41]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.23, 0.39]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.48, 0.78]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.74, 1.76]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily persuasion experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.03, 0.40]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.07, 0.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.51]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily persuasion utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.37]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.04, 0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.03, 0.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.13, 0.98]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily pressure experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.68]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.22]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.24]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.14, 2.43]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily pressure utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.89]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.18]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.26]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.04, 2.75]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily pushing experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.30, 0.98]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.62]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily pushing utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.54]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.96]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Additional Parameters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sigma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.65, 0.70]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.56, 0.59]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.94, 0.98]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="245">
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Subjective MVPA Hurdle Lognormal</t>
+  </si>
+  <si>
+    <t>Device-Based MVPA Log (Gaussian)</t>
+  </si>
+  <si>
+    <t>Mood Gaussian</t>
+  </si>
+  <si>
+    <t>Reactance Dichotome</t>
+  </si>
+  <si>
+    <t>exp(Est.)_hu</t>
+  </si>
+  <si>
+    <t>95% CI_hu</t>
+  </si>
+  <si>
+    <t>exp(Est.)_nonzero</t>
+  </si>
+  <si>
+    <t>95% CI_nonzero</t>
+  </si>
+  <si>
+    <t>exp(Est.)</t>
+  </si>
+  <si>
+    <t>95% CI</t>
+  </si>
+  <si>
+    <t>Est.</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>0.26***</t>
+  </si>
+  <si>
+    <t>[ 0.19,  0.35]</t>
+  </si>
+  <si>
+    <t>37.92***</t>
+  </si>
+  <si>
+    <t>[33.02, 43.54]</t>
+  </si>
+  <si>
+    <t>111.17***</t>
+  </si>
+  <si>
+    <t>[99.95, 123.93]</t>
+  </si>
+  <si>
+    <t>3.67***</t>
+  </si>
+  <si>
+    <t>[ 3.46, 3.88]</t>
+  </si>
+  <si>
+    <t>0.34***</t>
+  </si>
+  <si>
+    <t>[0.17,   0.64]</t>
+  </si>
+  <si>
+    <t>Within-Person Effects</t>
+  </si>
+  <si>
+    <t>Daily persuasion experienced</t>
+  </si>
+  <si>
+    <t>1.59***</t>
+  </si>
+  <si>
+    <t>[ 1.39,  1.85]</t>
+  </si>
+  <si>
+    <t>1.03</t>
+  </si>
+  <si>
+    <t>[ 0.98,  1.09]</t>
+  </si>
+  <si>
+    <t>[ 1.00,   1.06]</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>[-0.04, 0.04]</t>
+  </si>
+  <si>
+    <t>0.84</t>
+  </si>
+  <si>
+    <t>[0.68,   1.01]</t>
+  </si>
+  <si>
+    <t>Daily persuasion utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>1.34***</t>
+  </si>
+  <si>
+    <t>[ 1.19,  1.54]</t>
+  </si>
+  <si>
+    <t>[ 0.99,  1.08]</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>[ 0.99,   1.05]</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>[-0.02, 0.07]</t>
+  </si>
+  <si>
+    <t>1.12</t>
+  </si>
+  <si>
+    <t>[0.84,   1.53]</t>
+  </si>
+  <si>
+    <t>Daily pressure experienced</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>[ 0.69,  1.29]</t>
+  </si>
+  <si>
+    <t>0.91*</t>
+  </si>
+  <si>
+    <t>[ 0.82,  1.00]</t>
+  </si>
+  <si>
+    <t>[ 0.88,   1.01]</t>
+  </si>
+  <si>
+    <t>-0.03</t>
+  </si>
+  <si>
+    <t>[-0.14, 0.07]</t>
+  </si>
+  <si>
+    <t>1.97*</t>
+  </si>
+  <si>
+    <t>[1.01,   4.43]</t>
+  </si>
+  <si>
+    <t>Daily pressure utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>1.49*</t>
+  </si>
+  <si>
+    <t>[ 1.05,  2.29]</t>
+  </si>
+  <si>
+    <t>[ 0.86,  1.03]</t>
+  </si>
+  <si>
+    <t>0.98</t>
+  </si>
+  <si>
+    <t>[ 0.92,   1.05]</t>
+  </si>
+  <si>
+    <t>[-0.15, 0.08]</t>
+  </si>
+  <si>
+    <t>1.42</t>
+  </si>
+  <si>
+    <t>[0.58,   4.18]</t>
+  </si>
+  <si>
+    <t>Daily pushing experienced</t>
+  </si>
+  <si>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>[ 0.71,  1.28]</t>
+  </si>
+  <si>
+    <t>0.99</t>
+  </si>
+  <si>
+    <t>[ 0.92,  1.05]</t>
+  </si>
+  <si>
+    <t>[ 0.96,   1.07]</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>[-0.06, 0.07]</t>
+  </si>
+  <si>
+    <t>1.33*</t>
+  </si>
+  <si>
+    <t>[1.03,   1.75]</t>
+  </si>
+  <si>
+    <t>Daily pushing utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>1.28*</t>
+  </si>
+  <si>
+    <t>[ 1.04,  1.64]</t>
+  </si>
+  <si>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>[ 0.90,  1.02]</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>[ 0.96,   1.04]</t>
+  </si>
+  <si>
+    <t>0.07*</t>
+  </si>
+  <si>
+    <t>[ 0.00, 0.14]</t>
+  </si>
+  <si>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>[0.62,   1.36]</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>[ 0.64,  1.15]</t>
+  </si>
+  <si>
+    <t>[ 0.88,  1.11]</t>
+  </si>
+  <si>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>[ 0.91,   1.04]</t>
+  </si>
+  <si>
+    <t>[ 0.15, 0.37]</t>
+  </si>
+  <si>
+    <t>1.66</t>
+  </si>
+  <si>
+    <t>[0.77,   3.60]</t>
+  </si>
+  <si>
+    <t>Own Actionplan</t>
+  </si>
+  <si>
+    <t>9.48***</t>
+  </si>
+  <si>
+    <t>[ 7.77, 11.60]</t>
+  </si>
+  <si>
+    <t>1.33***</t>
+  </si>
+  <si>
+    <t>[ 1.21,  1.45]</t>
+  </si>
+  <si>
+    <t>1.06*</t>
+  </si>
+  <si>
+    <t>[ 1.01,   1.12]</t>
+  </si>
+  <si>
+    <t>0.10**</t>
+  </si>
+  <si>
+    <t>[ 0.03, 0.18]</t>
+  </si>
+  <si>
+    <t>0.87</t>
+  </si>
+  <si>
+    <t>[0.46,   1.64]</t>
+  </si>
+  <si>
+    <t>Partner Actionplan</t>
+  </si>
+  <si>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t>[ 0.96,  1.42]</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>[ 0.99,  1.17]</t>
+  </si>
+  <si>
+    <t>1.05</t>
+  </si>
+  <si>
+    <t>[ 1.00,   1.10]</t>
+  </si>
+  <si>
+    <t>[-0.11, 0.05]</t>
+  </si>
+  <si>
+    <t>[0.49,   1.54]</t>
+  </si>
+  <si>
+    <t>Daily weartime</t>
+  </si>
+  <si>
+    <t>1.00***</t>
+  </si>
+  <si>
+    <t>[ 1.00,   1.00]</t>
+  </si>
+  <si>
+    <t>Between-Person Effects</t>
+  </si>
+  <si>
+    <t>Mean persuasion experienced</t>
+  </si>
+  <si>
+    <t>1.40</t>
+  </si>
+  <si>
+    <t>[ 0.69,  2.84]</t>
+  </si>
+  <si>
+    <t>[ 0.77,  1.40]</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>[ 0.83,   1.46]</t>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>[-0.20, 0.90]</t>
+  </si>
+  <si>
+    <t>1.90</t>
+  </si>
+  <si>
+    <t>[0.57,   6.60]</t>
+  </si>
+  <si>
+    <t>Mean persuasion utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>1.33</t>
+  </si>
+  <si>
+    <t>[ 0.65,  2.67]</t>
+  </si>
+  <si>
+    <t>[ 0.73,  1.34]</t>
+  </si>
+  <si>
+    <t>[ 0.73,   1.30]</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>[-0.32, 0.78]</t>
+  </si>
+  <si>
+    <t>1.83</t>
+  </si>
+  <si>
+    <t>[0.50,   7.20]</t>
+  </si>
+  <si>
+    <t>Mean pressure experienced</t>
+  </si>
+  <si>
+    <t>0.40*</t>
+  </si>
+  <si>
+    <t>[ 0.18,  0.90]</t>
+  </si>
+  <si>
+    <t>1.18</t>
+  </si>
+  <si>
+    <t>[ 0.83,  1.67]</t>
+  </si>
+  <si>
+    <t>[ 0.74,   1.33]</t>
+  </si>
+  <si>
+    <t>-0.30</t>
+  </si>
+  <si>
+    <t>[-0.85, 0.24]</t>
+  </si>
+  <si>
+    <t>18.34**</t>
+  </si>
+  <si>
+    <t>[2.51, 165.74]</t>
+  </si>
+  <si>
+    <t>Mean pressure utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>[ 0.22,  1.15]</t>
+  </si>
+  <si>
+    <t>[ 0.65,  1.32]</t>
+  </si>
+  <si>
+    <t>[ 0.74,   1.29]</t>
+  </si>
+  <si>
+    <t>-0.31</t>
+  </si>
+  <si>
+    <t>[-0.86, 0.22]</t>
+  </si>
+  <si>
+    <t>2.29</t>
+  </si>
+  <si>
+    <t>[0.23,  19.25]</t>
+  </si>
+  <si>
+    <t>Mean pushing experienced</t>
+  </si>
+  <si>
+    <t>[ 0.41,  3.28]</t>
+  </si>
+  <si>
+    <t>1.21</t>
+  </si>
+  <si>
+    <t>[ 0.77,  1.88]</t>
+  </si>
+  <si>
+    <t>[ 0.63,   1.43]</t>
+  </si>
+  <si>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>[-0.55, 0.97]</t>
+  </si>
+  <si>
+    <t>[0.12,   6.20]</t>
+  </si>
+  <si>
+    <t>Mean pushing utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>2.07</t>
+  </si>
+  <si>
+    <t>[ 0.71,  5.84]</t>
+  </si>
+  <si>
+    <t>1.30</t>
+  </si>
+  <si>
+    <t>[ 0.82,  2.06]</t>
+  </si>
+  <si>
+    <t>1.22</t>
+  </si>
+  <si>
+    <t>[ 0.82,   1.84]</t>
+  </si>
+  <si>
+    <t>0.37</t>
+  </si>
+  <si>
+    <t>[-0.39, 1.13]</t>
+  </si>
+  <si>
+    <t>0.08*</t>
+  </si>
+  <si>
+    <t>[0.01,   0.68]</t>
+  </si>
+  <si>
+    <t>Mean weartime</t>
+  </si>
+  <si>
+    <t>Random Effects</t>
+  </si>
+  <si>
+    <t>sd(Intercept)</t>
+  </si>
+  <si>
+    <t>0.73</t>
+  </si>
+  <si>
+    <t>[0.56, 0.99]</t>
+  </si>
+  <si>
+    <t>0.30</t>
+  </si>
+  <si>
+    <t>[0.23, 0.41]</t>
+  </si>
+  <si>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>[0.23, 0.39]</t>
+  </si>
+  <si>
+    <t>0.60</t>
+  </si>
+  <si>
+    <t>[0.48, 0.78]</t>
+  </si>
+  <si>
+    <t>1.15</t>
+  </si>
+  <si>
+    <t>[0.74, 1.76]</t>
+  </si>
+  <si>
+    <t>sd(Daily persuasion experienced)</t>
+  </si>
+  <si>
+    <t>[0.03, 0.40]</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>[0.07, 0.17]</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>[0.02, 0.08]</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>[0.00, 0.10]</t>
+  </si>
+  <si>
+    <t>[0.01, 0.51]</t>
+  </si>
+  <si>
+    <t>sd(Daily persuasion utilized (partner's view))</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>[0.02, 0.37]</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>[0.04, 0.13]</t>
+  </si>
+  <si>
+    <t>[0.03, 0.09]</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>[0.01, 0.13]</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>[0.13, 0.98]</t>
+  </si>
+  <si>
+    <t>sd(Daily pressure experienced)</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>[0.01, 0.68]</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>[0.00, 0.22]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.13]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.24]</t>
+  </si>
+  <si>
+    <t>[0.14, 2.43]</t>
+  </si>
+  <si>
+    <t>sd(Daily pressure utilized (partner's view))</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>[0.01, 0.89]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.18]</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>[0.00, 0.11]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.26]</t>
+  </si>
+  <si>
+    <t>0.83</t>
+  </si>
+  <si>
+    <t>[0.04, 2.75]</t>
+  </si>
+  <si>
+    <t>sd(Daily pushing experienced)</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>[0.30, 0.98]</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>[0.01, 0.17]</t>
+  </si>
+  <si>
+    <t>[0.01, 0.15]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.15]</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>[0.02, 0.62]</t>
+  </si>
+  <si>
+    <t>sd(Daily pushing utilized (partner's view))</t>
+  </si>
+  <si>
+    <t>[0.02, 0.54]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.09]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.17]</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>[0.01, 0.96]</t>
+  </si>
+  <si>
+    <t>Additional Parameters</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>[0.65, 0.70]</t>
+  </si>
+  <si>
+    <t>[0.56, 0.59]</t>
+  </si>
+  <si>
+    <t>[0.94, 0.98]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -768,16 +788,16 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <b/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <i/>
     </font>
   </fonts>
   <fills count="2">
@@ -797,20 +817,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -826,20 +854,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1121,49 +1164,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="38.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.40625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.953125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1198,7 +1256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -1233,43 +1291,43 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1303,8 +1361,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A6" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1338,8 +1396,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A7" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1373,8 +1431,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A8" s="7" t="s">
         <v>55</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1408,8 +1466,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A9" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1443,8 +1501,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A10" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1478,8 +1536,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A11" s="7" t="s">
         <v>85</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1513,8 +1571,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A12" s="7" t="s">
         <v>94</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1548,8 +1606,8 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A13" s="7" t="s">
         <v>105</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1583,8 +1641,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A14" s="7" t="s">
         <v>114</v>
       </c>
       <c r="B14" s="1"/>
@@ -1602,43 +1660,43 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A15" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="11" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A16" s="7" t="s">
         <v>118</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1672,8 +1730,8 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A17" s="7" t="s">
         <v>128</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1707,8 +1765,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A18" s="7" t="s">
         <v>137</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1742,8 +1800,8 @@
         <v>146</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A19" s="7" t="s">
         <v>147</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1777,8 +1835,8 @@
         <v>155</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A20" s="7" t="s">
         <v>156</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1812,8 +1870,8 @@
         <v>163</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A21" s="7" t="s">
         <v>164</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1847,8 +1905,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A22" s="7" t="s">
         <v>175</v>
       </c>
       <c r="B22" s="1"/>
@@ -1866,43 +1924,43 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A23" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="K23" s="11" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A24" s="7" t="s">
         <v>177</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1936,8 +1994,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A25" s="7" t="s">
         <v>188</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1971,8 +2029,8 @@
         <v>196</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A26" s="7" t="s">
         <v>197</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2006,8 +2064,8 @@
         <v>206</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A27" s="7" t="s">
         <v>207</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2041,8 +2099,8 @@
         <v>214</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A28" s="7" t="s">
         <v>215</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -2076,8 +2134,8 @@
         <v>223</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A29" s="7" t="s">
         <v>224</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2111,8 +2169,8 @@
         <v>232</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="8" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A30" s="7" t="s">
         <v>233</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2146,43 +2204,43 @@
         <v>238</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="7" t="s">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A31" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H31" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I31" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J31" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="K31" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="9" t="s">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A32" s="8" t="s">
         <v>240</v>
       </c>
       <c r="B32" s="4"/>
@@ -2208,36 +2266,36 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
     </row>
-    <row r="33">
-      <c r="A33" s="8"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="8"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="8"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="8"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="8"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="8"/>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A33" s="7"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A34" s="7"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A35" s="7"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A36" s="7"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A37" s="7"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A38" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A31:K31"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A31:K31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Output/AllModels_final_with_plan_12000.xlsx
+++ b/Output/AllModels_final_with_plan_12000.xlsx
@@ -1,39 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kueng\DataAnalysis\02TimeAndTiesControl_updatedBRMS\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pascku\Repos\02TimeAndTiesControl\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD36CB0C-7351-4FE9-B8E6-1CA169049FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECBA541-5A5D-4F9A-8C3B-2FD1671168BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22510" yWindow="760" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="247">
   <si>
     <t/>
   </si>
@@ -83,16 +70,16 @@
     <t>[ 0.19,  0.35]</t>
   </si>
   <si>
-    <t>37.92***</t>
-  </si>
-  <si>
-    <t>[33.02, 43.54]</t>
+    <t>37.81***</t>
+  </si>
+  <si>
+    <t>[32.93, 43.41]</t>
   </si>
   <si>
     <t>111.17***</t>
   </si>
   <si>
-    <t>[99.95, 123.93]</t>
+    <t>[99.96, 123.69]</t>
   </si>
   <si>
     <t>3.67***</t>
@@ -101,7 +88,7 @@
     <t>[ 3.46, 3.88]</t>
   </si>
   <si>
-    <t>0.34***</t>
+    <t>0.34**</t>
   </si>
   <si>
     <t>[0.17,   0.64]</t>
@@ -113,10 +100,10 @@
     <t>Daily persuasion experienced</t>
   </si>
   <si>
-    <t>1.59***</t>
-  </si>
-  <si>
-    <t>[ 1.39,  1.85]</t>
+    <t>1.58***</t>
+  </si>
+  <si>
+    <t>[ 1.39,  1.83]</t>
   </si>
   <si>
     <t>1.03</t>
@@ -146,7 +133,7 @@
     <t>1.34***</t>
   </si>
   <si>
-    <t>[ 1.19,  1.54]</t>
+    <t>[ 1.19,  1.52]</t>
   </si>
   <si>
     <t>[ 0.99,  1.08]</t>
@@ -167,24 +154,27 @@
     <t>1.12</t>
   </si>
   <si>
-    <t>[0.84,   1.53]</t>
+    <t>[0.84,   1.54]</t>
   </si>
   <si>
     <t>Daily pressure experienced</t>
   </si>
   <si>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>[ 0.70,  1.31]</t>
+  </si>
+  <si>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t>[ 0.82,  1.00]</t>
+  </si>
+  <si>
     <t>0.95</t>
   </si>
   <si>
-    <t>[ 0.69,  1.29]</t>
-  </si>
-  <si>
-    <t>0.91*</t>
-  </si>
-  <si>
-    <t>[ 0.82,  1.00]</t>
-  </si>
-  <si>
     <t>[ 0.88,   1.01]</t>
   </si>
   <si>
@@ -197,7 +187,7 @@
     <t>1.97*</t>
   </si>
   <si>
-    <t>[1.01,   4.43]</t>
+    <t>[1.01,   4.38]</t>
   </si>
   <si>
     <t>Daily pressure utilized (partner's view)</t>
@@ -206,7 +196,7 @@
     <t>1.49*</t>
   </si>
   <si>
-    <t>[ 1.05,  2.29]</t>
+    <t>[ 1.04,  2.33]</t>
   </si>
   <si>
     <t>[ 0.86,  1.03]</t>
@@ -221,387 +211,393 @@
     <t>[-0.15, 0.08]</t>
   </si>
   <si>
-    <t>1.42</t>
-  </si>
-  <si>
-    <t>[0.58,   4.18]</t>
+    <t>1.43</t>
+  </si>
+  <si>
+    <t>[0.59,   4.21]</t>
   </si>
   <si>
     <t>Daily pushing experienced</t>
   </si>
   <si>
+    <t>[ 0.71,  1.31]</t>
+  </si>
+  <si>
+    <t>0.99</t>
+  </si>
+  <si>
+    <t>[ 0.92,  1.05]</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>[ 0.96,   1.07]</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>[-0.06, 0.07]</t>
+  </si>
+  <si>
+    <t>1.33*</t>
+  </si>
+  <si>
+    <t>[1.03,   1.76]</t>
+  </si>
+  <si>
+    <t>Daily pushing utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>1.29*</t>
+  </si>
+  <si>
+    <t>[ 1.05,  1.63]</t>
+  </si>
+  <si>
+    <t>[ 0.90,  1.02]</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>[ 0.96,   1.04]</t>
+  </si>
+  <si>
+    <t>0.07*</t>
+  </si>
+  <si>
+    <t>[ 0.00, 0.14]</t>
+  </si>
+  <si>
+    <t>[0.61,   1.36]</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>[ 0.65,  1.15]</t>
+  </si>
+  <si>
+    <t>[ 0.87,  1.11]</t>
+  </si>
+  <si>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>[ 0.91,   1.04]</t>
+  </si>
+  <si>
+    <t>[ 0.15, 0.37]</t>
+  </si>
+  <si>
+    <t>1.67</t>
+  </si>
+  <si>
+    <t>[0.78,   3.60]</t>
+  </si>
+  <si>
+    <t>Own Actionplan</t>
+  </si>
+  <si>
+    <t>9.46***</t>
+  </si>
+  <si>
+    <t>[ 7.77, 11.57]</t>
+  </si>
+  <si>
+    <t>1.32***</t>
+  </si>
+  <si>
+    <t>[ 1.21,  1.45]</t>
+  </si>
+  <si>
+    <t>1.06*</t>
+  </si>
+  <si>
+    <t>[ 1.01,   1.12]</t>
+  </si>
+  <si>
+    <t>0.10**</t>
+  </si>
+  <si>
+    <t>[ 0.03, 0.18]</t>
+  </si>
+  <si>
+    <t>0.87</t>
+  </si>
+  <si>
+    <t>[0.46,   1.63]</t>
+  </si>
+  <si>
+    <t>Partner Actionplan</t>
+  </si>
+  <si>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t>[ 0.96,  1.41]</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>[ 0.99,  1.17]</t>
+  </si>
+  <si>
+    <t>1.05</t>
+  </si>
+  <si>
+    <t>[ 1.00,   1.10]</t>
+  </si>
+  <si>
+    <t>[-0.11, 0.04]</t>
+  </si>
+  <si>
+    <t>[0.49,   1.54]</t>
+  </si>
+  <si>
+    <t>Daily weartime</t>
+  </si>
+  <si>
+    <t>1.00***</t>
+  </si>
+  <si>
+    <t>[ 1.00,   1.00]</t>
+  </si>
+  <si>
+    <t>Between-Person Effects</t>
+  </si>
+  <si>
+    <t>Mean persuasion experienced</t>
+  </si>
+  <si>
+    <t>1.48</t>
+  </si>
+  <si>
+    <t>[ 0.73,  3.06]</t>
+  </si>
+  <si>
+    <t>[ 0.74,  1.34]</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>[ 0.84,   1.46]</t>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>[-0.21, 0.89]</t>
+  </si>
+  <si>
+    <t>1.91</t>
+  </si>
+  <si>
+    <t>[0.58,   6.66]</t>
+  </si>
+  <si>
+    <t>Mean persuasion utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>1.40</t>
+  </si>
+  <si>
+    <t>[ 0.69,  2.86]</t>
+  </si>
+  <si>
+    <t>[ 0.71,  1.28]</t>
+  </si>
+  <si>
+    <t>[ 0.74,   1.30]</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>[-0.33, 0.77]</t>
+  </si>
+  <si>
+    <t>1.82</t>
+  </si>
+  <si>
+    <t>[0.50,   7.26]</t>
+  </si>
+  <si>
+    <t>Mean pressure experienced</t>
+  </si>
+  <si>
+    <t>0.39*</t>
+  </si>
+  <si>
+    <t>[ 0.17,  0.88]</t>
+  </si>
+  <si>
+    <t>1.20</t>
+  </si>
+  <si>
+    <t>[ 0.85,  1.70]</t>
+  </si>
+  <si>
+    <t>[ 0.74,   1.32]</t>
+  </si>
+  <si>
+    <t>-0.30</t>
+  </si>
+  <si>
+    <t>[-0.84, 0.24]</t>
+  </si>
+  <si>
+    <t>18.52**</t>
+  </si>
+  <si>
+    <t>[2.54, 166.38]</t>
+  </si>
+  <si>
+    <t>Mean pressure utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>[ 0.22,  1.13]</t>
+  </si>
+  <si>
     <t>0.94</t>
   </si>
   <si>
-    <t>[ 0.71,  1.28]</t>
-  </si>
-  <si>
-    <t>0.99</t>
-  </si>
-  <si>
-    <t>[ 0.92,  1.05]</t>
-  </si>
-  <si>
-    <t>[ 0.96,   1.07]</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>[-0.06, 0.07]</t>
-  </si>
-  <si>
-    <t>1.33*</t>
-  </si>
-  <si>
-    <t>[1.03,   1.75]</t>
-  </si>
-  <si>
-    <t>Daily pushing utilized (partner's view)</t>
-  </si>
-  <si>
-    <t>1.28*</t>
-  </si>
-  <si>
-    <t>[ 1.04,  1.64]</t>
-  </si>
-  <si>
-    <t>0.96</t>
-  </si>
-  <si>
-    <t>[ 0.90,  1.02]</t>
-  </si>
-  <si>
-    <t>1.00</t>
-  </si>
-  <si>
-    <t>[ 0.96,   1.04]</t>
-  </si>
-  <si>
-    <t>0.07*</t>
-  </si>
-  <si>
-    <t>[ 0.00, 0.14]</t>
-  </si>
-  <si>
-    <t>0.92</t>
-  </si>
-  <si>
-    <t>[0.62,   1.36]</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>0.86</t>
-  </si>
-  <si>
-    <t>[ 0.64,  1.15]</t>
-  </si>
-  <si>
-    <t>[ 0.88,  1.11]</t>
-  </si>
-  <si>
-    <t>0.97</t>
-  </si>
-  <si>
-    <t>[ 0.91,   1.04]</t>
-  </si>
-  <si>
-    <t>[ 0.15, 0.37]</t>
-  </si>
-  <si>
-    <t>1.66</t>
-  </si>
-  <si>
-    <t>[0.77,   3.60]</t>
-  </si>
-  <si>
-    <t>Own Actionplan</t>
-  </si>
-  <si>
-    <t>9.48***</t>
-  </si>
-  <si>
-    <t>[ 7.77, 11.60]</t>
-  </si>
-  <si>
-    <t>1.33***</t>
-  </si>
-  <si>
-    <t>[ 1.21,  1.45]</t>
-  </si>
-  <si>
-    <t>1.06*</t>
-  </si>
-  <si>
-    <t>[ 1.01,   1.12]</t>
-  </si>
-  <si>
-    <t>0.10**</t>
-  </si>
-  <si>
-    <t>[ 0.03, 0.18]</t>
-  </si>
-  <si>
-    <t>0.87</t>
-  </si>
-  <si>
-    <t>[0.46,   1.64]</t>
-  </si>
-  <si>
-    <t>Partner Actionplan</t>
-  </si>
-  <si>
-    <t>1.17</t>
-  </si>
-  <si>
-    <t>[ 0.96,  1.42]</t>
-  </si>
-  <si>
-    <t>1.08</t>
-  </si>
-  <si>
-    <t>[ 0.99,  1.17]</t>
-  </si>
-  <si>
-    <t>1.05</t>
-  </si>
-  <si>
-    <t>[ 1.00,   1.10]</t>
-  </si>
-  <si>
-    <t>[-0.11, 0.05]</t>
-  </si>
-  <si>
-    <t>[0.49,   1.54]</t>
-  </si>
-  <si>
-    <t>Daily weartime</t>
-  </si>
-  <si>
-    <t>1.00***</t>
-  </si>
-  <si>
-    <t>[ 1.00,   1.00]</t>
-  </si>
-  <si>
-    <t>Between-Person Effects</t>
-  </si>
-  <si>
-    <t>Mean persuasion experienced</t>
-  </si>
-  <si>
-    <t>1.40</t>
-  </si>
-  <si>
-    <t>[ 0.69,  2.84]</t>
-  </si>
-  <si>
-    <t>[ 0.77,  1.40]</t>
-  </si>
-  <si>
-    <t>1.10</t>
-  </si>
-  <si>
-    <t>[ 0.83,   1.46]</t>
-  </si>
-  <si>
-    <t>0.34</t>
-  </si>
-  <si>
-    <t>[-0.20, 0.90]</t>
-  </si>
-  <si>
-    <t>1.90</t>
-  </si>
-  <si>
-    <t>[0.57,   6.60]</t>
-  </si>
-  <si>
-    <t>Mean persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t>1.33</t>
-  </si>
-  <si>
-    <t>[ 0.65,  2.67]</t>
-  </si>
-  <si>
-    <t>[ 0.73,  1.34]</t>
-  </si>
-  <si>
-    <t>[ 0.73,   1.30]</t>
-  </si>
-  <si>
-    <t>0.22</t>
-  </si>
-  <si>
-    <t>[-0.32, 0.78]</t>
-  </si>
-  <si>
-    <t>1.83</t>
-  </si>
-  <si>
-    <t>[0.50,   7.20]</t>
-  </si>
-  <si>
-    <t>Mean pressure experienced</t>
-  </si>
-  <si>
-    <t>0.40*</t>
-  </si>
-  <si>
-    <t>[ 0.18,  0.90]</t>
-  </si>
-  <si>
-    <t>1.18</t>
-  </si>
-  <si>
-    <t>[ 0.83,  1.67]</t>
-  </si>
-  <si>
-    <t>[ 0.74,   1.33]</t>
-  </si>
-  <si>
-    <t>-0.30</t>
-  </si>
-  <si>
-    <t>[-0.85, 0.24]</t>
-  </si>
-  <si>
-    <t>18.34**</t>
-  </si>
-  <si>
-    <t>[2.51, 165.74]</t>
-  </si>
-  <si>
-    <t>Mean pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t>0.51</t>
-  </si>
-  <si>
-    <t>[ 0.22,  1.15]</t>
-  </si>
-  <si>
-    <t>[ 0.65,  1.32]</t>
-  </si>
-  <si>
-    <t>[ 0.74,   1.29]</t>
+    <t>[ 0.66,  1.34]</t>
+  </si>
+  <si>
+    <t>[ 0.74,   1.28]</t>
   </si>
   <si>
     <t>-0.31</t>
   </si>
   <si>
-    <t>[-0.86, 0.22]</t>
-  </si>
-  <si>
-    <t>2.29</t>
-  </si>
-  <si>
-    <t>[0.23,  19.25]</t>
+    <t>[-0.85, 0.23]</t>
+  </si>
+  <si>
+    <t>2.30</t>
+  </si>
+  <si>
+    <t>[0.24,  19.50]</t>
   </si>
   <si>
     <t>Mean pushing experienced</t>
   </si>
   <si>
-    <t>[ 0.41,  3.28]</t>
-  </si>
-  <si>
-    <t>1.21</t>
-  </si>
-  <si>
-    <t>[ 0.77,  1.88]</t>
-  </si>
-  <si>
-    <t>[ 0.63,   1.43]</t>
+    <t>1.09</t>
+  </si>
+  <si>
+    <t>[ 0.38,  3.17]</t>
+  </si>
+  <si>
+    <t>1.23</t>
+  </si>
+  <si>
+    <t>[ 0.80,  1.92]</t>
+  </si>
+  <si>
+    <t>[ 0.63,   1.42]</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>[-0.58, 0.97]</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>[0.12,   6.06]</t>
+  </si>
+  <si>
+    <t>Mean pushing utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>1.96</t>
+  </si>
+  <si>
+    <t>[ 0.68,  5.67]</t>
+  </si>
+  <si>
+    <t>1.34</t>
+  </si>
+  <si>
+    <t>[ 0.86,  2.09]</t>
+  </si>
+  <si>
+    <t>1.22</t>
+  </si>
+  <si>
+    <t>[ 0.82,   1.83]</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>[-0.40, 1.12]</t>
+  </si>
+  <si>
+    <t>0.08*</t>
+  </si>
+  <si>
+    <t>[0.01,   0.69]</t>
+  </si>
+  <si>
+    <t>Mean weartime</t>
+  </si>
+  <si>
+    <t>Random Effects</t>
+  </si>
+  <si>
+    <t>sd(Intercept)</t>
+  </si>
+  <si>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>[0.57, 0.99]</t>
+  </si>
+  <si>
+    <t>0.30</t>
+  </si>
+  <si>
+    <t>[0.23, 0.40]</t>
+  </si>
+  <si>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>[0.23, 0.39]</t>
+  </si>
+  <si>
+    <t>0.60</t>
+  </si>
+  <si>
+    <t>[0.47, 0.78]</t>
+  </si>
+  <si>
+    <t>1.15</t>
+  </si>
+  <si>
+    <t>[0.74, 1.75]</t>
+  </si>
+  <si>
+    <t>sd(Daily persuasion experienced)</t>
   </si>
   <si>
     <t>0.21</t>
   </si>
   <si>
-    <t>[-0.55, 0.97]</t>
-  </si>
-  <si>
-    <t>[0.12,   6.20]</t>
-  </si>
-  <si>
-    <t>Mean pushing utilized (partner's view)</t>
-  </si>
-  <si>
-    <t>2.07</t>
-  </si>
-  <si>
-    <t>[ 0.71,  5.84]</t>
-  </si>
-  <si>
-    <t>1.30</t>
-  </si>
-  <si>
-    <t>[ 0.82,  2.06]</t>
-  </si>
-  <si>
-    <t>1.22</t>
-  </si>
-  <si>
-    <t>[ 0.82,   1.84]</t>
-  </si>
-  <si>
-    <t>0.37</t>
-  </si>
-  <si>
-    <t>[-0.39, 1.13]</t>
-  </si>
-  <si>
-    <t>0.08*</t>
-  </si>
-  <si>
-    <t>[0.01,   0.68]</t>
-  </si>
-  <si>
-    <t>Mean weartime</t>
-  </si>
-  <si>
-    <t>Random Effects</t>
-  </si>
-  <si>
-    <t>sd(Intercept)</t>
-  </si>
-  <si>
-    <t>0.73</t>
-  </si>
-  <si>
-    <t>[0.56, 0.99]</t>
-  </si>
-  <si>
-    <t>0.30</t>
-  </si>
-  <si>
-    <t>[0.23, 0.41]</t>
-  </si>
-  <si>
-    <t>0.29</t>
-  </si>
-  <si>
-    <t>[0.23, 0.39]</t>
-  </si>
-  <si>
-    <t>0.60</t>
-  </si>
-  <si>
-    <t>[0.48, 0.78]</t>
-  </si>
-  <si>
-    <t>1.15</t>
-  </si>
-  <si>
-    <t>[0.74, 1.76]</t>
-  </si>
-  <si>
-    <t>sd(Daily persuasion experienced)</t>
-  </si>
-  <si>
     <t>[0.03, 0.40]</t>
   </si>
   <si>
@@ -629,10 +625,10 @@
     <t>sd(Daily persuasion utilized (partner's view))</t>
   </si>
   <si>
-    <t>0.19</t>
-  </si>
-  <si>
-    <t>[0.02, 0.37]</t>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>[0.01, 0.34]</t>
   </si>
   <si>
     <t>0.08</t>
@@ -650,118 +646,115 @@
     <t>[0.01, 0.13]</t>
   </si>
   <si>
-    <t>0.49</t>
-  </si>
-  <si>
     <t>[0.13, 0.98]</t>
   </si>
   <si>
     <t>sd(Daily pressure experienced)</t>
   </si>
   <si>
+    <t>[0.01, 0.74]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.23]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.13]</t>
+  </si>
+  <si>
+    <t>[0.14, 2.44]</t>
+  </si>
+  <si>
+    <t>sd(Daily pressure utilized (partner's view))</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>[0.01, 0.95]</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>[0.00, 0.18]</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>[0.00, 0.11]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.26]</t>
+  </si>
+  <si>
+    <t>0.81</t>
+  </si>
+  <si>
+    <t>[0.04, 2.70]</t>
+  </si>
+  <si>
+    <t>sd(Daily pushing experienced)</t>
+  </si>
+  <si>
+    <t>0.58</t>
+  </si>
+  <si>
+    <t>[0.31, 1.01]</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>[0.01, 0.17]</t>
+  </si>
+  <si>
+    <t>[0.01, 0.15]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.14]</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>[0.02, 0.62]</t>
+  </si>
+  <si>
+    <t>sd(Daily pushing utilized (partner's view))</t>
+  </si>
+  <si>
     <t>0.18</t>
   </si>
   <si>
-    <t>[0.01, 0.68]</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>[0.00, 0.22]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.13]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.24]</t>
-  </si>
-  <si>
-    <t>[0.14, 2.43]</t>
-  </si>
-  <si>
-    <t>sd(Daily pressure utilized (partner's view))</t>
-  </si>
-  <si>
-    <t>0.23</t>
-  </si>
-  <si>
-    <t>[0.01, 0.89]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.18]</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>[0.00, 0.11]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.26]</t>
-  </si>
-  <si>
-    <t>0.83</t>
-  </si>
-  <si>
-    <t>[0.04, 2.75]</t>
-  </si>
-  <si>
-    <t>sd(Daily pushing experienced)</t>
+    <t>[0.01, 0.50]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.09]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.16]</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>[0.01, 0.96]</t>
+  </si>
+  <si>
+    <t>Additional Parameters</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>[0.65, 0.70]</t>
   </si>
   <si>
     <t>0.57</t>
-  </si>
-  <si>
-    <t>[0.30, 0.98]</t>
-  </si>
-  <si>
-    <t>0.09</t>
-  </si>
-  <si>
-    <t>[0.01, 0.17]</t>
-  </si>
-  <si>
-    <t>[0.01, 0.15]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.15]</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>[0.02, 0.62]</t>
-  </si>
-  <si>
-    <t>sd(Daily pushing utilized (partner's view))</t>
-  </si>
-  <si>
-    <t>[0.02, 0.54]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.09]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.17]</t>
-  </si>
-  <si>
-    <t>0.26</t>
-  </si>
-  <si>
-    <t>[0.01, 0.96]</t>
-  </si>
-  <si>
-    <t>Additional Parameters</t>
-  </si>
-  <si>
-    <t>sigma</t>
-  </si>
-  <si>
-    <t>0.68</t>
-  </si>
-  <si>
-    <t>[0.65, 0.70]</t>
   </si>
   <si>
     <t>[0.56, 0.59]</t>
@@ -1167,26 +1160,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="38.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.40625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.73046875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1221,7 +1214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1256,7 +1249,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -1291,7 +1284,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>24</v>
       </c>
@@ -1326,7 +1319,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>25</v>
       </c>
@@ -1361,7 +1354,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>35</v>
       </c>
@@ -1396,7 +1389,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>45</v>
       </c>
@@ -1406,72 +1399,72 @@
       <c r="C7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A8" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>66</v>
@@ -1483,36 +1476,36 @@
         <v>68</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>78</v>
@@ -1530,294 +1523,294 @@
         <v>82</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" s="7" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A11" s="7" t="s">
+      <c r="B11" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" s="7" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="I12" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="K12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13" s="7" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A13" s="7" t="s">
+      <c r="B13" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K13" s="1" t="s">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14" s="7" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A14" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A16" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A16" s="7" t="s">
+      <c r="B16" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="K16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A17" s="7" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A17" s="7" t="s">
+      <c r="B17" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A18" s="7" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="C18" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>67</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="K18" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="K18" s="1" t="s">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A19" s="7" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A19" s="7" t="s">
+      <c r="B19" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>150</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>151</v>
@@ -1835,79 +1828,79 @@
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="7" t="s">
         <v>156</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1917,200 +1910,200 @@
         <v>79</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="10" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="I25" s="1" t="s">
+      <c r="K25" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A26" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A26" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="G26" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>205</v>
+        <v>147</v>
       </c>
       <c r="K26" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A27" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>206</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A27" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>211</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>212</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I27" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K27" s="1" t="s">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A28" s="7" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A28" s="7" t="s">
+      <c r="B28" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>218</v>
@@ -2122,7 +2115,7 @@
         <v>220</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>221</v>
@@ -2134,7 +2127,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="7" t="s">
         <v>224</v>
       </c>
@@ -2151,13 +2144,13 @@
         <v>228</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>229</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>230</v>
@@ -2169,18 +2162,18 @@
         <v>232</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="7" t="s">
         <v>233</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>133</v>
+        <v>234</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>229</v>
@@ -2189,99 +2182,99 @@
         <v>219</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.75">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K31" s="11" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.75">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" s="7"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" s="7"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" s="7"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" s="7"/>
     </row>
   </sheetData>

--- a/Output/AllModels_final_with_plan_12000.xlsx
+++ b/Output/AllModels_final_with_plan_12000.xlsx
@@ -1,773 +1,766 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pascku\Repos\02TimeAndTiesControl\Output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECBA541-5A5D-4F9A-8C3B-2FD1671168BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-22510" yWindow="760" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="247">
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Subjective MVPA Hurdle Lognormal</t>
-  </si>
-  <si>
-    <t>Device-Based MVPA Log (Gaussian)</t>
-  </si>
-  <si>
-    <t>Mood Gaussian</t>
-  </si>
-  <si>
-    <t>Reactance Dichotome</t>
-  </si>
-  <si>
-    <t>exp(Est.)_hu</t>
-  </si>
-  <si>
-    <t>95% CI_hu</t>
-  </si>
-  <si>
-    <t>exp(Est.)_nonzero</t>
-  </si>
-  <si>
-    <t>95% CI_nonzero</t>
-  </si>
-  <si>
-    <t>exp(Est.)</t>
-  </si>
-  <si>
-    <t>95% CI</t>
-  </si>
-  <si>
-    <t>Est.</t>
-  </si>
-  <si>
-    <t>OR</t>
-  </si>
-  <si>
-    <t>Intercept</t>
-  </si>
-  <si>
-    <t>0.26***</t>
-  </si>
-  <si>
-    <t>[ 0.19,  0.35]</t>
-  </si>
-  <si>
-    <t>37.81***</t>
-  </si>
-  <si>
-    <t>[32.93, 43.41]</t>
-  </si>
-  <si>
-    <t>111.17***</t>
-  </si>
-  <si>
-    <t>[99.96, 123.69]</t>
-  </si>
-  <si>
-    <t>3.67***</t>
-  </si>
-  <si>
-    <t>[ 3.46, 3.88]</t>
-  </si>
-  <si>
-    <t>0.34**</t>
-  </si>
-  <si>
-    <t>[0.17,   0.64]</t>
-  </si>
-  <si>
-    <t>Within-Person Effects</t>
-  </si>
-  <si>
-    <t>Daily persuasion experienced</t>
-  </si>
-  <si>
-    <t>1.58***</t>
-  </si>
-  <si>
-    <t>[ 1.39,  1.83]</t>
-  </si>
-  <si>
-    <t>1.03</t>
-  </si>
-  <si>
-    <t>[ 0.98,  1.09]</t>
-  </si>
-  <si>
-    <t>[ 1.00,   1.06]</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>[-0.04, 0.04]</t>
-  </si>
-  <si>
-    <t>0.84</t>
-  </si>
-  <si>
-    <t>[0.68,   1.01]</t>
-  </si>
-  <si>
-    <t>Daily persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t>1.34***</t>
-  </si>
-  <si>
-    <t>[ 1.19,  1.52]</t>
-  </si>
-  <si>
-    <t>[ 0.99,  1.08]</t>
-  </si>
-  <si>
-    <t>1.02</t>
-  </si>
-  <si>
-    <t>[ 0.99,   1.05]</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>[-0.02, 0.07]</t>
-  </si>
-  <si>
-    <t>1.12</t>
-  </si>
-  <si>
-    <t>[0.84,   1.54]</t>
-  </si>
-  <si>
-    <t>Daily pressure experienced</t>
-  </si>
-  <si>
-    <t>0.96</t>
-  </si>
-  <si>
-    <t>[ 0.70,  1.31]</t>
-  </si>
-  <si>
-    <t>0.91</t>
-  </si>
-  <si>
-    <t>[ 0.82,  1.00]</t>
-  </si>
-  <si>
-    <t>0.95</t>
-  </si>
-  <si>
-    <t>[ 0.88,   1.01]</t>
-  </si>
-  <si>
-    <t>-0.03</t>
-  </si>
-  <si>
-    <t>[-0.14, 0.07]</t>
-  </si>
-  <si>
-    <t>1.97*</t>
-  </si>
-  <si>
-    <t>[1.01,   4.38]</t>
-  </si>
-  <si>
-    <t>Daily pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t>1.49*</t>
-  </si>
-  <si>
-    <t>[ 1.04,  2.33]</t>
-  </si>
-  <si>
-    <t>[ 0.86,  1.03]</t>
-  </si>
-  <si>
-    <t>0.98</t>
-  </si>
-  <si>
-    <t>[ 0.92,   1.05]</t>
-  </si>
-  <si>
-    <t>[-0.15, 0.08]</t>
-  </si>
-  <si>
-    <t>1.43</t>
-  </si>
-  <si>
-    <t>[0.59,   4.21]</t>
-  </si>
-  <si>
-    <t>Daily pushing experienced</t>
-  </si>
-  <si>
-    <t>[ 0.71,  1.31]</t>
-  </si>
-  <si>
-    <t>0.99</t>
-  </si>
-  <si>
-    <t>[ 0.92,  1.05]</t>
-  </si>
-  <si>
-    <t>1.01</t>
-  </si>
-  <si>
-    <t>[ 0.96,   1.07]</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>[-0.06, 0.07]</t>
-  </si>
-  <si>
-    <t>1.33*</t>
-  </si>
-  <si>
-    <t>[1.03,   1.76]</t>
-  </si>
-  <si>
-    <t>Daily pushing utilized (partner's view)</t>
-  </si>
-  <si>
-    <t>1.29*</t>
-  </si>
-  <si>
-    <t>[ 1.05,  1.63]</t>
-  </si>
-  <si>
-    <t>[ 0.90,  1.02]</t>
-  </si>
-  <si>
-    <t>1.00</t>
-  </si>
-  <si>
-    <t>[ 0.96,   1.04]</t>
-  </si>
-  <si>
-    <t>0.07*</t>
-  </si>
-  <si>
-    <t>[ 0.00, 0.14]</t>
-  </si>
-  <si>
-    <t>[0.61,   1.36]</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>0.86</t>
-  </si>
-  <si>
-    <t>[ 0.65,  1.15]</t>
-  </si>
-  <si>
-    <t>[ 0.87,  1.11]</t>
-  </si>
-  <si>
-    <t>0.97</t>
-  </si>
-  <si>
-    <t>[ 0.91,   1.04]</t>
-  </si>
-  <si>
-    <t>[ 0.15, 0.37]</t>
-  </si>
-  <si>
-    <t>1.67</t>
-  </si>
-  <si>
-    <t>[0.78,   3.60]</t>
-  </si>
-  <si>
-    <t>Own Actionplan</t>
-  </si>
-  <si>
-    <t>9.46***</t>
-  </si>
-  <si>
-    <t>[ 7.77, 11.57]</t>
-  </si>
-  <si>
-    <t>1.32***</t>
-  </si>
-  <si>
-    <t>[ 1.21,  1.45]</t>
-  </si>
-  <si>
-    <t>1.06*</t>
-  </si>
-  <si>
-    <t>[ 1.01,   1.12]</t>
-  </si>
-  <si>
-    <t>0.10**</t>
-  </si>
-  <si>
-    <t>[ 0.03, 0.18]</t>
-  </si>
-  <si>
-    <t>0.87</t>
-  </si>
-  <si>
-    <t>[0.46,   1.63]</t>
-  </si>
-  <si>
-    <t>Partner Actionplan</t>
-  </si>
-  <si>
-    <t>1.17</t>
-  </si>
-  <si>
-    <t>[ 0.96,  1.41]</t>
-  </si>
-  <si>
-    <t>1.08</t>
-  </si>
-  <si>
-    <t>[ 0.99,  1.17]</t>
-  </si>
-  <si>
-    <t>1.05</t>
-  </si>
-  <si>
-    <t>[ 1.00,   1.10]</t>
-  </si>
-  <si>
-    <t>[-0.11, 0.04]</t>
-  </si>
-  <si>
-    <t>[0.49,   1.54]</t>
-  </si>
-  <si>
-    <t>Daily weartime</t>
-  </si>
-  <si>
-    <t>1.00***</t>
-  </si>
-  <si>
-    <t>[ 1.00,   1.00]</t>
-  </si>
-  <si>
-    <t>Between-Person Effects</t>
-  </si>
-  <si>
-    <t>Mean persuasion experienced</t>
-  </si>
-  <si>
-    <t>1.48</t>
-  </si>
-  <si>
-    <t>[ 0.73,  3.06]</t>
-  </si>
-  <si>
-    <t>[ 0.74,  1.34]</t>
-  </si>
-  <si>
-    <t>1.10</t>
-  </si>
-  <si>
-    <t>[ 0.84,   1.46]</t>
-  </si>
-  <si>
-    <t>0.34</t>
-  </si>
-  <si>
-    <t>[-0.21, 0.89]</t>
-  </si>
-  <si>
-    <t>1.91</t>
-  </si>
-  <si>
-    <t>[0.58,   6.66]</t>
-  </si>
-  <si>
-    <t>Mean persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t>1.40</t>
-  </si>
-  <si>
-    <t>[ 0.69,  2.86]</t>
-  </si>
-  <si>
-    <t>[ 0.71,  1.28]</t>
-  </si>
-  <si>
-    <t>[ 0.74,   1.30]</t>
-  </si>
-  <si>
-    <t>0.23</t>
-  </si>
-  <si>
-    <t>[-0.33, 0.77]</t>
-  </si>
-  <si>
-    <t>1.82</t>
-  </si>
-  <si>
-    <t>[0.50,   7.26]</t>
-  </si>
-  <si>
-    <t>Mean pressure experienced</t>
-  </si>
-  <si>
-    <t>0.39*</t>
-  </si>
-  <si>
-    <t>[ 0.17,  0.88]</t>
-  </si>
-  <si>
-    <t>1.20</t>
-  </si>
-  <si>
-    <t>[ 0.85,  1.70]</t>
-  </si>
-  <si>
-    <t>[ 0.74,   1.32]</t>
-  </si>
-  <si>
-    <t>-0.30</t>
-  </si>
-  <si>
-    <t>[-0.84, 0.24]</t>
-  </si>
-  <si>
-    <t>18.52**</t>
-  </si>
-  <si>
-    <t>[2.54, 166.38]</t>
-  </si>
-  <si>
-    <t>Mean pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t>0.49</t>
-  </si>
-  <si>
-    <t>[ 0.22,  1.13]</t>
-  </si>
-  <si>
-    <t>0.94</t>
-  </si>
-  <si>
-    <t>[ 0.66,  1.34]</t>
-  </si>
-  <si>
-    <t>[ 0.74,   1.28]</t>
-  </si>
-  <si>
-    <t>-0.31</t>
-  </si>
-  <si>
-    <t>[-0.85, 0.23]</t>
-  </si>
-  <si>
-    <t>2.30</t>
-  </si>
-  <si>
-    <t>[0.24,  19.50]</t>
-  </si>
-  <si>
-    <t>Mean pushing experienced</t>
-  </si>
-  <si>
-    <t>1.09</t>
-  </si>
-  <si>
-    <t>[ 0.38,  3.17]</t>
-  </si>
-  <si>
-    <t>1.23</t>
-  </si>
-  <si>
-    <t>[ 0.80,  1.92]</t>
-  </si>
-  <si>
-    <t>[ 0.63,   1.42]</t>
-  </si>
-  <si>
-    <t>0.19</t>
-  </si>
-  <si>
-    <t>[-0.58, 0.97]</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>[0.12,   6.06]</t>
-  </si>
-  <si>
-    <t>Mean pushing utilized (partner's view)</t>
-  </si>
-  <si>
-    <t>1.96</t>
-  </si>
-  <si>
-    <t>[ 0.68,  5.67]</t>
-  </si>
-  <si>
-    <t>1.34</t>
-  </si>
-  <si>
-    <t>[ 0.86,  2.09]</t>
-  </si>
-  <si>
-    <t>1.22</t>
-  </si>
-  <si>
-    <t>[ 0.82,   1.83]</t>
-  </si>
-  <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>[-0.40, 1.12]</t>
-  </si>
-  <si>
-    <t>0.08*</t>
-  </si>
-  <si>
-    <t>[0.01,   0.69]</t>
-  </si>
-  <si>
-    <t>Mean weartime</t>
-  </si>
-  <si>
-    <t>Random Effects</t>
-  </si>
-  <si>
-    <t>sd(Intercept)</t>
-  </si>
-  <si>
-    <t>0.74</t>
-  </si>
-  <si>
-    <t>[0.57, 0.99]</t>
-  </si>
-  <si>
-    <t>0.30</t>
-  </si>
-  <si>
-    <t>[0.23, 0.40]</t>
-  </si>
-  <si>
-    <t>0.29</t>
-  </si>
-  <si>
-    <t>[0.23, 0.39]</t>
-  </si>
-  <si>
-    <t>0.60</t>
-  </si>
-  <si>
-    <t>[0.47, 0.78]</t>
-  </si>
-  <si>
-    <t>1.15</t>
-  </si>
-  <si>
-    <t>[0.74, 1.75]</t>
-  </si>
-  <si>
-    <t>sd(Daily persuasion experienced)</t>
-  </si>
-  <si>
-    <t>0.21</t>
-  </si>
-  <si>
-    <t>[0.03, 0.40]</t>
-  </si>
-  <si>
-    <t>0.11</t>
-  </si>
-  <si>
-    <t>[0.07, 0.17]</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>[0.02, 0.08]</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>[0.00, 0.10]</t>
-  </si>
-  <si>
-    <t>[0.01, 0.51]</t>
-  </si>
-  <si>
-    <t>sd(Daily persuasion utilized (partner's view))</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>[0.01, 0.34]</t>
-  </si>
-  <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>[0.04, 0.13]</t>
-  </si>
-  <si>
-    <t>[0.03, 0.09]</t>
-  </si>
-  <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>[0.01, 0.13]</t>
-  </si>
-  <si>
-    <t>[0.13, 0.98]</t>
-  </si>
-  <si>
-    <t>sd(Daily pressure experienced)</t>
-  </si>
-  <si>
-    <t>[0.01, 0.74]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.23]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.13]</t>
-  </si>
-  <si>
-    <t>[0.14, 2.44]</t>
-  </si>
-  <si>
-    <t>sd(Daily pressure utilized (partner's view))</t>
-  </si>
-  <si>
-    <t>0.24</t>
-  </si>
-  <si>
-    <t>[0.01, 0.95]</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>[0.00, 0.18]</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>[0.00, 0.11]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.26]</t>
-  </si>
-  <si>
-    <t>0.81</t>
-  </si>
-  <si>
-    <t>[0.04, 2.70]</t>
-  </si>
-  <si>
-    <t>sd(Daily pushing experienced)</t>
-  </si>
-  <si>
-    <t>0.58</t>
-  </si>
-  <si>
-    <t>[0.31, 1.01]</t>
-  </si>
-  <si>
-    <t>0.09</t>
-  </si>
-  <si>
-    <t>[0.01, 0.17]</t>
-  </si>
-  <si>
-    <t>[0.01, 0.15]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.14]</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>[0.02, 0.62]</t>
-  </si>
-  <si>
-    <t>sd(Daily pushing utilized (partner's view))</t>
-  </si>
-  <si>
-    <t>0.18</t>
-  </si>
-  <si>
-    <t>[0.01, 0.50]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.09]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.16]</t>
-  </si>
-  <si>
-    <t>0.26</t>
-  </si>
-  <si>
-    <t>[0.01, 0.96]</t>
-  </si>
-  <si>
-    <t>Additional Parameters</t>
-  </si>
-  <si>
-    <t>sigma</t>
-  </si>
-  <si>
-    <t>0.68</t>
-  </si>
-  <si>
-    <t>[0.65, 0.70]</t>
-  </si>
-  <si>
-    <t>0.57</t>
-  </si>
-  <si>
-    <t>[0.56, 0.59]</t>
-  </si>
-  <si>
-    <t>[0.94, 0.98]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="247">
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Subjective MVPA Hurdle Lognormal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Device-Based MVPA Log (Gaussian)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mood Gaussian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reactance Dichotome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exp(Est.)_hu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95% CI_hu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exp(Est.)_nonzero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95% CI_nonzero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exp(Est.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95% CI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Est.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intercept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.26***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.19,  0.35]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.81***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[32.93, 43.41]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.17***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[99.96, 123.69]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 3.46, 3.88]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.34**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.17,   0.64]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Within-Person Effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily persuasion experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.39,  1.83]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.98,  1.09]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.00,   1.06]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.04, 0.04]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.68,   1.01]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily persuasion utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.19,  1.52]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.99,  1.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.99,   1.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.02, 0.07]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.84,   1.54]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily pressure experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.70,  1.31]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.82,  1.00]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.88,   1.01]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.14, 0.07]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.01,   4.38]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily pressure utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.04,  2.33]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.86,  1.03]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.92,   1.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.15, 0.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.59,   4.21]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily pushing experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.71,  1.31]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.92,  1.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.96,   1.07]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.06, 0.07]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.03,   1.76]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily pushing utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.05,  1.63]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.90,  1.02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.96,   1.04]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.07*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.00, 0.14]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.61,   1.36]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.65,  1.15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.87,  1.11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.91,   1.04]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.15, 0.37]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.78,   3.60]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Own Actionplan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 7.77, 11.57]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.21,  1.45]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.01,   1.12]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.03, 0.18]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.46,   1.63]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partner Actionplan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.96,  1.41]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.99,  1.17]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.00,   1.10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.11, 0.04]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.49,   1.54]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily weartime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.00,   1.00]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Between-Person Effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean persuasion experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.73,  3.06]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.74,  1.34]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.84,   1.46]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.21, 0.89]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.58,   6.66]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean persuasion utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.69,  2.86]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.71,  1.28]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.74,   1.30]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.33, 0.77]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.50,   7.26]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean pressure experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.39*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.17,  0.88]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.85,  1.70]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.74,   1.32]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.84, 0.24]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.52**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2.54, 166.38]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean pressure utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.22,  1.13]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.66,  1.34]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.74,   1.28]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.85, 0.23]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.24,  19.50]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean pushing experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.38,  3.17]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.80,  1.92]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.63,   1.42]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.58, 0.97]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.12,   6.06]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean pushing utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.68,  5.67]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.86,  2.09]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.82,   1.83]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.40, 1.12]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.08*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01,   0.69]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean weartime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random Effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Intercept)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.57, 0.99]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.23, 0.40]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.23, 0.39]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.47, 0.78]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.74, 1.75]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily persuasion experienced)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.03, 0.40]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.07, 0.17]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.02, 0.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.51]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily persuasion utilized (partner's view))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.34]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.04, 0.13]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.03, 0.09]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.13]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.13, 0.98]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily pressure experienced)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.74]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.23]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.13]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.14, 2.44]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily pressure utilized (partner's view))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.95]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.18]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.26]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.04, 2.70]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily pushing experienced)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.31, 1.01]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.17]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.14]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.02, 0.62]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily pushing utilized (partner's view))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.50]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.09]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.16]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.96]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional Parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sigma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.65, 0.70]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.56, 0.59]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.94, 0.98]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -781,16 +774,16 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <b/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <i/>
     </font>
   </fonts>
   <fills count="2">
@@ -810,28 +803,20 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -847,35 +832,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1157,64 +1127,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.46484375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.19921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.796875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1249,7 +1204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -1284,43 +1239,43 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="10" t="s">
+    <row r="4">
+      <c r="A4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" s="7" t="s">
+    <row r="5">
+      <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1354,8 +1309,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" s="7" t="s">
+    <row r="6">
+      <c r="A6" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1389,8 +1344,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" s="7" t="s">
+    <row r="7">
+      <c r="A7" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1424,8 +1379,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" s="7" t="s">
+    <row r="8">
+      <c r="A8" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1459,8 +1414,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9" s="7" t="s">
+    <row r="9">
+      <c r="A9" s="8" t="s">
         <v>65</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1494,8 +1449,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A10" s="7" t="s">
+    <row r="10">
+      <c r="A10" s="8" t="s">
         <v>75</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1529,8 +1484,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A11" s="7" t="s">
+    <row r="11">
+      <c r="A11" s="8" t="s">
         <v>84</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1564,8 +1519,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12" s="7" t="s">
+    <row r="12">
+      <c r="A12" s="8" t="s">
         <v>93</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1599,8 +1554,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" s="7" t="s">
+    <row r="13">
+      <c r="A13" s="8" t="s">
         <v>104</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1634,8 +1589,8 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14" s="7" t="s">
+    <row r="14">
+      <c r="A14" s="8" t="s">
         <v>113</v>
       </c>
       <c r="B14" s="1"/>
@@ -1653,43 +1608,43 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A15" s="10" t="s">
+    <row r="15">
+      <c r="A15" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A16" s="7" t="s">
+    <row r="16">
+      <c r="A16" s="8" t="s">
         <v>117</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1723,8 +1678,8 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A17" s="7" t="s">
+    <row r="17">
+      <c r="A17" s="8" t="s">
         <v>127</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1758,8 +1713,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A18" s="7" t="s">
+    <row r="18">
+      <c r="A18" s="8" t="s">
         <v>136</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1793,8 +1748,8 @@
         <v>145</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A19" s="7" t="s">
+    <row r="19">
+      <c r="A19" s="8" t="s">
         <v>146</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1828,8 +1783,8 @@
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A20" s="7" t="s">
+    <row r="20">
+      <c r="A20" s="8" t="s">
         <v>156</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1863,8 +1818,8 @@
         <v>165</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A21" s="7" t="s">
+    <row r="21">
+      <c r="A21" s="8" t="s">
         <v>166</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1898,8 +1853,8 @@
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A22" s="7" t="s">
+    <row r="22">
+      <c r="A22" s="8" t="s">
         <v>177</v>
       </c>
       <c r="B22" s="1"/>
@@ -1917,43 +1872,43 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A23" s="10" t="s">
+    <row r="23">
+      <c r="A23" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="I23" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="K23" s="11" t="s">
+      <c r="K23" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A24" s="7" t="s">
+    <row r="24">
+      <c r="A24" s="8" t="s">
         <v>179</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1987,8 +1942,8 @@
         <v>189</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A25" s="7" t="s">
+    <row r="25">
+      <c r="A25" s="8" t="s">
         <v>190</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2022,8 +1977,8 @@
         <v>199</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A26" s="7" t="s">
+    <row r="26">
+      <c r="A26" s="8" t="s">
         <v>200</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2057,8 +2012,8 @@
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A27" s="7" t="s">
+    <row r="27">
+      <c r="A27" s="8" t="s">
         <v>209</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2092,8 +2047,8 @@
         <v>213</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A28" s="7" t="s">
+    <row r="28">
+      <c r="A28" s="8" t="s">
         <v>214</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -2127,8 +2082,8 @@
         <v>223</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A29" s="7" t="s">
+    <row r="29">
+      <c r="A29" s="8" t="s">
         <v>224</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2162,8 +2117,8 @@
         <v>232</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A30" s="7" t="s">
+    <row r="30">
+      <c r="A30" s="8" t="s">
         <v>233</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2197,43 +2152,43 @@
         <v>239</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A31" s="10" t="s">
+    <row r="31">
+      <c r="A31" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F31" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="H31" s="11" t="s">
+      <c r="H31" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="I31" s="11" t="s">
+      <c r="I31" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="J31" s="11" t="s">
+      <c r="J31" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="K31" s="11" t="s">
+      <c r="K31" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A32" s="8" t="s">
+    <row r="32">
+      <c r="A32" s="9" t="s">
         <v>241</v>
       </c>
       <c r="B32" s="4"/>
@@ -2259,36 +2214,36 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A33" s="7"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A34" s="7"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A35" s="7"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A36" s="7"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A37" s="7"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A38" s="7"/>
+    <row r="33">
+      <c r="A33" s="8"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="8"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="8"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="8"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="8"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A31:K31"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A31:K31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Output/AllModels_final_with_plan_12000.xlsx
+++ b/Output/AllModels_final_with_plan_12000.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -62,16 +62,16 @@
     <t xml:space="preserve">[ 0.19,  0.35]</t>
   </si>
   <si>
-    <t xml:space="preserve">37.81***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[32.93, 43.41]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.17***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[99.96, 123.69]</t>
+    <t xml:space="preserve">37.84***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[33.00, 43.33]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.19***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[99.90, 123.80]</t>
   </si>
   <si>
     <t xml:space="preserve">3.67***</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">0.34**</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.17,   0.64]</t>
+    <t xml:space="preserve">[0.17,   0.65]</t>
   </si>
   <si>
     <t xml:space="preserve">Within-Person Effects</t>
@@ -146,7 +146,7 @@
     <t xml:space="preserve">1.12</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.84,   1.54]</t>
+    <t xml:space="preserve">[0.84,   1.53]</t>
   </si>
   <si>
     <t xml:space="preserve">Daily pressure experienced</t>
@@ -155,7 +155,7 @@
     <t xml:space="preserve">0.96</t>
   </si>
   <si>
-    <t xml:space="preserve">[ 0.70,  1.31]</t>
+    <t xml:space="preserve">[ 0.69,  1.30]</t>
   </si>
   <si>
     <t xml:space="preserve">0.91</t>
@@ -176,10 +176,10 @@
     <t xml:space="preserve">[-0.14, 0.07]</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.01,   4.38]</t>
+    <t xml:space="preserve">1.98*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.02,   4.58]</t>
   </si>
   <si>
     <t xml:space="preserve">Daily pressure utilized (partner's view)</t>
@@ -188,7 +188,7 @@
     <t xml:space="preserve">1.49*</t>
   </si>
   <si>
-    <t xml:space="preserve">[ 1.04,  2.33]</t>
+    <t xml:space="preserve">[ 1.05,  2.34]</t>
   </si>
   <si>
     <t xml:space="preserve">[ 0.86,  1.03]</t>
@@ -203,16 +203,16 @@
     <t xml:space="preserve">[-0.15, 0.08]</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.59,   4.21]</t>
+    <t xml:space="preserve">1.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.54,   4.37]</t>
   </si>
   <si>
     <t xml:space="preserve">Daily pushing experienced</t>
   </si>
   <si>
-    <t xml:space="preserve">[ 0.71,  1.31]</t>
+    <t xml:space="preserve">[ 0.71,  1.30]</t>
   </si>
   <si>
     <t xml:space="preserve">0.99</t>
@@ -233,10 +233,10 @@
     <t xml:space="preserve">[-0.06, 0.07]</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.03,   1.76]</t>
+    <t xml:space="preserve">1.34*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.04,   1.76]</t>
   </si>
   <si>
     <t xml:space="preserve">Daily pushing utilized (partner's view)</t>
@@ -245,7 +245,7 @@
     <t xml:space="preserve">1.29*</t>
   </si>
   <si>
-    <t xml:space="preserve">[ 1.05,  1.63]</t>
+    <t xml:space="preserve">[ 1.05,  1.62]</t>
   </si>
   <si>
     <t xml:space="preserve">[ 0.90,  1.02]</t>
@@ -263,7 +263,10 @@
     <t xml:space="preserve">[ 0.00, 0.14]</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.61,   1.36]</t>
+    <t xml:space="preserve">0.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.61,   1.37]</t>
   </si>
   <si>
     <t xml:space="preserve">Day</t>
@@ -272,10 +275,10 @@
     <t xml:space="preserve">0.86</t>
   </si>
   <si>
-    <t xml:space="preserve">[ 0.65,  1.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.87,  1.11]</t>
+    <t xml:space="preserve">[ 0.64,  1.16]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.88,  1.12]</t>
   </si>
   <si>
     <t xml:space="preserve">0.97</t>
@@ -287,19 +290,19 @@
     <t xml:space="preserve">[ 0.15, 0.37]</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.78,   3.60]</t>
+    <t xml:space="preserve">1.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.77,   3.69]</t>
   </si>
   <si>
     <t xml:space="preserve">Own Actionplan</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 7.77, 11.57]</t>
+    <t xml:space="preserve">9.45***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 7.76, 11.57]</t>
   </si>
   <si>
     <t xml:space="preserve">1.32***</t>
@@ -323,7 +326,7 @@
     <t xml:space="preserve">0.87</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.46,   1.63]</t>
+    <t xml:space="preserve">[0.46,   1.62]</t>
   </si>
   <si>
     <t xml:space="preserve">Partner Actionplan</t>
@@ -332,7 +335,7 @@
     <t xml:space="preserve">1.17</t>
   </si>
   <si>
-    <t xml:space="preserve">[ 0.96,  1.41]</t>
+    <t xml:space="preserve">[ 0.96,  1.42]</t>
   </si>
   <si>
     <t xml:space="preserve">1.08</t>
@@ -350,7 +353,10 @@
     <t xml:space="preserve">[-0.11, 0.04]</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.49,   1.54]</t>
+    <t xml:space="preserve">0.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.49,   1.58]</t>
   </si>
   <si>
     <t xml:space="preserve">Daily weartime</t>
@@ -368,10 +374,10 @@
     <t xml:space="preserve">Mean persuasion experienced</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.73,  3.06]</t>
+    <t xml:space="preserve">1.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.72,  3.06]</t>
   </si>
   <si>
     <t xml:space="preserve">[ 0.74,  1.34]</t>
@@ -386,13 +392,13 @@
     <t xml:space="preserve">0.34</t>
   </si>
   <si>
-    <t xml:space="preserve">[-0.21, 0.89]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.58,   6.66]</t>
+    <t xml:space="preserve">[-0.23, 0.90]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.51,   7.72]</t>
   </si>
   <si>
     <t xml:space="preserve">Mean persuasion utilized (partner's view)</t>
@@ -401,7 +407,7 @@
     <t xml:space="preserve">1.40</t>
   </si>
   <si>
-    <t xml:space="preserve">[ 0.69,  2.86]</t>
+    <t xml:space="preserve">[ 0.69,  2.85]</t>
   </si>
   <si>
     <t xml:space="preserve">[ 0.71,  1.28]</t>
@@ -413,13 +419,13 @@
     <t xml:space="preserve">0.23</t>
   </si>
   <si>
-    <t xml:space="preserve">[-0.33, 0.77]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.50,   7.26]</t>
+    <t xml:space="preserve">[-0.34, 0.79]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.47,   9.47]</t>
   </si>
   <si>
     <t xml:space="preserve">Mean pressure experienced</t>
@@ -431,10 +437,10 @@
     <t xml:space="preserve">[ 0.17,  0.88]</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.85,  1.70]</t>
+    <t xml:space="preserve">1.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.86,  1.69]</t>
   </si>
   <si>
     <t xml:space="preserve">[ 0.74,   1.32]</t>
@@ -443,13 +449,13 @@
     <t xml:space="preserve">-0.30</t>
   </si>
   <si>
-    <t xml:space="preserve">[-0.84, 0.24]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.52**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[2.54, 166.38]</t>
+    <t xml:space="preserve">[-0.85, 0.25]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.35**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2.64, 404.79]</t>
   </si>
   <si>
     <t xml:space="preserve">Mean pressure utilized (partner's view)</t>
@@ -458,58 +464,55 @@
     <t xml:space="preserve">0.49</t>
   </si>
   <si>
-    <t xml:space="preserve">[ 0.22,  1.13]</t>
+    <t xml:space="preserve">[ 0.21,  1.14]</t>
   </si>
   <si>
     <t xml:space="preserve">0.94</t>
   </si>
   <si>
-    <t xml:space="preserve">[ 0.66,  1.34]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.74,   1.28]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.85, 0.23]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.24,  19.50]</t>
+    <t xml:space="preserve">[ 0.66,  1.33]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.74,   1.29]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.87, 0.23]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.11,  19.86]</t>
   </si>
   <si>
     <t xml:space="preserve">Mean pushing experienced</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09</t>
-  </si>
-  <si>
     <t xml:space="preserve">[ 0.38,  3.17]</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.80,  1.92]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.63,   1.42]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.58, 0.97]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.12,   6.06]</t>
+    <t xml:space="preserve">1.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.80,  1.94]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.64,   1.44]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.57, 0.99]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.06,   5.70]</t>
   </si>
   <si>
     <t xml:space="preserve">Mean pushing utilized (partner's view)</t>
@@ -518,13 +521,13 @@
     <t xml:space="preserve">1.96</t>
   </si>
   <si>
-    <t xml:space="preserve">[ 0.68,  5.67]</t>
+    <t xml:space="preserve">[ 0.69,  5.73]</t>
   </si>
   <si>
     <t xml:space="preserve">1.34</t>
   </si>
   <si>
-    <t xml:space="preserve">[ 0.86,  2.09]</t>
+    <t xml:space="preserve">[ 0.85,  2.11]</t>
   </si>
   <si>
     <t xml:space="preserve">1.22</t>
@@ -533,16 +536,16 @@
     <t xml:space="preserve">[ 0.82,   1.83]</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.40, 1.12]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01,   0.69]</t>
+    <t xml:space="preserve">0.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.41, 1.15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.05*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00,   0.55]</t>
   </si>
   <si>
     <t xml:space="preserve">Mean weartime</t>
@@ -578,10 +581,10 @@
     <t xml:space="preserve">[0.47, 0.78]</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.74, 1.75]</t>
+    <t xml:space="preserve">1.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.75, 1.79]</t>
   </si>
   <si>
     <t xml:space="preserve">sd(Daily persuasion experienced)</t>
@@ -590,7 +593,7 @@
     <t xml:space="preserve">0.21</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.03, 0.40]</t>
+    <t xml:space="preserve">[0.03, 0.39]</t>
   </si>
   <si>
     <t xml:space="preserve">0.11</t>
@@ -629,7 +632,7 @@
     <t xml:space="preserve">[0.04, 0.13]</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.03, 0.09]</t>
+    <t xml:space="preserve">[0.02, 0.09]</t>
   </si>
   <si>
     <t xml:space="preserve">0.07</t>
@@ -638,7 +641,7 @@
     <t xml:space="preserve">[0.01, 0.13]</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.13, 0.98]</t>
+    <t xml:space="preserve">[0.12, 0.99]</t>
   </si>
   <si>
     <t xml:space="preserve">sd(Daily pressure experienced)</t>
@@ -650,10 +653,10 @@
     <t xml:space="preserve">[0.00, 0.23]</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.00, 0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.14, 2.44]</t>
+    <t xml:space="preserve">[0.00, 0.14]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.13, 2.47]</t>
   </si>
   <si>
     <t xml:space="preserve">sd(Daily pressure utilized (partner's view))</t>
@@ -662,7 +665,7 @@
     <t xml:space="preserve">0.24</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.01, 0.95]</t>
+    <t xml:space="preserve">[0.01, 0.94]</t>
   </si>
   <si>
     <t xml:space="preserve">0.06</t>
@@ -680,16 +683,13 @@
     <t xml:space="preserve">[0.00, 0.26]</t>
   </si>
   <si>
-    <t xml:space="preserve">0.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.04, 2.70]</t>
+    <t xml:space="preserve">[0.05, 2.83]</t>
   </si>
   <si>
     <t xml:space="preserve">sd(Daily pushing experienced)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.58</t>
+    <t xml:space="preserve">0.59</t>
   </si>
   <si>
     <t xml:space="preserve">[0.31, 1.01]</t>
@@ -704,13 +704,10 @@
     <t xml:space="preserve">[0.01, 0.15]</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.00, 0.14]</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.25</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.02, 0.62]</t>
+    <t xml:space="preserve">[0.02, 0.61]</t>
   </si>
   <si>
     <t xml:space="preserve">sd(Daily pushing utilized (partner's view))</t>
@@ -722,16 +719,13 @@
     <t xml:space="preserve">[0.01, 0.50]</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.00, 0.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.16]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.96]</t>
+    <t xml:space="preserve">[0.01, 0.16]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.99]</t>
   </si>
   <si>
     <t xml:space="preserve">Additional Parameters</t>
@@ -1478,130 +1472,130 @@
         <v>82</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>52</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1610,252 +1604,252 @@
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>60</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>67</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1865,7 +1859,7 @@
         <v>79</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1874,209 +1868,209 @@
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="K25" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G27" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="J27" s="1" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>222</v>
+        <v>86</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>223</v>
@@ -2099,117 +2093,117 @@
         <v>228</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>229</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I29" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="K29" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="D30" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>229</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G30" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="I30" s="1" t="s">
+      <c r="K30" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="G32" s="4" t="s">
         <v>243</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>245</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>46</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>

--- a/Output/AllModels_final_with_plan_12000.xlsx
+++ b/Output/AllModels_final_with_plan_12000.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="477">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -32,19 +32,61 @@
     <t xml:space="preserve">exp(Est.)_hu</t>
   </si>
   <si>
-    <t xml:space="preserve">95% CI_hu</t>
+    <t xml:space="preserve">SE_hu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pd_hu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROPE_hu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inside</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BF_hu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BF_Evidence_hu</t>
   </si>
   <si>
     <t xml:space="preserve">exp(Est.)_nonzero</t>
   </si>
   <si>
-    <t xml:space="preserve">95% CI_nonzero</t>
+    <t xml:space="preserve">SE_nonzero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pd_nonzero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROPE_nonzero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BF_nonzero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BF_Evidence_nonzero</t>
   </si>
   <si>
     <t xml:space="preserve">exp(Est.)</t>
   </si>
   <si>
-    <t xml:space="preserve">95% CI</t>
+    <t xml:space="preserve">SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BF_Evidence</t>
   </si>
   <si>
     <t xml:space="preserve">Est.</t>
@@ -59,37 +101,88 @@
     <t xml:space="preserve">0.26***</t>
   </si>
   <si>
+    <t xml:space="preserve">0.04</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 0.19,  0.35]</t>
   </si>
   <si>
+    <t xml:space="preserve">1.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.84, 1.20]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overwhelming Evidence</t>
+  </si>
+  <si>
     <t xml:space="preserve">37.84***</t>
   </si>
   <si>
+    <t xml:space="preserve">2.60</t>
+  </si>
+  <si>
     <t xml:space="preserve">[33.00, 43.33]</t>
   </si>
   <si>
+    <t xml:space="preserve">[0.92, 1.08]</t>
+  </si>
+  <si>
     <t xml:space="preserve">111.19***</t>
   </si>
   <si>
+    <t xml:space="preserve">6.10</t>
+  </si>
+  <si>
     <t xml:space="preserve">[99.90, 123.80]</t>
   </si>
   <si>
+    <t xml:space="preserve">[0.94, 1.07]</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.67***</t>
   </si>
   <si>
+    <t xml:space="preserve">0.11</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 3.46, 3.88]</t>
   </si>
   <si>
+    <t xml:space="preserve">[-0.11, 0.11]</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.34**</t>
   </si>
   <si>
     <t xml:space="preserve">[0.17,   0.65]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.83, 1.20]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moderate Evidence</t>
+  </si>
+  <si>
     <t xml:space="preserve">Within-Person Effects</t>
   </si>
   <si>
-    <t xml:space="preserve">Daily persuasion experienced</t>
+    <t xml:space="preserve">Daily individual's experienced persuasion</t>
   </si>
   <si>
     <t xml:space="preserve">1.58***</t>
@@ -101,25 +194,70 @@
     <t xml:space="preserve">1.03</t>
   </si>
   <si>
+    <t xml:space="preserve">0.03</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 0.98,  1.09]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very Strong Evidence for Null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.02</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 1.00,   1.06]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.023</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.00</t>
   </si>
   <si>
     <t xml:space="preserve">[-0.04, 0.04]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.521</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.84</t>
   </si>
   <si>
+    <t xml:space="preserve">0.08</t>
+  </si>
+  <si>
     <t xml:space="preserve">[0.68,   1.01]</t>
   </si>
   <si>
-    <t xml:space="preserve">Daily persuasion utilized (partner's view)</t>
+    <t xml:space="preserve">0.968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moderate Evidence for Null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily partner's experienced persuasion</t>
   </si>
   <si>
     <t xml:space="preserve">1.34***</t>
@@ -128,118 +266,304 @@
     <t xml:space="preserve">[ 1.19,  1.52]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.035</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 0.99,  1.08]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.974</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.02</t>
   </si>
   <si>
     <t xml:space="preserve">[ 0.99,   1.05]</t>
   </si>
   <si>
-    <t xml:space="preserve">0.02</t>
+    <t xml:space="preserve">0.866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.010</t>
   </si>
   <si>
     <t xml:space="preserve">[-0.02, 0.07]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.006</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.12</t>
   </si>
   <si>
+    <t xml:space="preserve">0.16</t>
+  </si>
+  <si>
     <t xml:space="preserve">[0.84,   1.53]</t>
   </si>
   <si>
-    <t xml:space="preserve">Daily pressure experienced</t>
+    <t xml:space="preserve">0.779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strong Evidence for Null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily individual's experienced pressure</t>
   </si>
   <si>
     <t xml:space="preserve">0.96</t>
   </si>
   <si>
+    <t xml:space="preserve">0.15</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 0.69,  1.30]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.079</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.91</t>
   </si>
   <si>
+    <t xml:space="preserve">0.05</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 0.82,  1.00]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.050</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.95</t>
   </si>
   <si>
     <t xml:space="preserve">[ 0.88,   1.01]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.019</t>
+  </si>
+  <si>
     <t xml:space="preserve">-0.03</t>
   </si>
   <si>
     <t xml:space="preserve">[-0.14, 0.07]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.936</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.98*</t>
   </si>
   <si>
+    <t xml:space="preserve">0.64</t>
+  </si>
+  <si>
     <t xml:space="preserve">[1.02,   4.58]</t>
   </si>
   <si>
-    <t xml:space="preserve">Daily pressure utilized (partner's view)</t>
+    <t xml:space="preserve">0.978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weak Evidence for Null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily partner's experienced pressure</t>
   </si>
   <si>
     <t xml:space="preserve">1.49*</t>
   </si>
   <si>
+    <t xml:space="preserve">0.28</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 1.05,  2.34]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weak Evidence</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 0.86,  1.03]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.014</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.98</t>
   </si>
   <si>
     <t xml:space="preserve">[ 0.92,   1.05]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.005</t>
+  </si>
+  <si>
     <t xml:space="preserve">[-0.15, 0.08]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.927</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.41</t>
   </si>
   <si>
+    <t xml:space="preserve">0.62</t>
+  </si>
+  <si>
     <t xml:space="preserve">[0.54,   4.37]</t>
   </si>
   <si>
-    <t xml:space="preserve">Daily pushing experienced</t>
+    <t xml:space="preserve">0.795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily individual's experienced pushing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14</t>
   </si>
   <si>
     <t xml:space="preserve">[ 0.71,  1.30]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.740</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.081</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.99</t>
   </si>
   <si>
     <t xml:space="preserve">[ 0.92,  1.05]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.640</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.008</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.01</t>
   </si>
   <si>
     <t xml:space="preserve">[ 0.96,   1.07]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.007</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.01</t>
   </si>
   <si>
     <t xml:space="preserve">[-0.06, 0.07]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.575</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.34*</t>
   </si>
   <si>
+    <t xml:space="preserve">0.18</t>
+  </si>
+  <si>
     <t xml:space="preserve">[1.04,   1.76]</t>
   </si>
   <si>
-    <t xml:space="preserve">Daily pushing utilized (partner's view)</t>
+    <t xml:space="preserve">0.988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily partner's experienced pushing</t>
   </si>
   <si>
     <t xml:space="preserve">1.29*</t>
@@ -248,54 +572,138 @@
     <t xml:space="preserve">[ 1.05,  1.62]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.030</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 0.90,  1.02]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.018</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.00</t>
   </si>
   <si>
     <t xml:space="preserve">[ 0.96,   1.04]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.997</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.07*</t>
   </si>
   <si>
     <t xml:space="preserve">[ 0.00, 0.14]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.034</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.92</t>
   </si>
   <si>
     <t xml:space="preserve">[0.61,   1.37]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.073</t>
+  </si>
+  <si>
     <t xml:space="preserve">Day</t>
   </si>
   <si>
     <t xml:space="preserve">0.86</t>
   </si>
   <si>
+    <t xml:space="preserve">0.13</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 0.64,  1.16]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.06</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 0.88,  1.12]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.786</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.97</t>
   </si>
   <si>
     <t xml:space="preserve">[ 0.91,   1.04]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.842</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 0.15, 0.37]</t>
   </si>
   <si>
+    <t xml:space="preserve">62.833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very Strong Evidence</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.68</t>
   </si>
   <si>
+    <t xml:space="preserve">0.67</t>
+  </si>
+  <si>
     <t xml:space="preserve">[0.77,   3.69]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.101</t>
+  </si>
+  <si>
     <t xml:space="preserve">Own Actionplan</t>
   </si>
   <si>
@@ -317,48 +725,111 @@
     <t xml:space="preserve">[ 1.01,   1.12]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.103</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.10**</t>
   </si>
   <si>
     <t xml:space="preserve">[ 0.03, 0.18]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.106</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.87</t>
   </si>
   <si>
     <t xml:space="preserve">[0.46,   1.62]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.048</t>
+  </si>
+  <si>
     <t xml:space="preserve">Partner Actionplan</t>
   </si>
   <si>
     <t xml:space="preserve">1.17</t>
   </si>
   <si>
+    <t xml:space="preserve">0.12</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 0.96,  1.42]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.940</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.168</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.08</t>
   </si>
   <si>
     <t xml:space="preserve">[ 0.99,  1.17]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.032</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.05</t>
   </si>
   <si>
     <t xml:space="preserve">[ 1.00,   1.10]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.025</t>
+  </si>
+  <si>
     <t xml:space="preserve">[-0.11, 0.04]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.983</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.88</t>
   </si>
   <si>
+    <t xml:space="preserve">0.26</t>
+  </si>
+  <si>
     <t xml:space="preserve">[0.49,   1.58]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.425</t>
+  </si>
+  <si>
     <t xml:space="preserve">Daily weartime</t>
   </si>
   <si>
@@ -368,54 +839,135 @@
     <t xml:space="preserve">[ 1.00,   1.00]</t>
   </si>
   <si>
+    <t xml:space="preserve">15.446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strong Evidence</t>
+  </si>
+  <si>
     <t xml:space="preserve">Between-Person Effects</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean persuasion experienced</t>
+    <t xml:space="preserve">Mean individual's experienced persuasion</t>
   </si>
   <si>
     <t xml:space="preserve">1.49</t>
   </si>
   <si>
+    <t xml:space="preserve">0.54</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 0.72,  3.06]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.331</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 0.74,  1.34]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.015</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.10</t>
   </si>
   <si>
     <t xml:space="preserve">[ 0.84,   1.46]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.016</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.34</t>
   </si>
   <si>
     <t xml:space="preserve">[-0.23, 0.90]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.028</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.89</t>
   </si>
   <si>
+    <t xml:space="preserve">1.26</t>
+  </si>
+  <si>
     <t xml:space="preserve">[0.51,   7.72]</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean persuasion utilized (partner's view)</t>
+    <t xml:space="preserve">0.832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean partner's experienced persuasion</t>
   </si>
   <si>
     <t xml:space="preserve">1.40</t>
   </si>
   <si>
+    <t xml:space="preserve">0.50</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 0.69,  2.85]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.280</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 0.71,  1.28]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.371</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 0.74,   1.30]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.560</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.013</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.23</t>
   </si>
   <si>
@@ -425,10 +977,19 @@
     <t xml:space="preserve">1.99</t>
   </si>
   <si>
+    <t xml:space="preserve">1.51</t>
+  </si>
+  <si>
     <t xml:space="preserve">[0.47,   9.47]</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean pressure experienced</t>
+    <t xml:space="preserve">0.825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean individual's experienced pressure</t>
   </si>
   <si>
     <t xml:space="preserve">0.39*</t>
@@ -437,28 +998,61 @@
     <t xml:space="preserve">[ 0.17,  0.88]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.722</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.21</t>
   </si>
   <si>
+    <t xml:space="preserve">0.21</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 0.86,  1.69]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.203</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 0.74,   1.32]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.530</t>
+  </si>
+  <si>
     <t xml:space="preserve">-0.30</t>
   </si>
   <si>
+    <t xml:space="preserve">0.27</t>
+  </si>
+  <si>
     <t xml:space="preserve">[-0.85, 0.25]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.182</t>
+  </si>
+  <si>
     <t xml:space="preserve">26.35**</t>
   </si>
   <si>
+    <t xml:space="preserve">32.93</t>
+  </si>
+  <si>
     <t xml:space="preserve">[2.64, 404.79]</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean pressure utilized (partner's view)</t>
+    <t xml:space="preserve">0.002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean partner's experienced pressure</t>
   </si>
   <si>
     <t xml:space="preserve">0.49</t>
@@ -467,12 +1061,33 @@
     <t xml:space="preserve">[ 0.21,  1.14]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.844</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.94</t>
   </si>
   <si>
+    <t xml:space="preserve">0.17</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 0.66,  1.33]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.011</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 0.74,   1.29]</t>
   </si>
   <si>
@@ -482,72 +1097,177 @@
     <t xml:space="preserve">[-0.87, 0.23]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.77</t>
   </si>
   <si>
+    <t xml:space="preserve">2.30</t>
+  </si>
+  <si>
     <t xml:space="preserve">[0.11,  19.86]</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean pushing experienced</t>
+    <t xml:space="preserve">0.095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean individual's experienced pushing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.59</t>
   </si>
   <si>
     <t xml:space="preserve">[ 0.38,  3.17]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.275</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.24</t>
   </si>
   <si>
     <t xml:space="preserve">[ 0.80,  1.94]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.19</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 0.64,   1.44]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.246</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.20</t>
   </si>
   <si>
+    <t xml:space="preserve">0.39</t>
+  </si>
+  <si>
     <t xml:space="preserve">[-0.57, 0.99]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.012</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.61</t>
   </si>
   <si>
+    <t xml:space="preserve">0.69</t>
+  </si>
+  <si>
     <t xml:space="preserve">[0.06,   5.70]</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean pushing utilized (partner's view)</t>
+    <t xml:space="preserve">0.672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean partner's experienced pushing</t>
   </si>
   <si>
     <t xml:space="preserve">1.96</t>
   </si>
   <si>
+    <t xml:space="preserve">1.04</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 0.69,  5.73]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.591</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.34</t>
   </si>
   <si>
+    <t xml:space="preserve">0.31</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 0.85,  2.11]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.031</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.22</t>
   </si>
   <si>
+    <t xml:space="preserve">0.24</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 0.82,   1.83]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.154</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.36</t>
   </si>
   <si>
     <t xml:space="preserve">[-0.41, 1.15]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.827</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.05*</t>
   </si>
   <si>
     <t xml:space="preserve">[0.00,   0.55]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.550</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mean weartime</t>
   </si>
   <si>
@@ -560,6 +1280,9 @@
     <t xml:space="preserve">0.74</t>
   </si>
   <si>
+    <t xml:space="preserve">0.10</t>
+  </si>
+  <si>
     <t xml:space="preserve">[0.57, 0.99]</t>
   </si>
   <si>
@@ -578,6 +1301,9 @@
     <t xml:space="preserve">0.60</t>
   </si>
   <si>
+    <t xml:space="preserve">0.07</t>
+  </si>
+  <si>
     <t xml:space="preserve">[0.47, 0.78]</t>
   </si>
   <si>
@@ -587,64 +1313,46 @@
     <t xml:space="preserve">[0.75, 1.79]</t>
   </si>
   <si>
-    <t xml:space="preserve">sd(Daily persuasion experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21</t>
+    <t xml:space="preserve">sd(Daily individual's experienced persuasion)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.09</t>
   </si>
   <si>
     <t xml:space="preserve">[0.03, 0.39]</t>
   </si>
   <si>
-    <t xml:space="preserve">0.11</t>
-  </si>
-  <si>
     <t xml:space="preserve">[0.07, 0.17]</t>
   </si>
   <si>
-    <t xml:space="preserve">0.05</t>
-  </si>
-  <si>
     <t xml:space="preserve">[0.02, 0.08]</t>
   </si>
   <si>
-    <t xml:space="preserve">0.04</t>
-  </si>
-  <si>
     <t xml:space="preserve">[0.00, 0.10]</t>
   </si>
   <si>
     <t xml:space="preserve">[0.01, 0.51]</t>
   </si>
   <si>
-    <t xml:space="preserve">sd(Daily persuasion utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15</t>
+    <t xml:space="preserve">sd(Daily partner's experienced persuasion)</t>
   </si>
   <si>
     <t xml:space="preserve">[0.01, 0.34]</t>
   </si>
   <si>
-    <t xml:space="preserve">0.08</t>
-  </si>
-  <si>
     <t xml:space="preserve">[0.04, 0.13]</t>
   </si>
   <si>
     <t xml:space="preserve">[0.02, 0.09]</t>
   </si>
   <si>
-    <t xml:space="preserve">0.07</t>
-  </si>
-  <si>
     <t xml:space="preserve">[0.01, 0.13]</t>
   </si>
   <si>
     <t xml:space="preserve">[0.12, 0.99]</t>
   </si>
   <si>
-    <t xml:space="preserve">sd(Daily pressure experienced)</t>
+    <t xml:space="preserve">sd(Daily individual's experienced pressure)</t>
   </si>
   <si>
     <t xml:space="preserve">[0.01, 0.74]</t>
@@ -656,48 +1364,42 @@
     <t xml:space="preserve">[0.00, 0.14]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.56</t>
+  </si>
+  <si>
     <t xml:space="preserve">[0.13, 2.47]</t>
   </si>
   <si>
-    <t xml:space="preserve">sd(Daily pressure utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24</t>
+    <t xml:space="preserve">sd(Daily partner's experienced pressure)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22</t>
   </si>
   <si>
     <t xml:space="preserve">[0.01, 0.94]</t>
   </si>
   <si>
-    <t xml:space="preserve">0.06</t>
-  </si>
-  <si>
     <t xml:space="preserve">[0.00, 0.18]</t>
   </si>
   <si>
-    <t xml:space="preserve">0.03</t>
-  </si>
-  <si>
     <t xml:space="preserve">[0.00, 0.11]</t>
   </si>
   <si>
     <t xml:space="preserve">[0.00, 0.26]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.70</t>
+  </si>
+  <si>
     <t xml:space="preserve">[0.05, 2.83]</t>
   </si>
   <si>
-    <t xml:space="preserve">sd(Daily pushing experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.59</t>
+    <t xml:space="preserve">sd(Daily individual's experienced pushing)</t>
   </si>
   <si>
     <t xml:space="preserve">[0.31, 1.01]</t>
   </si>
   <si>
-    <t xml:space="preserve">0.09</t>
-  </si>
-  <si>
     <t xml:space="preserve">[0.01, 0.17]</t>
   </si>
   <si>
@@ -710,19 +1412,13 @@
     <t xml:space="preserve">[0.02, 0.61]</t>
   </si>
   <si>
-    <t xml:space="preserve">sd(Daily pushing utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.18</t>
+    <t xml:space="preserve">sd(Daily partner's experienced pushing)</t>
   </si>
   <si>
     <t xml:space="preserve">[0.01, 0.50]</t>
   </si>
   <si>
     <t xml:space="preserve">[0.01, 0.16]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.27</t>
   </si>
   <si>
     <t xml:space="preserve">[0.01, 0.99]</t>
@@ -1145,21 +1841,111 @@
         <v>1</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="T1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1189,1024 +1975,3314 @@
         <v>11</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="P2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>16</v>
+        <v>29</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>18</v>
+        <v>31</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>20</v>
+        <v>33</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>24</v>
+        <v>55</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>34</v>
+      <c r="AF5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="J6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="1" t="s">
+      <c r="O6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="V6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>44</v>
+      <c r="W6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="AE7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH7" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>55</v>
+      <c r="AM7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="S8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="T8" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>64</v>
+      <c r="AG8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN8" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="R9" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>74</v>
+      <c r="AF9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH9" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AK9" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AL9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM9" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AN9" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AO9" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>75</v>
+        <v>183</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>46</v>
+        <v>185</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>78</v>
+        <v>186</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>81</v>
+        <v>187</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>84</v>
+        <v>60</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AJ10" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AK10" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AL10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM10" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AN10" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AO10" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>85</v>
+        <v>207</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>86</v>
+        <v>208</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>87</v>
+        <v>209</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>67</v>
+        <v>210</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>88</v>
+        <v>211</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>14</v>
+        <v>212</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>164</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>93</v>
+        <v>214</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI11" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AJ11" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AK11" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AL11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM11" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AN11" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AO11" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
-        <v>94</v>
+        <v>230</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>95</v>
+        <v>231</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>97</v>
+        <v>104</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>232</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>99</v>
+        <v>31</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>101</v>
+        <v>33</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="I12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z12" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AI12" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ12" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AK12" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AL12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM12" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AN12" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AO12" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>105</v>
+        <v>250</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>106</v>
+        <v>251</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>107</v>
+        <v>252</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>108</v>
+        <v>253</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>109</v>
+        <v>254</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="L13" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="AF13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>114</v>
+      <c r="AG13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="AI13" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AJ13" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AK13" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AL13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM13" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AN13" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AO13" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>115</v>
+        <v>272</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>117</v>
-      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>118</v>
+        <v>277</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>118</v>
+        <v>277</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>118</v>
+        <v>277</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>118</v>
+        <v>277</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>118</v>
+        <v>277</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>118</v>
+        <v>277</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>118</v>
+        <v>277</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>118</v>
+        <v>277</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>118</v>
+        <v>277</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>118</v>
+        <v>277</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>118</v>
+        <v>277</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AE15" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AG15" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AH15" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AI15" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AJ15" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AK15" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AL15" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AM15" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AN15" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AO15" s="1" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>119</v>
+        <v>278</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>120</v>
+        <v>279</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>67</v>
+        <v>281</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>122</v>
+        <v>282</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>124</v>
+        <v>283</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>125</v>
+        <v>284</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>128</v>
+        <v>105</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="AG16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="AI16" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="AJ16" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="AK16" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="AL16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM16" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AN16" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AO16" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>129</v>
+        <v>305</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>130</v>
+        <v>306</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>131</v>
+        <v>307</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>50</v>
+        <v>308</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>132</v>
+        <v>309</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>133</v>
+        <v>310</v>
       </c>
       <c r="H17" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="AA17" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>137</v>
+      <c r="AB17" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH17" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AI17" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AJ17" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AK17" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="AL17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM17" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AN17" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AO17" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="8" t="s">
-        <v>138</v>
+        <v>325</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>146</v>
+      <c r="J18" s="1" t="s">
+        <v>330</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>147</v>
+        <v>331</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE18" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AF18" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AG18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH18" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="AI18" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ18" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="AK18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM18" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="AN18" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AO18" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="8" t="s">
-        <v>148</v>
+        <v>346</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>149</v>
+        <v>347</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>150</v>
+        <v>331</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>151</v>
+        <v>348</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>152</v>
+        <v>349</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>153</v>
+        <v>350</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>154</v>
+        <v>351</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>156</v>
+        <v>352</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>157</v>
+        <v>353</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="AD19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE19" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="AF19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH19" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="AI19" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="AJ19" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="AK19" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AL19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM19" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="AN19" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="AO19" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>158</v>
+        <v>368</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>123</v>
+        <v>289</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>159</v>
+        <v>369</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>160</v>
+        <v>370</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>161</v>
+        <v>371</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>162</v>
+        <v>372</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>163</v>
+        <v>373</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>164</v>
+        <v>80</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>165</v>
+        <v>374</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>166</v>
+        <v>134</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="AD20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE20" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AF20" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="AG20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH20" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="AI20" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AJ20" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="AK20" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="AL20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM20" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="AN20" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="AO20" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>167</v>
+        <v>394</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>168</v>
+        <v>395</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>169</v>
+        <v>396</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>170</v>
+        <v>397</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>171</v>
+        <v>398</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>172</v>
+        <v>32</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="AC21" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="AD21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE21" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="AF21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH21" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="AI21" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AJ21" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="AK21" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="AL21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM21" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>177</v>
+      <c r="AN21" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="AO21" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="8" t="s">
-        <v>178</v>
+        <v>418</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>117</v>
-      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="1"/>
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="1"/>
+      <c r="AM22" s="1"/>
+      <c r="AN22" s="1"/>
+      <c r="AO22" s="1"/>
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>179</v>
+        <v>419</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>179</v>
+        <v>419</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>179</v>
+        <v>419</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>179</v>
+        <v>419</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>179</v>
+        <v>419</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>179</v>
+        <v>419</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>179</v>
+        <v>419</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>179</v>
+        <v>419</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>179</v>
+        <v>419</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>179</v>
+        <v>419</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>179</v>
+        <v>419</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB23" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AC23" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AD23" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AE23" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AF23" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AG23" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AH23" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AI23" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AJ23" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AK23" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AL23" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AM23" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AN23" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AO23" s="1" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="8" t="s">
-        <v>180</v>
+        <v>420</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>181</v>
+        <v>421</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>182</v>
+        <v>422</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>188</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
       <c r="J24" s="1" t="s">
-        <v>189</v>
+        <v>424</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>190</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="AA24" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="AB24" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="AI24" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AJ24" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="AK24" s="1"/>
+      <c r="AL24" s="1"/>
+      <c r="AM24" s="1"/>
+      <c r="AN24" s="1"/>
+      <c r="AO24" s="1"/>
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>191</v>
+        <v>433</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>192</v>
+        <v>331</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>193</v>
+        <v>434</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>199</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
       <c r="J25" s="1" t="s">
-        <v>192</v>
+        <v>45</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>200</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB25" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AI25" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ25" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="AK25" s="1"/>
+      <c r="AL25" s="1"/>
+      <c r="AM25" s="1"/>
+      <c r="AN25" s="1"/>
+      <c r="AO25" s="1"/>
     </row>
     <row r="26">
       <c r="A26" s="8" t="s">
-        <v>201</v>
+        <v>440</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>202</v>
+        <v>105</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>203</v>
+        <v>434</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>208</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
       <c r="J26" s="1" t="s">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>209</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="AA26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB26" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AI26" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AJ26" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="1"/>
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="1"/>
+      <c r="AO26" s="1"/>
     </row>
     <row r="27">
       <c r="A27" s="8" t="s">
-        <v>210</v>
+        <v>446</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>163</v>
+        <v>383</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>212</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
       <c r="J27" s="1" t="s">
-        <v>123</v>
+        <v>429</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>214</v>
       </c>
+      <c r="L27" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="AA27" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB27" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="AI27" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="AJ27" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="AK27" s="1"/>
+      <c r="AL27" s="1"/>
+      <c r="AM27" s="1"/>
+      <c r="AN27" s="1"/>
+      <c r="AO27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="8" t="s">
-        <v>215</v>
+        <v>452</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>216</v>
+        <v>408</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>217</v>
+        <v>453</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>222</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
       <c r="J28" s="1" t="s">
-        <v>86</v>
+        <v>214</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>223</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA28" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="AB28" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AI28" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="AJ28" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="AK28" s="1"/>
+      <c r="AL28" s="1"/>
+      <c r="AM28" s="1"/>
+      <c r="AN28" s="1"/>
+      <c r="AO28" s="1"/>
     </row>
     <row r="29">
       <c r="A29" s="8" t="s">
-        <v>224</v>
+        <v>460</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>225</v>
+        <v>369</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>226</v>
+        <v>353</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>213</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
       <c r="J29" s="1" t="s">
-        <v>230</v>
+        <v>434</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>231</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB29" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="AI29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ29" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="1"/>
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="1"/>
+      <c r="AO29" s="1"/>
     </row>
     <row r="30">
       <c r="A30" s="8" t="s">
-        <v>232</v>
+        <v>466</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>233</v>
+        <v>178</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>234</v>
+        <v>159</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>235</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
       <c r="J30" s="1" t="s">
-        <v>236</v>
+        <v>429</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>237</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="AA30" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB30" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="AI30" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="AJ30" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1"/>
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="1"/>
+      <c r="AO30" s="1"/>
     </row>
     <row r="31">
       <c r="A31" s="7" t="s">
-        <v>238</v>
+        <v>470</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>238</v>
+        <v>470</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>238</v>
+        <v>470</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>238</v>
+        <v>470</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>238</v>
+        <v>470</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>238</v>
+        <v>470</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>238</v>
+        <v>470</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>238</v>
+        <v>470</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>238</v>
+        <v>470</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>238</v>
+        <v>470</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>238</v>
+        <v>470</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="Z31" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AA31" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AC31" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AD31" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AE31" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AF31" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AG31" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AH31" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AI31" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AJ31" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AK31" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AL31" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AM31" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AN31" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AO31" s="1" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="9" t="s">
-        <v>239</v>
+        <v>471</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="S32" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="T32" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA32" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB32" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="AC32" s="4"/>
+      <c r="AD32" s="4"/>
+      <c r="AE32" s="4"/>
+      <c r="AF32" s="4"/>
+      <c r="AG32" s="4"/>
+      <c r="AH32" s="4"/>
+      <c r="AI32" s="4"/>
+      <c r="AJ32" s="4"/>
+      <c r="AK32" s="4"/>
+      <c r="AL32" s="4"/>
+      <c r="AM32" s="4"/>
+      <c r="AN32" s="4"/>
+      <c r="AO32" s="4"/>
     </row>
     <row r="33">
       <c r="A33" s="8"/>
@@ -2228,14 +5304,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A31:K31"/>
+    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="R1:Y1"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="AH1:AO1"/>
+    <mergeCell ref="A4:AO4"/>
+    <mergeCell ref="A15:AO15"/>
+    <mergeCell ref="A23:AO23"/>
+    <mergeCell ref="A31:AO31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Output/AllModels_final_with_plan_12000.xlsx
+++ b/Output/AllModels_final_with_plan_12000.xlsx
@@ -1,1456 +1,1463 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pascku\Repos\02TimeAndTiesControl\Output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8FBF86-5006-419D-A8E0-56957F25CF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-22510" yWindow="760" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="477">
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Subjective MVPA Hurdle Lognormal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Device-Based MVPA Log (Gaussian)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mood Gaussian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reactance Dichotome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp(Est.)_hu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SE_hu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pd_hu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROPE_hu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inside</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BF_hu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BF_Evidence_hu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp(Est.)_nonzero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SE_nonzero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pd_nonzero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROPE_nonzero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BF_nonzero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BF_Evidence_nonzero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp(Est.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BF_Evidence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Est.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intercept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.26***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.19,  0.35]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.84, 1.20]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overwhelming Evidence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.84***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[33.00, 43.33]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.92, 1.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.19***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[99.90, 123.80]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.94, 1.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 3.46, 3.88]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.11, 0.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.17,   0.65]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.83, 1.20]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moderate Evidence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Within-Person Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily individual's experienced persuasion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.39,  1.83]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.98,  1.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Very Strong Evidence for Null</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.00,   1.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.04, 0.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.68,   1.01]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moderate Evidence for Null</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily partner's experienced persuasion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.19,  1.52]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.99,  1.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.99,   1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.02, 0.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.84,   1.53]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strong Evidence for Null</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily individual's experienced pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.69,  1.30]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.82,  1.00]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.88,   1.01]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.950</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.14, 0.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.02,   4.58]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weak Evidence for Null</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily partner's experienced pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.05,  2.34]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weak Evidence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.86,  1.03]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.92,   1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.15, 0.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.54,   4.37]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily individual's experienced pushing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.71,  1.30]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.740</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.92,  1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.640</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.96,   1.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.730</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.06, 0.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.04,   1.76]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily partner's experienced pushing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.05,  1.62]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.90,  1.02]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.96,   1.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.07*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.00, 0.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.61,   1.37]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.64,  1.16]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.88,  1.12]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.91,   1.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.15, 0.37]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Very Strong Evidence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.77,   3.69]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Own Actionplan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 7.76, 11.57]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.21,  1.45]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.01,   1.12]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.10**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.03, 0.18]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.46,   1.62]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partner Actionplan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.96,  1.42]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.940</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.99,  1.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.00,   1.10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.11, 0.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.49,   1.58]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily weartime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.00,   1.00]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strong Evidence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Between-Person Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean individual's experienced persuasion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.72,  3.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.74,  1.34]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.84,   1.46]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.23, 0.90]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.51,   7.72]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean partner's experienced persuasion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.69,  2.85]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.280</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.71,  1.28]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.74,   1.30]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.560</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.34, 0.79]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.47,   9.47]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean individual's experienced pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.39*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.17,  0.88]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.86,  1.69]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.74,   1.32]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.530</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.85, 0.25]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.35**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[2.64, 404.79]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean partner's experienced pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.21,  1.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.66,  1.33]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.74,   1.29]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.87, 0.23]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.11,  19.86]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean individual's experienced pushing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.38,  3.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.80,  1.94]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.64,   1.44]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.57, 0.99]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.06,   5.70]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean partner's experienced pushing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.69,  5.73]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.85,  2.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.82,   1.83]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.41, 1.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.05*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00,   0.55]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.550</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean weartime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Random Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Intercept)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.57, 0.99]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.23, 0.40]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.23, 0.39]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.47, 0.78]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.75, 1.79]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily individual's experienced persuasion)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.03, 0.39]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.07, 0.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.51]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily partner's experienced persuasion)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.34]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.04, 0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.12, 0.99]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily individual's experienced pressure)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.74]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.23]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.13, 2.47]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily partner's experienced pressure)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.94]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.18]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.26]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.05, 2.83]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily individual's experienced pushing)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.31, 1.01]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.61]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily partner's experienced pushing)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.50]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.16]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.99]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Additional Parameters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sigma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.65, 0.70]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.56, 0.59]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.94, 0.98]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="477">
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Subjective MVPA Hurdle Lognormal</t>
+  </si>
+  <si>
+    <t>Device-Based MVPA Log (Gaussian)</t>
+  </si>
+  <si>
+    <t>Mood Gaussian</t>
+  </si>
+  <si>
+    <t>Reactance Dichotome</t>
+  </si>
+  <si>
+    <t>exp(Est.)_hu</t>
+  </si>
+  <si>
+    <t>SE_hu</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>pd_hu</t>
+  </si>
+  <si>
+    <t>ROPE_hu</t>
+  </si>
+  <si>
+    <t>inside</t>
+  </si>
+  <si>
+    <t>BF_hu</t>
+  </si>
+  <si>
+    <t>BF_Evidence_hu</t>
+  </si>
+  <si>
+    <t>exp(Est.)_nonzero</t>
+  </si>
+  <si>
+    <t>SE_nonzero</t>
+  </si>
+  <si>
+    <t>pd_nonzero</t>
+  </si>
+  <si>
+    <t>ROPE_nonzero</t>
+  </si>
+  <si>
+    <t>BF_nonzero</t>
+  </si>
+  <si>
+    <t>BF_Evidence_nonzero</t>
+  </si>
+  <si>
+    <t>exp(Est.)</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>pd</t>
+  </si>
+  <si>
+    <t>ROPE</t>
+  </si>
+  <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t>BF_Evidence</t>
+  </si>
+  <si>
+    <t>Est.</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>0.26***</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>[ 0.19,  0.35]</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
+    <t>[0.84, 1.20]</t>
+  </si>
+  <si>
+    <t>0.000</t>
+  </si>
+  <si>
+    <t>&gt;100</t>
+  </si>
+  <si>
+    <t>Overwhelming Evidence</t>
+  </si>
+  <si>
+    <t>37.84***</t>
+  </si>
+  <si>
+    <t>2.60</t>
+  </si>
+  <si>
+    <t>[33.00, 43.33]</t>
+  </si>
+  <si>
+    <t>[0.92, 1.08]</t>
+  </si>
+  <si>
+    <t>111.19***</t>
+  </si>
+  <si>
+    <t>6.10</t>
+  </si>
+  <si>
+    <t>[99.90, 123.80]</t>
+  </si>
+  <si>
+    <t>[0.94, 1.07]</t>
+  </si>
+  <si>
+    <t>3.67***</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>[ 3.46, 3.88]</t>
+  </si>
+  <si>
+    <t>[-0.11, 0.11]</t>
+  </si>
+  <si>
+    <t>0.34**</t>
+  </si>
+  <si>
+    <t>[0.17,   0.65]</t>
+  </si>
+  <si>
+    <t>0.999</t>
+  </si>
+  <si>
+    <t>[0.83, 1.20]</t>
+  </si>
+  <si>
+    <t>0.004</t>
+  </si>
+  <si>
+    <t>9.883</t>
+  </si>
+  <si>
+    <t>Moderate Evidence</t>
+  </si>
+  <si>
+    <t>Within-Person Effects</t>
+  </si>
+  <si>
+    <t>Daily individual's experienced persuasion</t>
+  </si>
+  <si>
+    <t>1.58***</t>
+  </si>
+  <si>
+    <t>[ 1.39,  1.83]</t>
+  </si>
+  <si>
+    <t>1.03</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>[ 0.98,  1.09]</t>
+  </si>
+  <si>
+    <t>0.868</t>
+  </si>
+  <si>
+    <t>0.963</t>
+  </si>
+  <si>
+    <t>0.017</t>
+  </si>
+  <si>
+    <t>Very Strong Evidence for Null</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>[ 1.00,   1.06]</t>
+  </si>
+  <si>
+    <t>0.954</t>
+  </si>
+  <si>
+    <t>0.995</t>
+  </si>
+  <si>
+    <t>0.023</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>[-0.04, 0.04]</t>
+  </si>
+  <si>
+    <t>0.521</t>
+  </si>
+  <si>
+    <t>0.84</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>[0.68,   1.01]</t>
+  </si>
+  <si>
+    <t>0.968</t>
+  </si>
+  <si>
+    <t>0.524</t>
+  </si>
+  <si>
+    <t>0.289</t>
+  </si>
+  <si>
+    <t>Moderate Evidence for Null</t>
+  </si>
+  <si>
+    <t>Daily partner's experienced persuasion</t>
+  </si>
+  <si>
+    <t>1.34***</t>
+  </si>
+  <si>
+    <t>[ 1.19,  1.52]</t>
+  </si>
+  <si>
+    <t>0.035</t>
+  </si>
+  <si>
+    <t>[ 0.99,  1.08]</t>
+  </si>
+  <si>
+    <t>0.928</t>
+  </si>
+  <si>
+    <t>0.974</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>[ 0.99,   1.05]</t>
+  </si>
+  <si>
+    <t>0.866</t>
+  </si>
+  <si>
+    <t>0.998</t>
+  </si>
+  <si>
+    <t>0.010</t>
+  </si>
+  <si>
+    <t>[-0.02, 0.07]</t>
+  </si>
+  <si>
+    <t>0.813</t>
+  </si>
+  <si>
+    <t>0.006</t>
+  </si>
+  <si>
+    <t>1.12</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>[0.84,   1.53]</t>
+  </si>
+  <si>
+    <t>0.779</t>
+  </si>
+  <si>
+    <t>0.663</t>
+  </si>
+  <si>
+    <t>0.088</t>
+  </si>
+  <si>
+    <t>Strong Evidence for Null</t>
+  </si>
+  <si>
+    <t>Daily individual's experienced pressure</t>
+  </si>
+  <si>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>[ 0.69,  1.30]</t>
+  </si>
+  <si>
+    <t>0.614</t>
+  </si>
+  <si>
+    <t>0.739</t>
+  </si>
+  <si>
+    <t>0.079</t>
+  </si>
+  <si>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>[ 0.82,  1.00]</t>
+  </si>
+  <si>
+    <t>0.972</t>
+  </si>
+  <si>
+    <t>0.345</t>
+  </si>
+  <si>
+    <t>0.050</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>[ 0.88,   1.01]</t>
+  </si>
+  <si>
+    <t>0.950</t>
+  </si>
+  <si>
+    <t>0.599</t>
+  </si>
+  <si>
+    <t>0.019</t>
+  </si>
+  <si>
+    <t>-0.03</t>
+  </si>
+  <si>
+    <t>[-0.14, 0.07]</t>
+  </si>
+  <si>
+    <t>0.716</t>
+  </si>
+  <si>
+    <t>0.936</t>
+  </si>
+  <si>
+    <t>1.98*</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>[1.02,   4.58]</t>
+  </si>
+  <si>
+    <t>0.978</t>
+  </si>
+  <si>
+    <t>0.053</t>
+  </si>
+  <si>
+    <t>0.946</t>
+  </si>
+  <si>
+    <t>Weak Evidence for Null</t>
+  </si>
+  <si>
+    <t>Daily partner's experienced pressure</t>
+  </si>
+  <si>
+    <t>1.49*</t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>[ 1.05,  2.34]</t>
+  </si>
+  <si>
+    <t>0.986</t>
+  </si>
+  <si>
+    <t>0.111</t>
+  </si>
+  <si>
+    <t>1.185</t>
+  </si>
+  <si>
+    <t>Weak Evidence</t>
+  </si>
+  <si>
+    <t>[ 0.86,  1.03]</t>
+  </si>
+  <si>
+    <t>0.892</t>
+  </si>
+  <si>
+    <t>0.700</t>
+  </si>
+  <si>
+    <t>0.014</t>
+  </si>
+  <si>
+    <t>0.98</t>
+  </si>
+  <si>
+    <t>[ 0.92,   1.05]</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.911</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
+    <t>[-0.15, 0.08]</t>
+  </si>
+  <si>
+    <t>0.691</t>
+  </si>
+  <si>
+    <t>0.927</t>
+  </si>
+  <si>
+    <t>1.41</t>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>[0.54,   4.37]</t>
+  </si>
+  <si>
+    <t>0.795</t>
+  </si>
+  <si>
+    <t>0.231</t>
+  </si>
+  <si>
+    <t>0.139</t>
+  </si>
+  <si>
+    <t>Daily individual's experienced pushing</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>[ 0.71,  1.30]</t>
+  </si>
+  <si>
+    <t>0.636</t>
+  </si>
+  <si>
+    <t>0.740</t>
+  </si>
+  <si>
+    <t>0.081</t>
+  </si>
+  <si>
+    <t>0.99</t>
+  </si>
+  <si>
+    <t>[ 0.92,  1.05]</t>
+  </si>
+  <si>
+    <t>0.640</t>
+  </si>
+  <si>
+    <t>0.969</t>
+  </si>
+  <si>
+    <t>0.008</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>[ 0.96,   1.07]</t>
+  </si>
+  <si>
+    <t>0.730</t>
+  </si>
+  <si>
+    <t>0.976</t>
+  </si>
+  <si>
+    <t>0.007</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>[-0.06, 0.07]</t>
+  </si>
+  <si>
+    <t>0.575</t>
+  </si>
+  <si>
+    <t>1.34*</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>[1.04,   1.76]</t>
+  </si>
+  <si>
+    <t>0.988</t>
+  </si>
+  <si>
+    <t>0.206</t>
+  </si>
+  <si>
+    <t>0.649</t>
+  </si>
+  <si>
+    <t>Daily partner's experienced pushing</t>
+  </si>
+  <si>
+    <t>1.29*</t>
+  </si>
+  <si>
+    <t>[ 1.05,  1.62]</t>
+  </si>
+  <si>
+    <t>0.993</t>
+  </si>
+  <si>
+    <t>0.247</t>
+  </si>
+  <si>
+    <t>1.030</t>
+  </si>
+  <si>
+    <t>[ 0.90,  1.02]</t>
+  </si>
+  <si>
+    <t>0.916</t>
+  </si>
+  <si>
+    <t>0.878</t>
+  </si>
+  <si>
+    <t>0.018</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>[ 0.96,   1.04]</t>
+  </si>
+  <si>
+    <t>0.517</t>
+  </si>
+  <si>
+    <t>0.997</t>
+  </si>
+  <si>
+    <t>0.07*</t>
+  </si>
+  <si>
+    <t>[ 0.00, 0.14]</t>
+  </si>
+  <si>
+    <t>0.977</t>
+  </si>
+  <si>
+    <t>0.896</t>
+  </si>
+  <si>
+    <t>0.034</t>
+  </si>
+  <si>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>[0.61,   1.37]</t>
+  </si>
+  <si>
+    <t>0.671</t>
+  </si>
+  <si>
+    <t>0.601</t>
+  </si>
+  <si>
+    <t>0.073</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>[ 0.64,  1.16]</t>
+  </si>
+  <si>
+    <t>0.834</t>
+  </si>
+  <si>
+    <t>0.576</t>
+  </si>
+  <si>
+    <t>0.119</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>[ 0.88,  1.12]</t>
+  </si>
+  <si>
+    <t>0.577</t>
+  </si>
+  <si>
+    <t>0.786</t>
+  </si>
+  <si>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>[ 0.91,   1.04]</t>
+  </si>
+  <si>
+    <t>0.842</t>
+  </si>
+  <si>
+    <t>[ 0.15, 0.37]</t>
+  </si>
+  <si>
+    <t>62.833</t>
+  </si>
+  <si>
+    <t>Very Strong Evidence</t>
+  </si>
+  <si>
+    <t>1.68</t>
+  </si>
+  <si>
+    <t>0.67</t>
+  </si>
+  <si>
+    <t>[0.77,   3.69]</t>
+  </si>
+  <si>
+    <t>0.904</t>
+  </si>
+  <si>
+    <t>0.161</t>
+  </si>
+  <si>
+    <t>0.101</t>
+  </si>
+  <si>
+    <t>Own Actionplan</t>
+  </si>
+  <si>
+    <t>9.45***</t>
+  </si>
+  <si>
+    <t>[ 7.76, 11.57]</t>
+  </si>
+  <si>
+    <t>1.32***</t>
+  </si>
+  <si>
+    <t>[ 1.21,  1.45]</t>
+  </si>
+  <si>
+    <t>1.06*</t>
+  </si>
+  <si>
+    <t>[ 1.01,   1.12]</t>
+  </si>
+  <si>
+    <t>0.994</t>
+  </si>
+  <si>
+    <t>0.527</t>
+  </si>
+  <si>
+    <t>0.103</t>
+  </si>
+  <si>
+    <t>0.10**</t>
+  </si>
+  <si>
+    <t>[ 0.03, 0.18]</t>
+  </si>
+  <si>
+    <t>0.996</t>
+  </si>
+  <si>
+    <t>0.619</t>
+  </si>
+  <si>
+    <t>0.106</t>
+  </si>
+  <si>
+    <t>0.87</t>
+  </si>
+  <si>
+    <t>[0.46,   1.62]</t>
+  </si>
+  <si>
+    <t>0.669</t>
+  </si>
+  <si>
+    <t>0.392</t>
+  </si>
+  <si>
+    <t>0.048</t>
+  </si>
+  <si>
+    <t>Partner Actionplan</t>
+  </si>
+  <si>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>[ 0.96,  1.42]</t>
+  </si>
+  <si>
+    <t>0.940</t>
+  </si>
+  <si>
+    <t>0.168</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>[ 0.99,  1.17]</t>
+  </si>
+  <si>
+    <t>0.956</t>
+  </si>
+  <si>
+    <t>0.541</t>
+  </si>
+  <si>
+    <t>0.032</t>
+  </si>
+  <si>
+    <t>1.05</t>
+  </si>
+  <si>
+    <t>[ 1.00,   1.10]</t>
+  </si>
+  <si>
+    <t>0.751</t>
+  </si>
+  <si>
+    <t>0.025</t>
+  </si>
+  <si>
+    <t>[-0.11, 0.04]</t>
+  </si>
+  <si>
+    <t>0.791</t>
+  </si>
+  <si>
+    <t>0.983</t>
+  </si>
+  <si>
+    <t>0.88</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>[0.49,   1.58]</t>
+  </si>
+  <si>
+    <t>0.425</t>
+  </si>
+  <si>
+    <t>Daily weartime</t>
+  </si>
+  <si>
+    <t>1.00***</t>
+  </si>
+  <si>
+    <t>[ 1.00,   1.00]</t>
+  </si>
+  <si>
+    <t>15.446</t>
+  </si>
+  <si>
+    <t>Strong Evidence</t>
+  </si>
+  <si>
+    <t>Between-Person Effects</t>
+  </si>
+  <si>
+    <t>Mean individual's experienced persuasion</t>
+  </si>
+  <si>
+    <t>1.49</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>[ 0.72,  3.06]</t>
+  </si>
+  <si>
+    <t>0.863</t>
+  </si>
+  <si>
+    <t>0.216</t>
+  </si>
+  <si>
+    <t>0.331</t>
+  </si>
+  <si>
+    <t>[ 0.74,  1.34]</t>
+  </si>
+  <si>
+    <t>0.514</t>
+  </si>
+  <si>
+    <t>0.394</t>
+  </si>
+  <si>
+    <t>0.015</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>[ 0.84,   1.46]</t>
+  </si>
+  <si>
+    <t>0.761</t>
+  </si>
+  <si>
+    <t>0.281</t>
+  </si>
+  <si>
+    <t>0.016</t>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>[-0.23, 0.90]</t>
+  </si>
+  <si>
+    <t>0.887</t>
+  </si>
+  <si>
+    <t>0.150</t>
+  </si>
+  <si>
+    <t>0.028</t>
+  </si>
+  <si>
+    <t>1.89</t>
+  </si>
+  <si>
+    <t>1.26</t>
+  </si>
+  <si>
+    <t>[0.51,   7.72]</t>
+  </si>
+  <si>
+    <t>0.832</t>
+  </si>
+  <si>
+    <t>0.135</t>
+  </si>
+  <si>
+    <t>0.112</t>
+  </si>
+  <si>
+    <t>Mean partner's experienced persuasion</t>
+  </si>
+  <si>
+    <t>1.40</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>[ 0.69,  2.85]</t>
+  </si>
+  <si>
+    <t>0.826</t>
+  </si>
+  <si>
+    <t>0.252</t>
+  </si>
+  <si>
+    <t>0.280</t>
+  </si>
+  <si>
+    <t>[ 0.71,  1.28]</t>
+  </si>
+  <si>
+    <t>0.371</t>
+  </si>
+  <si>
+    <t>[ 0.74,   1.30]</t>
+  </si>
+  <si>
+    <t>0.560</t>
+  </si>
+  <si>
+    <t>0.352</t>
+  </si>
+  <si>
+    <t>0.013</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>[-0.34, 0.79]</t>
+  </si>
+  <si>
+    <t>1.99</t>
+  </si>
+  <si>
+    <t>1.51</t>
+  </si>
+  <si>
+    <t>[0.47,   9.47]</t>
+  </si>
+  <si>
+    <t>0.825</t>
+  </si>
+  <si>
+    <t>0.129</t>
+  </si>
+  <si>
+    <t>Mean individual's experienced pressure</t>
+  </si>
+  <si>
+    <t>0.39*</t>
+  </si>
+  <si>
+    <t>[ 0.17,  0.88]</t>
+  </si>
+  <si>
+    <t>0.030</t>
+  </si>
+  <si>
+    <t>2.722</t>
+  </si>
+  <si>
+    <t>1.21</t>
+  </si>
+  <si>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>[ 0.86,  1.69]</t>
+  </si>
+  <si>
+    <t>0.861</t>
+  </si>
+  <si>
+    <t>0.203</t>
+  </si>
+  <si>
+    <t>[ 0.74,   1.32]</t>
+  </si>
+  <si>
+    <t>0.530</t>
+  </si>
+  <si>
+    <t>-0.30</t>
+  </si>
+  <si>
+    <t>0.27</t>
+  </si>
+  <si>
+    <t>[-0.85, 0.25]</t>
+  </si>
+  <si>
+    <t>0.182</t>
+  </si>
+  <si>
+    <t>26.35**</t>
+  </si>
+  <si>
+    <t>32.93</t>
+  </si>
+  <si>
+    <t>[2.64, 404.79]</t>
+  </si>
+  <si>
+    <t>0.002</t>
+  </si>
+  <si>
+    <t>6.651</t>
+  </si>
+  <si>
+    <t>Mean partner's experienced pressure</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>[ 0.21,  1.14]</t>
+  </si>
+  <si>
+    <t>0.951</t>
+  </si>
+  <si>
+    <t>0.087</t>
+  </si>
+  <si>
+    <t>0.844</t>
+  </si>
+  <si>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>0.17</t>
+  </si>
+  <si>
+    <t>[ 0.66,  1.33]</t>
+  </si>
+  <si>
+    <t>0.638</t>
+  </si>
+  <si>
+    <t>0.318</t>
+  </si>
+  <si>
+    <t>0.011</t>
+  </si>
+  <si>
+    <t>[ 0.74,   1.29]</t>
+  </si>
+  <si>
+    <t>-0.32</t>
+  </si>
+  <si>
+    <t>[-0.87, 0.23]</t>
+  </si>
+  <si>
+    <t>0.876</t>
+  </si>
+  <si>
+    <t>0.172</t>
+  </si>
+  <si>
+    <t>1.77</t>
+  </si>
+  <si>
+    <t>2.30</t>
+  </si>
+  <si>
+    <t>[0.11,  19.86]</t>
+  </si>
+  <si>
+    <t>0.095</t>
+  </si>
+  <si>
+    <t>0.124</t>
+  </si>
+  <si>
+    <t>Mean individual's experienced pushing</t>
+  </si>
+  <si>
+    <t>0.59</t>
+  </si>
+  <si>
+    <t>[ 0.38,  3.17]</t>
+  </si>
+  <si>
+    <t>0.573</t>
+  </si>
+  <si>
+    <t>0.261</t>
+  </si>
+  <si>
+    <t>0.275</t>
+  </si>
+  <si>
+    <t>1.24</t>
+  </si>
+  <si>
+    <t>[ 0.80,  1.94]</t>
+  </si>
+  <si>
+    <t>0.838</t>
+  </si>
+  <si>
+    <t>0.174</t>
+  </si>
+  <si>
+    <t>0.020</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>[ 0.64,   1.44]</t>
+  </si>
+  <si>
+    <t>0.600</t>
+  </si>
+  <si>
+    <t>0.246</t>
+  </si>
+  <si>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>0.39</t>
+  </si>
+  <si>
+    <t>[-0.57, 0.99]</t>
+  </si>
+  <si>
+    <t>0.699</t>
+  </si>
+  <si>
+    <t>0.012</t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>[0.06,   5.70]</t>
+  </si>
+  <si>
+    <t>0.672</t>
+  </si>
+  <si>
+    <t>0.115</t>
+  </si>
+  <si>
+    <t>0.089</t>
+  </si>
+  <si>
+    <t>Mean partner's experienced pushing</t>
+  </si>
+  <si>
+    <t>1.96</t>
+  </si>
+  <si>
+    <t>1.04</t>
+  </si>
+  <si>
+    <t>[ 0.69,  5.73]</t>
+  </si>
+  <si>
+    <t>0.899</t>
+  </si>
+  <si>
+    <t>0.120</t>
+  </si>
+  <si>
+    <t>0.591</t>
+  </si>
+  <si>
+    <t>1.34</t>
+  </si>
+  <si>
+    <t>0.31</t>
+  </si>
+  <si>
+    <t>[ 0.85,  2.11]</t>
+  </si>
+  <si>
+    <t>0.903</t>
+  </si>
+  <si>
+    <t>0.118</t>
+  </si>
+  <si>
+    <t>0.031</t>
+  </si>
+  <si>
+    <t>1.22</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>[ 0.82,   1.83]</t>
+  </si>
+  <si>
+    <t>0.154</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>[-0.41, 1.15]</t>
+  </si>
+  <si>
+    <t>0.827</t>
+  </si>
+  <si>
+    <t>0.05*</t>
+  </si>
+  <si>
+    <t>[0.00,   0.55]</t>
+  </si>
+  <si>
+    <t>0.992</t>
+  </si>
+  <si>
+    <t>1.550</t>
+  </si>
+  <si>
+    <t>Mean weartime</t>
+  </si>
+  <si>
+    <t>Random Effects</t>
+  </si>
+  <si>
+    <t>sd(Intercept)</t>
+  </si>
+  <si>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>[0.57, 0.99]</t>
+  </si>
+  <si>
+    <t>0.30</t>
+  </si>
+  <si>
+    <t>[0.23, 0.40]</t>
+  </si>
+  <si>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>[0.23, 0.39]</t>
+  </si>
+  <si>
+    <t>0.60</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>[0.47, 0.78]</t>
+  </si>
+  <si>
+    <t>1.18</t>
+  </si>
+  <si>
+    <t>[0.75, 1.79]</t>
+  </si>
+  <si>
+    <t>sd(Daily individual's experienced persuasion)</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>[0.03, 0.39]</t>
+  </si>
+  <si>
+    <t>[0.07, 0.17]</t>
+  </si>
+  <si>
+    <t>[0.02, 0.08]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.10]</t>
+  </si>
+  <si>
+    <t>[0.01, 0.51]</t>
+  </si>
+  <si>
+    <t>sd(Daily partner's experienced persuasion)</t>
+  </si>
+  <si>
+    <t>[0.01, 0.34]</t>
+  </si>
+  <si>
+    <t>[0.04, 0.13]</t>
+  </si>
+  <si>
+    <t>[0.02, 0.09]</t>
+  </si>
+  <si>
+    <t>[0.01, 0.13]</t>
+  </si>
+  <si>
+    <t>[0.12, 0.99]</t>
+  </si>
+  <si>
+    <t>sd(Daily individual's experienced pressure)</t>
+  </si>
+  <si>
+    <t>[0.01, 0.74]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.23]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.14]</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>[0.13, 2.47]</t>
+  </si>
+  <si>
+    <t>sd(Daily partner's experienced pressure)</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>[0.01, 0.94]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.18]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.11]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.26]</t>
+  </si>
+  <si>
+    <t>0.70</t>
+  </si>
+  <si>
+    <t>[0.05, 2.83]</t>
+  </si>
+  <si>
+    <t>sd(Daily individual's experienced pushing)</t>
+  </si>
+  <si>
+    <t>[0.31, 1.01]</t>
+  </si>
+  <si>
+    <t>[0.01, 0.17]</t>
+  </si>
+  <si>
+    <t>[0.01, 0.15]</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>[0.02, 0.61]</t>
+  </si>
+  <si>
+    <t>sd(Daily partner's experienced pushing)</t>
+  </si>
+  <si>
+    <t>[0.01, 0.50]</t>
+  </si>
+  <si>
+    <t>[0.01, 0.16]</t>
+  </si>
+  <si>
+    <t>[0.01, 0.99]</t>
+  </si>
+  <si>
+    <t>Additional Parameters</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>[0.65, 0.70]</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>[0.56, 0.59]</t>
+  </si>
+  <si>
+    <t>[0.94, 0.98]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1464,16 +1471,16 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <b/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <i/>
     </font>
   </fonts>
   <fills count="2">
@@ -1493,20 +1500,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1522,20 +1537,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1817,139 +1847,183 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AO38"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AH13" sqref="AH13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="39.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.9296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.59765625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.19921875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.59765625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.265625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.19921875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="24.59765625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="23.265625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AE1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AF1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AG1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AH1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AI1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AK1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AL1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AM1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AN1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AO1" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2074,7 +2148,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
@@ -2199,133 +2273,133 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A4" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="S4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="T4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="U4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="V4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="W4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="X4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Y4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="Z4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AA4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AB4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AC4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AD4" s="1" t="s">
+      <c r="AD4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AE4" s="1" t="s">
+      <c r="AE4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AF4" s="1" t="s">
+      <c r="AF4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AG4" s="1" t="s">
+      <c r="AG4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AH4" s="1" t="s">
+      <c r="AH4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AI4" s="1" t="s">
+      <c r="AI4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AJ4" s="1" t="s">
+      <c r="AJ4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AK4" s="1" t="s">
+      <c r="AK4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AL4" s="1" t="s">
+      <c r="AL4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AM4" s="1" t="s">
+      <c r="AM4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AN4" s="1" t="s">
+      <c r="AN4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AO4" s="1" t="s">
+      <c r="AO4" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A5" s="7" t="s">
         <v>56</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -2449,8 +2523,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A6" s="7" t="s">
         <v>81</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -2574,8 +2648,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A7" s="7" t="s">
         <v>103</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2699,8 +2773,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A8" s="7" t="s">
         <v>132</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -2824,8 +2898,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A9" s="7" t="s">
         <v>158</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2949,8 +3023,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A10" s="7" t="s">
         <v>183</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -3074,8 +3148,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A11" s="7" t="s">
         <v>207</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -3199,8 +3273,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A12" s="7" t="s">
         <v>230</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -3324,8 +3398,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A13" s="7" t="s">
         <v>250</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -3449,8 +3523,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A14" s="7" t="s">
         <v>272</v>
       </c>
       <c r="B14" s="1"/>
@@ -3510,133 +3584,133 @@
       <c r="AN14" s="1"/>
       <c r="AO14" s="1"/>
     </row>
-    <row r="15">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A15" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M15" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="N15" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="O15" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="P15" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="Q15" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="R15" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="S15" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="T15" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="U15" s="1" t="s">
+      <c r="U15" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="V15" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="W15" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="X15" s="1" t="s">
+      <c r="X15" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="Y15" s="1" t="s">
+      <c r="Y15" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="Z15" s="1" t="s">
+      <c r="Z15" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="AA15" s="1" t="s">
+      <c r="AA15" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="AB15" s="1" t="s">
+      <c r="AB15" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="AC15" s="1" t="s">
+      <c r="AC15" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="AD15" s="1" t="s">
+      <c r="AD15" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="AE15" s="1" t="s">
+      <c r="AE15" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="AF15" s="1" t="s">
+      <c r="AF15" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="AG15" s="1" t="s">
+      <c r="AG15" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="AH15" s="1" t="s">
+      <c r="AH15" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="AI15" s="1" t="s">
+      <c r="AI15" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="AJ15" s="1" t="s">
+      <c r="AJ15" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="AK15" s="1" t="s">
+      <c r="AK15" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="AL15" s="1" t="s">
+      <c r="AL15" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="AM15" s="1" t="s">
+      <c r="AM15" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="AN15" s="1" t="s">
+      <c r="AN15" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="AO15" s="1" t="s">
+      <c r="AO15" s="10" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A16" s="7" t="s">
         <v>278</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -3760,8 +3834,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A17" s="7" t="s">
         <v>305</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -3885,8 +3959,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A18" s="7" t="s">
         <v>325</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -4010,8 +4084,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A19" s="7" t="s">
         <v>346</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -4135,8 +4209,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A20" s="7" t="s">
         <v>368</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -4260,8 +4334,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A21" s="7" t="s">
         <v>394</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -4385,8 +4459,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A22" s="7" t="s">
         <v>418</v>
       </c>
       <c r="B22" s="1"/>
@@ -4446,133 +4520,133 @@
       <c r="AN22" s="1"/>
       <c r="AO22" s="1"/>
     </row>
-    <row r="23">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A23" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="K23" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="L23" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="M23" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="N23" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="O23" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="P23" s="1" t="s">
+      <c r="P23" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="Q23" s="1" t="s">
+      <c r="Q23" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="R23" s="1" t="s">
+      <c r="R23" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="S23" s="1" t="s">
+      <c r="S23" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="T23" s="1" t="s">
+      <c r="T23" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="U23" s="1" t="s">
+      <c r="U23" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="V23" s="1" t="s">
+      <c r="V23" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="W23" s="1" t="s">
+      <c r="W23" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="X23" s="1" t="s">
+      <c r="X23" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="Y23" s="1" t="s">
+      <c r="Y23" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="Z23" s="1" t="s">
+      <c r="Z23" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="AA23" s="1" t="s">
+      <c r="AA23" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="AB23" s="1" t="s">
+      <c r="AB23" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="AC23" s="1" t="s">
+      <c r="AC23" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="AD23" s="1" t="s">
+      <c r="AD23" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="AE23" s="1" t="s">
+      <c r="AE23" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="AF23" s="1" t="s">
+      <c r="AF23" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="AG23" s="1" t="s">
+      <c r="AG23" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="AH23" s="1" t="s">
+      <c r="AH23" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="AI23" s="1" t="s">
+      <c r="AI23" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="AJ23" s="1" t="s">
+      <c r="AJ23" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="AK23" s="1" t="s">
+      <c r="AK23" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="AL23" s="1" t="s">
+      <c r="AL23" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="AM23" s="1" t="s">
+      <c r="AM23" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="AN23" s="1" t="s">
+      <c r="AN23" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="AO23" s="1" t="s">
+      <c r="AO23" s="10" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A24" s="7" t="s">
         <v>420</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -4646,8 +4720,8 @@
       <c r="AN24" s="1"/>
       <c r="AO24" s="1"/>
     </row>
-    <row r="25">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A25" s="7" t="s">
         <v>433</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -4721,8 +4795,8 @@
       <c r="AN25" s="1"/>
       <c r="AO25" s="1"/>
     </row>
-    <row r="26">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A26" s="7" t="s">
         <v>440</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -4796,8 +4870,8 @@
       <c r="AN26" s="1"/>
       <c r="AO26" s="1"/>
     </row>
-    <row r="27">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A27" s="7" t="s">
         <v>446</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -4871,8 +4945,8 @@
       <c r="AN27" s="1"/>
       <c r="AO27" s="1"/>
     </row>
-    <row r="28">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A28" s="7" t="s">
         <v>452</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -4946,8 +5020,8 @@
       <c r="AN28" s="1"/>
       <c r="AO28" s="1"/>
     </row>
-    <row r="29">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A29" s="7" t="s">
         <v>460</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -5021,8 +5095,8 @@
       <c r="AN29" s="1"/>
       <c r="AO29" s="1"/>
     </row>
-    <row r="30">
-      <c r="A30" s="8" t="s">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A30" s="7" t="s">
         <v>466</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -5096,133 +5170,133 @@
       <c r="AN30" s="1"/>
       <c r="AO30" s="1"/>
     </row>
-    <row r="31">
-      <c r="A31" s="7" t="s">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A31" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H31" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I31" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J31" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="K31" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="L31" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="M31" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="N31" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="O31" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="P31" s="1" t="s">
+      <c r="P31" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="Q31" s="1" t="s">
+      <c r="Q31" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="R31" s="1" t="s">
+      <c r="R31" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="S31" s="1" t="s">
+      <c r="S31" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="T31" s="1" t="s">
+      <c r="T31" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="U31" s="1" t="s">
+      <c r="U31" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="V31" s="1" t="s">
+      <c r="V31" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="W31" s="1" t="s">
+      <c r="W31" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="X31" s="1" t="s">
+      <c r="X31" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="Y31" s="1" t="s">
+      <c r="Y31" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="Z31" s="1" t="s">
+      <c r="Z31" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="AA31" s="1" t="s">
+      <c r="AA31" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="AB31" s="1" t="s">
+      <c r="AB31" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="AC31" s="1" t="s">
+      <c r="AC31" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="AD31" s="1" t="s">
+      <c r="AD31" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="AE31" s="1" t="s">
+      <c r="AE31" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="AF31" s="1" t="s">
+      <c r="AF31" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="AG31" s="1" t="s">
+      <c r="AG31" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="AH31" s="1" t="s">
+      <c r="AH31" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="AI31" s="1" t="s">
+      <c r="AI31" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="AJ31" s="1" t="s">
+      <c r="AJ31" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="AK31" s="1" t="s">
+      <c r="AK31" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="AL31" s="1" t="s">
+      <c r="AL31" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="AM31" s="1" t="s">
+      <c r="AM31" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="AN31" s="1" t="s">
+      <c r="AN31" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="AO31" s="1" t="s">
+      <c r="AO31" s="10" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="9" t="s">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A32" s="8" t="s">
         <v>471</v>
       </c>
       <c r="B32" s="4"/>
@@ -5284,36 +5358,36 @@
       <c r="AN32" s="4"/>
       <c r="AO32" s="4"/>
     </row>
-    <row r="33">
-      <c r="A33" s="8"/>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A33" s="7"/>
     </row>
-    <row r="34">
-      <c r="A34" s="8"/>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A34" s="7"/>
     </row>
-    <row r="35">
-      <c r="A35" s="8"/>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A35" s="7"/>
     </row>
-    <row r="36">
-      <c r="A36" s="8"/>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A36" s="7"/>
     </row>
-    <row r="37">
-      <c r="A37" s="8"/>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A37" s="7"/>
     </row>
-    <row r="38">
-      <c r="A38" s="8"/>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A38" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A15:AO15"/>
+    <mergeCell ref="A23:AO23"/>
+    <mergeCell ref="A31:AO31"/>
     <mergeCell ref="B1:Q1"/>
     <mergeCell ref="R1:Y1"/>
     <mergeCell ref="Z1:AG1"/>
     <mergeCell ref="AH1:AO1"/>
     <mergeCell ref="A4:AO4"/>
-    <mergeCell ref="A15:AO15"/>
-    <mergeCell ref="A23:AO23"/>
-    <mergeCell ref="A31:AO31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Output/AllModels_final_with_plan_12000.xlsx
+++ b/Output/AllModels_final_with_plan_12000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pascku\Repos\02TimeAndTiesControl\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8FBF86-5006-419D-A8E0-56957F25CF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4106CD80-D594-4EEE-9CCF-22706526B8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-22510" yWindow="760" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1850,8 +1850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AH13" sqref="AH13"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1868,6 +1868,7 @@
     <col min="10" max="10" width="15.73046875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.9296875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5.59765625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.46484375" bestFit="1" customWidth="1"/>

--- a/Output/AllModels_final_with_plan_12000.xlsx
+++ b/Output/AllModels_final_with_plan_12000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pascku\Repos\02TimeAndTiesControl\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C95F9D-13E3-47EF-B84A-815E326942A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B39A591-F05D-4C73-AAFC-73B6D18C410D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -856,16 +856,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1167,43 +1167,56 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="39.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.53125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.9296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="10" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1211,16 +1224,16 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="11" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -1313,37 +1326,37 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1682,37 +1695,37 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="9" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1946,37 +1959,37 @@
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="H24" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="I24" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="K24" s="11" t="s">
+      <c r="K24" s="9" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2226,37 +2239,37 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="G32" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="H32" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="I32" s="11" t="s">
+      <c r="I32" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="J32" s="11" t="s">
+      <c r="J32" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="K32" s="11" t="s">
+      <c r="K32" s="9" t="s">
         <v>242</v>
       </c>
     </row>

--- a/Output/AllModels_final_with_plan_12000.xlsx
+++ b/Output/AllModels_final_with_plan_12000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pascku\Repos\02TimeAndTiesControl\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B39A591-F05D-4C73-AAFC-73B6D18C410D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12357080-EC59-4441-B4EA-E42FFA5EF91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -799,12 +799,24 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -837,7 +849,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -866,6 +878,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1167,7 +1188,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1364,7 +1385,7 @@
       <c r="A6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="12" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1399,7 +1420,7 @@
       <c r="A7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1434,7 +1455,7 @@
       <c r="A8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="13" t="s">
         <v>50</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1469,7 +1490,7 @@
       <c r="A9" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="12" t="s">
         <v>61</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1504,13 +1525,13 @@
       <c r="A10" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="13" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -1539,13 +1560,13 @@
       <c r="A11" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="12" t="s">
         <v>80</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="13" t="s">
         <v>50</v>
       </c>
       <c r="E11" s="1" t="s">

--- a/Output/AllModels_final_with_plan_12000.xlsx
+++ b/Output/AllModels_final_with_plan_12000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pascku\Repos\02TimeAndTiesControl\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12357080-EC59-4441-B4EA-E42FFA5EF91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A897CE20-3D6E-4715-A9B1-3380AA459DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -799,7 +799,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -815,6 +815,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,7 +855,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -887,6 +893,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1188,7 +1203,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1391,28 +1406,28 @@
       <c r="C6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="13" t="s">
         <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="13" t="s">
         <v>35</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="16" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1426,28 +1441,28 @@
       <c r="C7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="13" t="s">
         <v>32</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="13" t="s">
         <v>43</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="14" t="s">
         <v>45</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="16" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1461,25 +1476,25 @@
       <c r="C8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="13" t="s">
         <v>52</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="13" t="s">
         <v>54</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="17" t="s">
         <v>58</v>
       </c>
       <c r="K8" s="1" t="s">
@@ -1496,25 +1511,25 @@
       <c r="C9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="13" t="s">
         <v>54</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="13" t="s">
         <v>64</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="13" t="s">
         <v>56</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="13" t="s">
         <v>67</v>
       </c>
       <c r="K9" s="1" t="s">
@@ -1531,25 +1546,25 @@
       <c r="C10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>71</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="14" t="s">
         <v>73</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="13" t="s">
         <v>75</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="15" t="s">
         <v>77</v>
       </c>
       <c r="K10" s="1" t="s">
@@ -1572,19 +1587,19 @@
       <c r="E11" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="13" t="s">
         <v>83</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="15" t="s">
         <v>85</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="13" t="s">
         <v>87</v>
       </c>
       <c r="K11" s="1" t="s">

--- a/Output/AllModels_final_with_plan_12000.xlsx
+++ b/Output/AllModels_final_with_plan_12000.xlsx
@@ -1,779 +1,772 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pascku\Repos\02TimeAndTiesControl\Output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A897CE20-3D6E-4715-A9B1-3380AA459DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="249">
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Subjective MVPA Hurdle Lognormal</t>
-  </si>
-  <si>
-    <t>Device-Based MVPA Log (Gaussian)</t>
-  </si>
-  <si>
-    <t>Mood Gaussian</t>
-  </si>
-  <si>
-    <t>Reactance Dichotome</t>
-  </si>
-  <si>
-    <t>Hurdle Component</t>
-  </si>
-  <si>
-    <t>Non-Zero Component</t>
-  </si>
-  <si>
-    <t>exp(Est.)_hu pa_sub</t>
-  </si>
-  <si>
-    <t>95% CI_hu pa_sub</t>
-  </si>
-  <si>
-    <t>exp(Est.)_nonzero pa_sub</t>
-  </si>
-  <si>
-    <t>95% CI_nonzero pa_sub</t>
-  </si>
-  <si>
-    <t>exp(Est.) pa_obj_log</t>
-  </si>
-  <si>
-    <t>95% CI pa_obj_log</t>
-  </si>
-  <si>
-    <t>Est. mood_gauss</t>
-  </si>
-  <si>
-    <t>95% CI mood_gauss</t>
-  </si>
-  <si>
-    <t>OR is_reactance</t>
-  </si>
-  <si>
-    <t>95% CI is_reactance</t>
-  </si>
-  <si>
-    <t>Intercept</t>
-  </si>
-  <si>
-    <t>0.26***</t>
-  </si>
-  <si>
-    <t>[ 0.19,  0.35]</t>
-  </si>
-  <si>
-    <t>37.84***</t>
-  </si>
-  <si>
-    <t>[33.00, 43.33]</t>
-  </si>
-  <si>
-    <t>111.19***</t>
-  </si>
-  <si>
-    <t>[99.90, 123.80]</t>
-  </si>
-  <si>
-    <t>3.67***</t>
-  </si>
-  <si>
-    <t>[ 3.46, 3.88]</t>
-  </si>
-  <si>
-    <t>0.34**</t>
-  </si>
-  <si>
-    <t>[0.17,   0.65]</t>
-  </si>
-  <si>
-    <t>Within-Person Effects</t>
-  </si>
-  <si>
-    <t>Daily individual's experienced persuasion</t>
-  </si>
-  <si>
-    <t>1.58***</t>
-  </si>
-  <si>
-    <t>[ 1.39,  1.83]</t>
-  </si>
-  <si>
-    <t>1.03</t>
-  </si>
-  <si>
-    <t>[ 0.98,  1.09]</t>
-  </si>
-  <si>
-    <t>[ 1.00,   1.06]</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>[-0.04, 0.04]</t>
-  </si>
-  <si>
-    <t>0.84</t>
-  </si>
-  <si>
-    <t>[0.68,   1.01]</t>
-  </si>
-  <si>
-    <t>Daily partner's experienced persuasion</t>
-  </si>
-  <si>
-    <t>1.34***</t>
-  </si>
-  <si>
-    <t>[ 1.19,  1.52]</t>
-  </si>
-  <si>
-    <t>[ 0.99,  1.08]</t>
-  </si>
-  <si>
-    <t>1.02</t>
-  </si>
-  <si>
-    <t>[ 0.99,   1.05]</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>[-0.02, 0.07]</t>
-  </si>
-  <si>
-    <t>1.12</t>
-  </si>
-  <si>
-    <t>[0.84,   1.53]</t>
-  </si>
-  <si>
-    <t>Daily individual's experienced pressure</t>
-  </si>
-  <si>
-    <t>0.96</t>
-  </si>
-  <si>
-    <t>[ 0.69,  1.30]</t>
-  </si>
-  <si>
-    <t>0.91</t>
-  </si>
-  <si>
-    <t>[ 0.82,  1.00]</t>
-  </si>
-  <si>
-    <t>0.95</t>
-  </si>
-  <si>
-    <t>[ 0.88,   1.01]</t>
-  </si>
-  <si>
-    <t>-0.03</t>
-  </si>
-  <si>
-    <t>[-0.14, 0.07]</t>
-  </si>
-  <si>
-    <t>1.98*</t>
-  </si>
-  <si>
-    <t>[1.02,   4.58]</t>
-  </si>
-  <si>
-    <t>Daily partner's experienced pressure</t>
-  </si>
-  <si>
-    <t>1.49*</t>
-  </si>
-  <si>
-    <t>[ 1.05,  2.34]</t>
-  </si>
-  <si>
-    <t>[ 0.86,  1.03]</t>
-  </si>
-  <si>
-    <t>0.98</t>
-  </si>
-  <si>
-    <t>[ 0.92,   1.05]</t>
-  </si>
-  <si>
-    <t>[-0.15, 0.08]</t>
-  </si>
-  <si>
-    <t>1.41</t>
-  </si>
-  <si>
-    <t>[0.54,   4.37]</t>
-  </si>
-  <si>
-    <t>Daily individual's experienced pushing</t>
-  </si>
-  <si>
-    <t>[ 0.71,  1.30]</t>
-  </si>
-  <si>
-    <t>0.99</t>
-  </si>
-  <si>
-    <t>[ 0.92,  1.05]</t>
-  </si>
-  <si>
-    <t>1.01</t>
-  </si>
-  <si>
-    <t>[ 0.96,   1.07]</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>[-0.06, 0.07]</t>
-  </si>
-  <si>
-    <t>1.34*</t>
-  </si>
-  <si>
-    <t>[1.04,   1.76]</t>
-  </si>
-  <si>
-    <t>Daily partner's experienced pushing</t>
-  </si>
-  <si>
-    <t>1.29*</t>
-  </si>
-  <si>
-    <t>[ 1.05,  1.62]</t>
-  </si>
-  <si>
-    <t>[ 0.90,  1.02]</t>
-  </si>
-  <si>
-    <t>1.00</t>
-  </si>
-  <si>
-    <t>[ 0.96,   1.04]</t>
-  </si>
-  <si>
-    <t>0.07*</t>
-  </si>
-  <si>
-    <t>[ 0.00, 0.14]</t>
-  </si>
-  <si>
-    <t>0.92</t>
-  </si>
-  <si>
-    <t>[0.61,   1.37]</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>0.86</t>
-  </si>
-  <si>
-    <t>[ 0.64,  1.16]</t>
-  </si>
-  <si>
-    <t>[ 0.88,  1.12]</t>
-  </si>
-  <si>
-    <t>0.97</t>
-  </si>
-  <si>
-    <t>[ 0.91,   1.04]</t>
-  </si>
-  <si>
-    <t>[ 0.15, 0.37]</t>
-  </si>
-  <si>
-    <t>1.68</t>
-  </si>
-  <si>
-    <t>[0.77,   3.69]</t>
-  </si>
-  <si>
-    <t>Own Actionplan</t>
-  </si>
-  <si>
-    <t>9.45***</t>
-  </si>
-  <si>
-    <t>[ 7.76, 11.57]</t>
-  </si>
-  <si>
-    <t>1.32***</t>
-  </si>
-  <si>
-    <t>[ 1.21,  1.45]</t>
-  </si>
-  <si>
-    <t>1.06*</t>
-  </si>
-  <si>
-    <t>[ 1.01,   1.12]</t>
-  </si>
-  <si>
-    <t>0.10**</t>
-  </si>
-  <si>
-    <t>[ 0.03, 0.18]</t>
-  </si>
-  <si>
-    <t>0.87</t>
-  </si>
-  <si>
-    <t>[0.46,   1.62]</t>
-  </si>
-  <si>
-    <t>Partner Actionplan</t>
-  </si>
-  <si>
-    <t>1.17</t>
-  </si>
-  <si>
-    <t>[ 0.96,  1.42]</t>
-  </si>
-  <si>
-    <t>1.08</t>
-  </si>
-  <si>
-    <t>[ 0.99,  1.17]</t>
-  </si>
-  <si>
-    <t>1.05</t>
-  </si>
-  <si>
-    <t>[ 1.00,   1.10]</t>
-  </si>
-  <si>
-    <t>[-0.11, 0.04]</t>
-  </si>
-  <si>
-    <t>0.88</t>
-  </si>
-  <si>
-    <t>[0.49,   1.58]</t>
-  </si>
-  <si>
-    <t>Daily weartime</t>
-  </si>
-  <si>
-    <t>1.00***</t>
-  </si>
-  <si>
-    <t>[ 1.00,   1.00]</t>
-  </si>
-  <si>
-    <t>Between-Person Effects</t>
-  </si>
-  <si>
-    <t>Mean individual's experienced persuasion</t>
-  </si>
-  <si>
-    <t>1.49</t>
-  </si>
-  <si>
-    <t>[ 0.72,  3.06]</t>
-  </si>
-  <si>
-    <t>[ 0.74,  1.34]</t>
-  </si>
-  <si>
-    <t>1.10</t>
-  </si>
-  <si>
-    <t>[ 0.84,   1.46]</t>
-  </si>
-  <si>
-    <t>0.34</t>
-  </si>
-  <si>
-    <t>[-0.23, 0.90]</t>
-  </si>
-  <si>
-    <t>1.89</t>
-  </si>
-  <si>
-    <t>[0.51,   7.72]</t>
-  </si>
-  <si>
-    <t>Mean partner's experienced persuasion</t>
-  </si>
-  <si>
-    <t>1.40</t>
-  </si>
-  <si>
-    <t>[ 0.69,  2.85]</t>
-  </si>
-  <si>
-    <t>[ 0.71,  1.28]</t>
-  </si>
-  <si>
-    <t>[ 0.74,   1.30]</t>
-  </si>
-  <si>
-    <t>0.23</t>
-  </si>
-  <si>
-    <t>[-0.34, 0.79]</t>
-  </si>
-  <si>
-    <t>1.99</t>
-  </si>
-  <si>
-    <t>[0.47,   9.47]</t>
-  </si>
-  <si>
-    <t>Mean individual's experienced pressure</t>
-  </si>
-  <si>
-    <t>0.39*</t>
-  </si>
-  <si>
-    <t>[ 0.17,  0.88]</t>
-  </si>
-  <si>
-    <t>1.21</t>
-  </si>
-  <si>
-    <t>[ 0.86,  1.69]</t>
-  </si>
-  <si>
-    <t>[ 0.74,   1.32]</t>
-  </si>
-  <si>
-    <t>-0.30</t>
-  </si>
-  <si>
-    <t>[-0.85, 0.25]</t>
-  </si>
-  <si>
-    <t>26.35**</t>
-  </si>
-  <si>
-    <t>[2.64, 404.79]</t>
-  </si>
-  <si>
-    <t>Mean partner's experienced pressure</t>
-  </si>
-  <si>
-    <t>0.49</t>
-  </si>
-  <si>
-    <t>[ 0.21,  1.14]</t>
-  </si>
-  <si>
-    <t>0.94</t>
-  </si>
-  <si>
-    <t>[ 0.66,  1.33]</t>
-  </si>
-  <si>
-    <t>[ 0.74,   1.29]</t>
-  </si>
-  <si>
-    <t>-0.32</t>
-  </si>
-  <si>
-    <t>[-0.87, 0.23]</t>
-  </si>
-  <si>
-    <t>1.77</t>
-  </si>
-  <si>
-    <t>[0.11,  19.86]</t>
-  </si>
-  <si>
-    <t>Mean individual's experienced pushing</t>
-  </si>
-  <si>
-    <t>[ 0.38,  3.17]</t>
-  </si>
-  <si>
-    <t>1.24</t>
-  </si>
-  <si>
-    <t>[ 0.80,  1.94]</t>
-  </si>
-  <si>
-    <t>[ 0.64,   1.44]</t>
-  </si>
-  <si>
-    <t>0.20</t>
-  </si>
-  <si>
-    <t>[-0.57, 0.99]</t>
-  </si>
-  <si>
-    <t>0.61</t>
-  </si>
-  <si>
-    <t>[0.06,   5.70]</t>
-  </si>
-  <si>
-    <t>Mean partner's experienced pushing</t>
-  </si>
-  <si>
-    <t>1.96</t>
-  </si>
-  <si>
-    <t>[ 0.69,  5.73]</t>
-  </si>
-  <si>
-    <t>1.34</t>
-  </si>
-  <si>
-    <t>[ 0.85,  2.11]</t>
-  </si>
-  <si>
-    <t>1.22</t>
-  </si>
-  <si>
-    <t>[ 0.82,   1.83]</t>
-  </si>
-  <si>
-    <t>0.36</t>
-  </si>
-  <si>
-    <t>[-0.41, 1.15]</t>
-  </si>
-  <si>
-    <t>0.05*</t>
-  </si>
-  <si>
-    <t>[0.00,   0.55]</t>
-  </si>
-  <si>
-    <t>Mean weartime</t>
-  </si>
-  <si>
-    <t>Random Effects</t>
-  </si>
-  <si>
-    <t>sd(Intercept)</t>
-  </si>
-  <si>
-    <t>0.74</t>
-  </si>
-  <si>
-    <t>[0.57, 0.99]</t>
-  </si>
-  <si>
-    <t>0.30</t>
-  </si>
-  <si>
-    <t>[0.23, 0.40]</t>
-  </si>
-  <si>
-    <t>0.29</t>
-  </si>
-  <si>
-    <t>[0.23, 0.39]</t>
-  </si>
-  <si>
-    <t>0.60</t>
-  </si>
-  <si>
-    <t>[0.47, 0.78]</t>
-  </si>
-  <si>
-    <t>1.18</t>
-  </si>
-  <si>
-    <t>[0.75, 1.79]</t>
-  </si>
-  <si>
-    <t>sd(Daily individual's experienced persuasion)</t>
-  </si>
-  <si>
-    <t>0.21</t>
-  </si>
-  <si>
-    <t>[0.03, 0.39]</t>
-  </si>
-  <si>
-    <t>0.11</t>
-  </si>
-  <si>
-    <t>[0.07, 0.17]</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>[0.02, 0.08]</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>[0.00, 0.10]</t>
-  </si>
-  <si>
-    <t>[0.01, 0.51]</t>
-  </si>
-  <si>
-    <t>sd(Daily partner's experienced persuasion)</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>[0.01, 0.34]</t>
-  </si>
-  <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>[0.04, 0.13]</t>
-  </si>
-  <si>
-    <t>[0.02, 0.09]</t>
-  </si>
-  <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>[0.01, 0.13]</t>
-  </si>
-  <si>
-    <t>[0.12, 0.99]</t>
-  </si>
-  <si>
-    <t>sd(Daily individual's experienced pressure)</t>
-  </si>
-  <si>
-    <t>[0.01, 0.74]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.23]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.14]</t>
-  </si>
-  <si>
-    <t>[0.13, 2.47]</t>
-  </si>
-  <si>
-    <t>sd(Daily partner's experienced pressure)</t>
-  </si>
-  <si>
-    <t>0.24</t>
-  </si>
-  <si>
-    <t>[0.01, 0.94]</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>[0.00, 0.18]</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>[0.00, 0.11]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.26]</t>
-  </si>
-  <si>
-    <t>[0.05, 2.83]</t>
-  </si>
-  <si>
-    <t>sd(Daily individual's experienced pushing)</t>
-  </si>
-  <si>
-    <t>0.59</t>
-  </si>
-  <si>
-    <t>[0.31, 1.01]</t>
-  </si>
-  <si>
-    <t>0.09</t>
-  </si>
-  <si>
-    <t>[0.01, 0.17]</t>
-  </si>
-  <si>
-    <t>[0.01, 0.15]</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>[0.02, 0.61]</t>
-  </si>
-  <si>
-    <t>sd(Daily partner's experienced pushing)</t>
-  </si>
-  <si>
-    <t>0.18</t>
-  </si>
-  <si>
-    <t>[0.01, 0.50]</t>
-  </si>
-  <si>
-    <t>[0.01, 0.16]</t>
-  </si>
-  <si>
-    <t>0.27</t>
-  </si>
-  <si>
-    <t>[0.01, 0.99]</t>
-  </si>
-  <si>
-    <t>Additional Parameters</t>
-  </si>
-  <si>
-    <t>sigma</t>
-  </si>
-  <si>
-    <t>0.68</t>
-  </si>
-  <si>
-    <t>[0.65, 0.70]</t>
-  </si>
-  <si>
-    <t>0.57</t>
-  </si>
-  <si>
-    <t>[0.56, 0.59]</t>
-  </si>
-  <si>
-    <t>[0.94, 0.98]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="249">
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Subjective MVPA Hurdle Lognormal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Device-Based MVPA Log (Gaussian)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mood Gaussian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reactance Dichotome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hurdle Component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-Zero Component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exp(Est.)_hu pa_sub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95% CI_hu pa_sub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exp(Est.)_nonzero pa_sub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95% CI_nonzero pa_sub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exp(Est.) pa_obj_log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95% CI pa_obj_log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Est. mood_gauss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95% CI mood_gauss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR is_reactance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95% CI is_reactance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intercept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.26***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.19,  0.35]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.84***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[33.00, 43.33]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.19***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[99.90, 123.80]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 3.46, 3.88]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.34**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.17,   0.65]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Within-Person Effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily individual's experienced persuasion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.39,  1.83]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.98,  1.09]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.00,   1.06]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.04, 0.04]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.68,   1.01]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily partner's experienced persuasion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.19,  1.52]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.99,  1.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.99,   1.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.02, 0.07]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.84,   1.53]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily individual's experienced pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.69,  1.30]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.82,  1.00]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.88,   1.01]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.14, 0.07]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.02,   4.58]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily partner's experienced pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.05,  2.34]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.86,  1.03]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.92,   1.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.15, 0.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.54,   4.37]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily individual's experienced pushing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.71,  1.30]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.92,  1.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.96,   1.07]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.06, 0.07]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.04,   1.76]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily partner's experienced pushing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.05,  1.62]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.90,  1.02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.96,   1.04]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.07*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.00, 0.14]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.61,   1.37]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.64,  1.16]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.88,  1.12]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.91,   1.04]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.15, 0.37]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.77,   3.69]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Own Actionplan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 7.76, 11.57]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.21,  1.45]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.01,   1.12]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.03, 0.18]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.46,   1.62]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partner Actionplan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.96,  1.42]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.99,  1.17]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.00,   1.10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.11, 0.04]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.49,   1.58]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily weartime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.00,   1.00]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Between-Person Effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean individual's experienced persuasion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.72,  3.06]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.74,  1.34]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.84,   1.46]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.23, 0.90]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.51,   7.72]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean partner's experienced persuasion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.69,  2.85]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.71,  1.28]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.74,   1.30]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.34, 0.79]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.47,   9.47]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean individual's experienced pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.39*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.17,  0.88]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.86,  1.69]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.74,   1.32]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.85, 0.25]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.35**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2.64, 404.79]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean partner's experienced pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.21,  1.14]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.66,  1.33]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.74,   1.29]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.87, 0.23]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.11,  19.86]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean individual's experienced pushing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.38,  3.17]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.80,  1.94]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.64,   1.44]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.57, 0.99]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.06,   5.70]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean partner's experienced pushing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.69,  5.73]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.85,  2.11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.82,   1.83]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.41, 1.15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.05*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00,   0.55]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean weartime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random Effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Intercept)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.57, 0.99]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.23, 0.40]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.23, 0.39]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.47, 0.78]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.75, 1.79]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily individual's experienced persuasion)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.03, 0.39]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.07, 0.17]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.02, 0.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.51]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily partner's experienced persuasion)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.34]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.04, 0.13]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.02, 0.09]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.13]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.12, 0.99]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily individual's experienced pressure)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.74]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.23]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.14]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.13, 2.47]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily partner's experienced pressure)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.94]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.18]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.26]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.05, 2.83]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily individual's experienced pushing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.31, 1.01]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.17]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.02, 0.61]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily partner's experienced pushing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.50]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.16]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.99]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional Parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sigma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.65, 0.70]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.56, 0.59]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.94, 0.98]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -787,42 +780,24 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <b/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <i/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -834,28 +809,20 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -868,56 +835,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1199,77 +1130,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="39.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.46484375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.73046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.53125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.1328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.9296875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -1291,7 +1207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1326,7 +1242,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1361,253 +1277,253 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" s="8" t="s">
+    <row r="5">
+      <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" s="6" t="s">
+    <row r="6">
+      <c r="A6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" s="6" t="s">
+    <row r="7">
+      <c r="A7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" s="6" t="s">
+    <row r="8">
+      <c r="A8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="1" t="s">
         <v>56</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="5" t="s">
         <v>58</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9" s="6" t="s">
+    <row r="9">
+      <c r="A9" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="1" t="s">
         <v>64</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="1" t="s">
         <v>56</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A10" s="6" t="s">
+    <row r="10">
+      <c r="A10" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="1" t="s">
         <v>71</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="1" t="s">
         <v>73</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="1" t="s">
         <v>75</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="5" t="s">
         <v>77</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A11" s="6" t="s">
+    <row r="11">
+      <c r="A11" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="5" t="s">
         <v>80</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="5" t="s">
         <v>85</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="1" t="s">
         <v>87</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12" s="6" t="s">
+    <row r="12">
+      <c r="A12" s="7" t="s">
         <v>89</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1641,8 +1557,8 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" s="6" t="s">
+    <row r="13">
+      <c r="A13" s="7" t="s">
         <v>98</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1676,8 +1592,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14" s="6" t="s">
+    <row r="14">
+      <c r="A14" s="7" t="s">
         <v>109</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1711,8 +1627,8 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A15" s="6" t="s">
+    <row r="15">
+      <c r="A15" s="7" t="s">
         <v>119</v>
       </c>
       <c r="B15" s="1"/>
@@ -1730,43 +1646,43 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A16" s="8" t="s">
+    <row r="16">
+      <c r="A16" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J16" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K16" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A17" s="6" t="s">
+    <row r="17">
+      <c r="A17" s="7" t="s">
         <v>123</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1800,8 +1716,8 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A18" s="6" t="s">
+    <row r="18">
+      <c r="A18" s="7" t="s">
         <v>133</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1835,8 +1751,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A19" s="6" t="s">
+    <row r="19">
+      <c r="A19" s="7" t="s">
         <v>142</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -1870,8 +1786,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A20" s="6" t="s">
+    <row r="20">
+      <c r="A20" s="7" t="s">
         <v>152</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1905,8 +1821,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A21" s="6" t="s">
+    <row r="21">
+      <c r="A21" s="7" t="s">
         <v>162</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1940,8 +1856,8 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A22" s="6" t="s">
+    <row r="22">
+      <c r="A22" s="7" t="s">
         <v>171</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1975,8 +1891,8 @@
         <v>181</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A23" s="6" t="s">
+    <row r="23">
+      <c r="A23" s="7" t="s">
         <v>182</v>
       </c>
       <c r="B23" s="1"/>
@@ -1994,43 +1910,43 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A24" s="8" t="s">
+    <row r="24">
+      <c r="A24" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="I24" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="J24" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="K24" s="9" t="s">
+      <c r="K24" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A25" s="6" t="s">
+    <row r="25">
+      <c r="A25" s="7" t="s">
         <v>184</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2064,8 +1980,8 @@
         <v>194</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A26" s="6" t="s">
+    <row r="26">
+      <c r="A26" s="7" t="s">
         <v>195</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2099,8 +2015,8 @@
         <v>204</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A27" s="6" t="s">
+    <row r="27">
+      <c r="A27" s="7" t="s">
         <v>205</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2134,8 +2050,8 @@
         <v>213</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A28" s="6" t="s">
+    <row r="28">
+      <c r="A28" s="7" t="s">
         <v>214</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -2169,8 +2085,8 @@
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A29" s="6" t="s">
+    <row r="29">
+      <c r="A29" s="7" t="s">
         <v>219</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2204,8 +2120,8 @@
         <v>227</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A30" s="6" t="s">
+    <row r="30">
+      <c r="A30" s="7" t="s">
         <v>228</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2239,8 +2155,8 @@
         <v>235</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A31" s="6" t="s">
+    <row r="31">
+      <c r="A31" s="7" t="s">
         <v>236</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -2274,43 +2190,43 @@
         <v>241</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A32" s="8" t="s">
+    <row r="32">
+      <c r="A32" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H32" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="I32" s="9" t="s">
+      <c r="I32" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="J32" s="9" t="s">
+      <c r="J32" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="K32" s="9" t="s">
+      <c r="K32" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A33" s="7" t="s">
+    <row r="33">
+      <c r="A33" s="8" t="s">
         <v>243</v>
       </c>
       <c r="B33" s="4"/>
@@ -2336,38 +2252,38 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A34" s="6"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A35" s="6"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A36" s="6"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A37" s="6"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A38" s="6"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A39" s="6"/>
+    <row r="34">
+      <c r="A34" s="7"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="7"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="7"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="7"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="7"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A32:K32"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A32:K32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Output/AllModels_final_with_plan_12000.xlsx
+++ b/Output/AllModels_final_with_plan_12000.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="256">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -68,34 +68,34 @@
     <t xml:space="preserve">Intercept</t>
   </si>
   <si>
-    <t xml:space="preserve">0.26***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.19,  0.35]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.84***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[33.00, 43.33]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.19***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[99.90, 123.80]</t>
+    <t xml:space="preserve">0.21***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.15,  0.30]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.17***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[29.76, 41.52]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110.43***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[99.31, 123.00]</t>
   </si>
   <si>
     <t xml:space="preserve">3.67***</t>
   </si>
   <si>
-    <t xml:space="preserve">[ 3.46, 3.88]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.17,   0.65]</t>
+    <t xml:space="preserve">[ 3.45, 3.87]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.37**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.19,   0.72]</t>
   </si>
   <si>
     <t xml:space="preserve">Within-Person Effects</t>
@@ -107,7 +107,7 @@
     <t xml:space="preserve">1.58***</t>
   </si>
   <si>
-    <t xml:space="preserve">[ 1.39,  1.83]</t>
+    <t xml:space="preserve">[ 1.37,  1.84]</t>
   </si>
   <si>
     <t xml:space="preserve">1.03</t>
@@ -128,7 +128,7 @@
     <t xml:space="preserve">0.84</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.68,   1.01]</t>
+    <t xml:space="preserve">[0.68,   1.02]</t>
   </si>
   <si>
     <t xml:space="preserve">Daily partner's experienced persuasion</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">1.34***</t>
   </si>
   <si>
-    <t xml:space="preserve">[ 1.19,  1.52]</t>
+    <t xml:space="preserve">[ 1.18,  1.53]</t>
   </si>
   <si>
     <t xml:space="preserve">[ 0.99,  1.08]</t>
@@ -146,598 +146,619 @@
     <t xml:space="preserve">1.02</t>
   </si>
   <si>
-    <t xml:space="preserve">[ 0.99,   1.05]</t>
+    <t xml:space="preserve">[ 0.98,   1.05]</t>
   </si>
   <si>
     <t xml:space="preserve">0.02</t>
   </si>
   <si>
-    <t xml:space="preserve">[-0.02, 0.07]</t>
+    <t xml:space="preserve">[-0.03, 0.07]</t>
   </si>
   <si>
     <t xml:space="preserve">1.12</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.84,   1.53]</t>
+    <t xml:space="preserve">[0.83,   1.57]</t>
   </si>
   <si>
     <t xml:space="preserve">Daily individual's experienced pressure</t>
   </si>
   <si>
+    <t xml:space="preserve">0.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.69,  1.36]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.90*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.80,  0.99]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.88,   1.01]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.14, 0.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.04,   4.77]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily partner's experienced pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.04,  2.67]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.86,  1.03]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.92,   1.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.13, 0.10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.55,   4.90]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily individual's experienced pushing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.76,  1.37]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.93,  1.06]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.96,   1.07]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.06, 0.07]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.03,   1.77]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily partner's experienced pushing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.07,  1.72]</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.96</t>
   </si>
   <si>
-    <t xml:space="preserve">[ 0.69,  1.30]</t>
+    <t xml:space="preserve">[ 0.90,  1.02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.96,   1.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.07*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.00, 0.14]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.58,   1.35]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.60,  1.09]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.87,  1.11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.91,   1.04]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.14, 0.36]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.77,   3.81]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Own Actionplan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.50***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 8.57, 12.90]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.21,  1.47]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.02,   1.12]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.04, 0.19]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.45,   1.63]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partner Actionplan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.95,  1.43]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.98,  1.17]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.00,   1.10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.11, 0.04]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.48,   1.56]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily weartime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.00,   1.00]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Between-Person Effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean individual's experienced persuasion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.65,  3.02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.70,  1.30]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.83,   1.47]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.20, 0.90]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.47,   7.74]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean partner's experienced persuasion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.61,  2.80]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.66,  1.22]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.74,   1.32]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.33, 0.77]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.48,  10.26]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean individual's experienced pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.05,  0.49]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.36,  1.63]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.73,   1.30]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.83, 0.24]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.42**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[3.20, 583.15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean partner's experienced pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.08,  0.72]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.26,  1.20]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.73,   1.28]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.85, 0.22]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.09,  20.83]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean individual's experienced pushing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.45,  4.62]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.87,  2.62]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.64,   1.45]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.59, 0.95]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.05,   5.49]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean partner's experienced pushing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.81,  8.39]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.00,  3.04]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.81,   1.83]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.43, 1.11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.06*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00,   0.67]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean weartime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random Effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Intercept)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.62, 1.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.23, 0.40]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.23, 0.39]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.48, 0.78]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.78, 1.86]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily individual's experienced persuasion)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.04, 0.41]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.07, 0.16]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.02, 0.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.02, 0.55]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily partner's experienced persuasion)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.35]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.04, 0.13]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.03, 0.09]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.13]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.12, 1.03]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily individual's experienced pressure)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.77]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.23]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.13]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.24]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.12, 2.46]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily partner's experienced pressure)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.02, 1.21]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.18]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.26]</t>
   </si>
   <si>
     <t xml:space="preserve">0.91</t>
   </si>
   <si>
-    <t xml:space="preserve">[ 0.82,  1.00]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.88,   1.01]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.14, 0.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.02,   4.58]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily partner's experienced pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.05,  2.34]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.86,  1.03]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.92,   1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.15, 0.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.54,   4.37]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily individual's experienced pushing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.71,  1.30]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.92,  1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.96,   1.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.06, 0.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.04,   1.76]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily partner's experienced pushing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.05,  1.62]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.90,  1.02]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.96,   1.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.07*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.00, 0.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.61,   1.37]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.64,  1.16]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.88,  1.12]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.91,   1.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.15, 0.37]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.77,   3.69]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Own Actionplan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 7.76, 11.57]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.21,  1.45]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.01,   1.12]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.10**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.03, 0.18]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.46,   1.62]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partner Actionplan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.96,  1.42]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.99,  1.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.00,   1.10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.11, 0.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.49,   1.58]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily weartime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.00,   1.00]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Between-Person Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean individual's experienced persuasion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.72,  3.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.74,  1.34]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.84,   1.46]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.23, 0.90]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.51,   7.72]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean partner's experienced persuasion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.69,  2.85]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.71,  1.28]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.74,   1.30]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.34, 0.79]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.47,   9.47]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean individual's experienced pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.39*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.17,  0.88]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.86,  1.69]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.74,   1.32]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.85, 0.25]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.35**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[2.64, 404.79]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean partner's experienced pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.21,  1.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.66,  1.33]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.74,   1.29]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.87, 0.23]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.11,  19.86]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean individual's experienced pushing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.38,  3.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.80,  1.94]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.64,   1.44]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.57, 0.99]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.06,   5.70]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean partner's experienced pushing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.69,  5.73]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.85,  2.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.82,   1.83]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.41, 1.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.05*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00,   0.55]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean weartime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Random Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Intercept)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.57, 0.99]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.23, 0.40]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.23, 0.39]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.47, 0.78]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.75, 1.79]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily individual's experienced persuasion)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.03, 0.39]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.07, 0.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.51]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily partner's experienced persuasion)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.34]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.04, 0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.12, 0.99]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily individual's experienced pressure)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.74]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.23]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.13, 2.47]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily partner's experienced pressure)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.94]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.18]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.26]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.05, 2.83]</t>
+    <t xml:space="preserve">[0.05, 2.91]</t>
   </si>
   <si>
     <t xml:space="preserve">sd(Daily individual's experienced pushing)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.31, 1.01]</t>
+    <t xml:space="preserve">[0.20, 0.93]</t>
   </si>
   <si>
     <t xml:space="preserve">0.09</t>
   </si>
   <si>
+    <t xml:space="preserve">[0.02, 0.17]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.16]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.02, 0.64]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily partner's experienced pushing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.57]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.09]</t>
+  </si>
+  <si>
     <t xml:space="preserve">[0.01, 0.17]</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.01, 0.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.61]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily partner's experienced pushing)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.50]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.16]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.99]</t>
+    <t xml:space="preserve">0.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 1.03]</t>
   </si>
   <si>
     <t xml:space="preserve">Additional Parameters</t>
@@ -1392,7 +1413,7 @@
       <c r="C8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>52</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1428,218 +1449,218 @@
         <v>62</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>65</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="K14" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1648,262 +1669,262 @@
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>177</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1912,342 +1933,342 @@
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>185</v>
+        <v>92</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>189</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>153</v>
+        <v>216</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="E28" s="1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>127</v>
+        <v>224</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>90</v>
+        <v>233</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>237</v>
+        <v>141</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>203</v>
+        <v>245</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="8" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>

--- a/Output/AllModels_final_with_plan_12000.xlsx
+++ b/Output/AllModels_final_with_plan_12000.xlsx
@@ -1,793 +1,800 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pascku\Repos\02TimeAndTiesControl\Output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F2E034-EC03-406B-A714-FE8DCAF55D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-22510" yWindow="760" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="256">
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Subjective MVPA Hurdle Lognormal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Device-Based MVPA Log (Gaussian)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mood Gaussian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reactance Dichotome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hurdle Component</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-Zero Component</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp(Est.)_hu pa_sub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95% CI_hu pa_sub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp(Est.)_nonzero pa_sub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95% CI_nonzero pa_sub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp(Est.) pa_obj_log</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95% CI pa_obj_log</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Est. mood_gauss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95% CI mood_gauss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OR is_reactance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95% CI is_reactance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intercept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.15,  0.30]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.17***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[29.76, 41.52]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110.43***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[99.31, 123.00]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 3.45, 3.87]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.37**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.19,   0.72]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Within-Person Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily individual's experienced persuasion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.37,  1.84]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.98,  1.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.00,   1.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.04, 0.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.68,   1.02]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily partner's experienced persuasion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.18,  1.53]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.99,  1.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.98,   1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.03, 0.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.83,   1.57]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily individual's experienced pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.69,  1.36]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.90*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.80,  0.99]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.88,   1.01]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.14, 0.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.04,   4.77]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily partner's experienced pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.04,  2.67]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.86,  1.03]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.92,   1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.13, 0.10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.55,   4.90]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily individual's experienced pushing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.76,  1.37]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.93,  1.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.96,   1.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.06, 0.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.03,   1.77]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily partner's experienced pushing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.07,  1.72]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.90,  1.02]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.96,   1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.07*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.00, 0.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.58,   1.35]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.60,  1.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.87,  1.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.91,   1.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.14, 0.36]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.77,   3.81]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Own Actionplan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.50***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 8.57, 12.90]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.21,  1.47]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.02,   1.12]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.04, 0.19]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.45,   1.63]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partner Actionplan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.95,  1.43]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.98,  1.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.00,   1.10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.11, 0.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.48,   1.56]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily weartime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.00,   1.00]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Between-Person Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean individual's experienced persuasion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.65,  3.02]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.70,  1.30]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.83,   1.47]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.20, 0.90]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.47,   7.74]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean partner's experienced persuasion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.61,  2.80]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.66,  1.22]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.74,   1.32]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.33, 0.77]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.48,  10.26]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean individual's experienced pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.05,  0.49]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.36,  1.63]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.73,   1.30]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.83, 0.24]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.42**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[3.20, 583.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean partner's experienced pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.08,  0.72]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.26,  1.20]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.73,   1.28]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.85, 0.22]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.09,  20.83]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean individual's experienced pushing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.45,  4.62]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.87,  2.62]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.64,   1.45]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.59, 0.95]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.05,   5.49]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean partner's experienced pushing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.81,  8.39]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.00,  3.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.81,   1.83]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.43, 1.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.06*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00,   0.67]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean weartime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Random Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Intercept)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.62, 1.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.23, 0.40]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.23, 0.39]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.48, 0.78]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.78, 1.86]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily individual's experienced persuasion)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.04, 0.41]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.07, 0.16]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.55]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily partner's experienced persuasion)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.35]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.04, 0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.03, 0.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.12, 1.03]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily individual's experienced pressure)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.77]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.23]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.24]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.12, 2.46]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily partner's experienced pressure)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 1.21]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.18]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.26]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.05, 2.91]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily individual's experienced pushing)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.20, 0.93]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.16]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.64]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily partner's experienced pushing)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.57]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 1.03]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Additional Parameters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sigma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.65, 0.70]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.56, 0.59]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.94, 0.98]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="256">
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Subjective MVPA Hurdle Lognormal</t>
+  </si>
+  <si>
+    <t>Device-Based MVPA Log (Gaussian)</t>
+  </si>
+  <si>
+    <t>Mood Gaussian</t>
+  </si>
+  <si>
+    <t>Reactance Dichotome</t>
+  </si>
+  <si>
+    <t>Hurdle Component</t>
+  </si>
+  <si>
+    <t>Non-Zero Component</t>
+  </si>
+  <si>
+    <t>exp(Est.)_hu pa_sub</t>
+  </si>
+  <si>
+    <t>95% CI_hu pa_sub</t>
+  </si>
+  <si>
+    <t>exp(Est.)_nonzero pa_sub</t>
+  </si>
+  <si>
+    <t>95% CI_nonzero pa_sub</t>
+  </si>
+  <si>
+    <t>exp(Est.) pa_obj_log</t>
+  </si>
+  <si>
+    <t>95% CI pa_obj_log</t>
+  </si>
+  <si>
+    <t>Est. mood_gauss</t>
+  </si>
+  <si>
+    <t>95% CI mood_gauss</t>
+  </si>
+  <si>
+    <t>OR is_reactance</t>
+  </si>
+  <si>
+    <t>95% CI is_reactance</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>0.21***</t>
+  </si>
+  <si>
+    <t>[ 0.15,  0.30]</t>
+  </si>
+  <si>
+    <t>35.17***</t>
+  </si>
+  <si>
+    <t>[29.76, 41.52]</t>
+  </si>
+  <si>
+    <t>110.43***</t>
+  </si>
+  <si>
+    <t>[99.31, 123.00]</t>
+  </si>
+  <si>
+    <t>3.67***</t>
+  </si>
+  <si>
+    <t>[ 3.45, 3.87]</t>
+  </si>
+  <si>
+    <t>0.37**</t>
+  </si>
+  <si>
+    <t>[0.19,   0.72]</t>
+  </si>
+  <si>
+    <t>Within-Person Effects</t>
+  </si>
+  <si>
+    <t>Daily individual's experienced persuasion</t>
+  </si>
+  <si>
+    <t>1.58***</t>
+  </si>
+  <si>
+    <t>[ 1.37,  1.84]</t>
+  </si>
+  <si>
+    <t>1.03</t>
+  </si>
+  <si>
+    <t>[ 0.98,  1.09]</t>
+  </si>
+  <si>
+    <t>[ 1.00,   1.06]</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>[-0.04, 0.04]</t>
+  </si>
+  <si>
+    <t>0.84</t>
+  </si>
+  <si>
+    <t>[0.68,   1.02]</t>
+  </si>
+  <si>
+    <t>Daily partner's experienced persuasion</t>
+  </si>
+  <si>
+    <t>1.34***</t>
+  </si>
+  <si>
+    <t>[ 1.18,  1.53]</t>
+  </si>
+  <si>
+    <t>[ 0.99,  1.08]</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>[ 0.98,   1.05]</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>[-0.03, 0.07]</t>
+  </si>
+  <si>
+    <t>1.12</t>
+  </si>
+  <si>
+    <t>[0.83,   1.57]</t>
+  </si>
+  <si>
+    <t>Daily individual's experienced pressure</t>
+  </si>
+  <si>
+    <t>0.98</t>
+  </si>
+  <si>
+    <t>[ 0.69,  1.36]</t>
+  </si>
+  <si>
+    <t>0.90*</t>
+  </si>
+  <si>
+    <t>[ 0.80,  0.99]</t>
+  </si>
+  <si>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>[ 0.88,   1.01]</t>
+  </si>
+  <si>
+    <t>-0.02</t>
+  </si>
+  <si>
+    <t>[-0.14, 0.08]</t>
+  </si>
+  <si>
+    <t>2.02*</t>
+  </si>
+  <si>
+    <t>[1.04,   4.77]</t>
+  </si>
+  <si>
+    <t>Daily partner's experienced pressure</t>
+  </si>
+  <si>
+    <t>1.55*</t>
+  </si>
+  <si>
+    <t>[ 1.04,  2.67]</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>[ 0.86,  1.03]</t>
+  </si>
+  <si>
+    <t>[ 0.92,   1.05]</t>
+  </si>
+  <si>
+    <t>-0.01</t>
+  </si>
+  <si>
+    <t>[-0.13, 0.10]</t>
+  </si>
+  <si>
+    <t>1.47</t>
+  </si>
+  <si>
+    <t>[0.55,   4.90]</t>
+  </si>
+  <si>
+    <t>Daily individual's experienced pushing</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>[ 0.76,  1.37]</t>
+  </si>
+  <si>
+    <t>0.99</t>
+  </si>
+  <si>
+    <t>[ 0.93,  1.06]</t>
+  </si>
+  <si>
+    <t>[ 0.96,   1.07]</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>[-0.06, 0.07]</t>
+  </si>
+  <si>
+    <t>1.33*</t>
+  </si>
+  <si>
+    <t>[1.03,   1.77]</t>
+  </si>
+  <si>
+    <t>Daily partner's experienced pushing</t>
+  </si>
+  <si>
+    <t>1.34**</t>
+  </si>
+  <si>
+    <t>[ 1.07,  1.72]</t>
+  </si>
+  <si>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>[ 0.90,  1.02]</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>[ 0.96,   1.05]</t>
+  </si>
+  <si>
+    <t>0.07*</t>
+  </si>
+  <si>
+    <t>[ 0.00, 0.14]</t>
+  </si>
+  <si>
+    <t>0.89</t>
+  </si>
+  <si>
+    <t>[0.58,   1.35]</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>0.81</t>
+  </si>
+  <si>
+    <t>[ 0.60,  1.09]</t>
+  </si>
+  <si>
+    <t>[ 0.87,  1.11]</t>
+  </si>
+  <si>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>[ 0.91,   1.04]</t>
+  </si>
+  <si>
+    <t>0.25***</t>
+  </si>
+  <si>
+    <t>[ 0.14, 0.36]</t>
+  </si>
+  <si>
+    <t>1.71</t>
+  </si>
+  <si>
+    <t>[0.77,   3.81]</t>
+  </si>
+  <si>
+    <t>Own Actionplan</t>
+  </si>
+  <si>
+    <t>10.50***</t>
+  </si>
+  <si>
+    <t>[ 8.57, 12.90]</t>
+  </si>
+  <si>
+    <t>[ 1.21,  1.47]</t>
+  </si>
+  <si>
+    <t>1.07**</t>
+  </si>
+  <si>
+    <t>[ 1.02,   1.12]</t>
+  </si>
+  <si>
+    <t>0.11**</t>
+  </si>
+  <si>
+    <t>[ 0.04, 0.19]</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>[0.45,   1.63]</t>
+  </si>
+  <si>
+    <t>Partner Actionplan</t>
+  </si>
+  <si>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t>[ 0.95,  1.43]</t>
+  </si>
+  <si>
+    <t>1.07</t>
+  </si>
+  <si>
+    <t>[ 0.98,  1.17]</t>
+  </si>
+  <si>
+    <t>1.05</t>
+  </si>
+  <si>
+    <t>[ 1.00,   1.10]</t>
+  </si>
+  <si>
+    <t>-0.04</t>
+  </si>
+  <si>
+    <t>[-0.11, 0.04]</t>
+  </si>
+  <si>
+    <t>[0.48,   1.56]</t>
+  </si>
+  <si>
+    <t>Daily weartime</t>
+  </si>
+  <si>
+    <t>1.00***</t>
+  </si>
+  <si>
+    <t>[ 1.00,   1.00]</t>
+  </si>
+  <si>
+    <t>Between-Person Effects</t>
+  </si>
+  <si>
+    <t>Mean individual's experienced persuasion</t>
+  </si>
+  <si>
+    <t>1.41</t>
+  </si>
+  <si>
+    <t>[ 0.65,  3.02]</t>
+  </si>
+  <si>
+    <t>[ 0.70,  1.30]</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>[ 0.83,   1.47]</t>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>[-0.20, 0.90]</t>
+  </si>
+  <si>
+    <t>1.82</t>
+  </si>
+  <si>
+    <t>[0.47,   7.74]</t>
+  </si>
+  <si>
+    <t>Mean partner's experienced persuasion</t>
+  </si>
+  <si>
+    <t>1.32</t>
+  </si>
+  <si>
+    <t>[ 0.61,  2.80]</t>
+  </si>
+  <si>
+    <t>0.90</t>
+  </si>
+  <si>
+    <t>[ 0.66,  1.22]</t>
+  </si>
+  <si>
+    <t>[ 0.74,   1.32]</t>
+  </si>
+  <si>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>[-0.33, 0.77]</t>
+  </si>
+  <si>
+    <t>2.08</t>
+  </si>
+  <si>
+    <t>[0.48,  10.26]</t>
+  </si>
+  <si>
+    <t>Mean individual's experienced pressure</t>
+  </si>
+  <si>
+    <t>0.17***</t>
+  </si>
+  <si>
+    <t>[ 0.05,  0.49]</t>
+  </si>
+  <si>
+    <t>0.76</t>
+  </si>
+  <si>
+    <t>[ 0.36,  1.63]</t>
+  </si>
+  <si>
+    <t>[ 0.73,   1.30]</t>
+  </si>
+  <si>
+    <t>-0.30</t>
+  </si>
+  <si>
+    <t>[-0.83, 0.24]</t>
+  </si>
+  <si>
+    <t>34.42**</t>
+  </si>
+  <si>
+    <t>[3.20, 583.15]</t>
+  </si>
+  <si>
+    <t>Mean partner's experienced pressure</t>
+  </si>
+  <si>
+    <t>0.25**</t>
+  </si>
+  <si>
+    <t>[ 0.08,  0.72]</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>[ 0.26,  1.20]</t>
+  </si>
+  <si>
+    <t>[ 0.73,   1.28]</t>
+  </si>
+  <si>
+    <t>-0.32</t>
+  </si>
+  <si>
+    <t>[-0.85, 0.22]</t>
+  </si>
+  <si>
+    <t>1.64</t>
+  </si>
+  <si>
+    <t>[0.09,  20.83]</t>
+  </si>
+  <si>
+    <t>Mean individual's experienced pushing</t>
+  </si>
+  <si>
+    <t>1.42</t>
+  </si>
+  <si>
+    <t>[ 0.45,  4.62]</t>
+  </si>
+  <si>
+    <t>1.51</t>
+  </si>
+  <si>
+    <t>[ 0.87,  2.62]</t>
+  </si>
+  <si>
+    <t>[ 0.64,   1.45]</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>[-0.59, 0.95]</t>
+  </si>
+  <si>
+    <t>[0.05,   5.49]</t>
+  </si>
+  <si>
+    <t>Mean partner's experienced pushing</t>
+  </si>
+  <si>
+    <t>2.58</t>
+  </si>
+  <si>
+    <t>[ 0.81,  8.39]</t>
+  </si>
+  <si>
+    <t>1.75*</t>
+  </si>
+  <si>
+    <t>[ 1.00,  3.04]</t>
+  </si>
+  <si>
+    <t>1.21</t>
+  </si>
+  <si>
+    <t>[ 0.81,   1.83]</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>[-0.43, 1.11]</t>
+  </si>
+  <si>
+    <t>0.06*</t>
+  </si>
+  <si>
+    <t>[0.00,   0.67]</t>
+  </si>
+  <si>
+    <t>Mean weartime</t>
+  </si>
+  <si>
+    <t>Random Effects</t>
+  </si>
+  <si>
+    <t>sd(Intercept)</t>
+  </si>
+  <si>
+    <t>[0.62, 1.08]</t>
+  </si>
+  <si>
+    <t>0.30</t>
+  </si>
+  <si>
+    <t>[0.23, 0.40]</t>
+  </si>
+  <si>
+    <t>[0.23, 0.39]</t>
+  </si>
+  <si>
+    <t>0.60</t>
+  </si>
+  <si>
+    <t>[0.48, 0.78]</t>
+  </si>
+  <si>
+    <t>1.22</t>
+  </si>
+  <si>
+    <t>[0.78, 1.86]</t>
+  </si>
+  <si>
+    <t>sd(Daily individual's experienced persuasion)</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>[0.04, 0.41]</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>[0.07, 0.16]</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>[0.02, 0.08]</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>[0.00, 0.10]</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>[0.02, 0.55]</t>
+  </si>
+  <si>
+    <t>sd(Daily partner's experienced persuasion)</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>[0.01, 0.35]</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>[0.04, 0.13]</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>[0.03, 0.09]</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>[0.01, 0.13]</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>[0.12, 1.03]</t>
+  </si>
+  <si>
+    <t>sd(Daily individual's experienced pressure)</t>
+  </si>
+  <si>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>[0.01, 0.77]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.23]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.13]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.24]</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>[0.12, 2.46]</t>
+  </si>
+  <si>
+    <t>sd(Daily partner's experienced pressure)</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>[0.02, 1.21]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.18]</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>[0.00, 0.11]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.26]</t>
+  </si>
+  <si>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t>[0.05, 2.91]</t>
+  </si>
+  <si>
+    <t>sd(Daily individual's experienced pushing)</t>
+  </si>
+  <si>
+    <t>[0.20, 0.93]</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>[0.02, 0.17]</t>
+  </si>
+  <si>
+    <t>[0.01, 0.16]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.15]</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>[0.02, 0.64]</t>
+  </si>
+  <si>
+    <t>sd(Daily partner's experienced pushing)</t>
+  </si>
+  <si>
+    <t>[0.01, 0.57]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.09]</t>
+  </si>
+  <si>
+    <t>[0.01, 0.17]</t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>[0.01, 1.03]</t>
+  </si>
+  <si>
+    <t>Additional Parameters</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>[0.65, 0.70]</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>[0.56, 0.59]</t>
+  </si>
+  <si>
+    <t>[0.94, 0.98]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -801,16 +808,16 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <b/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <i/>
     </font>
   </fonts>
   <fills count="2">
@@ -830,20 +837,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -856,20 +871,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1151,62 +1184,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="39.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.53125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.9296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -1228,7 +1276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1263,7 +1311,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1298,43 +1346,43 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1368,8 +1416,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1403,8 +1451,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1438,8 +1486,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1473,8 +1521,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" s="6" t="s">
         <v>70</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1508,8 +1556,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" s="6" t="s">
         <v>80</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1543,8 +1591,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" s="6" t="s">
         <v>91</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1578,8 +1626,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13" s="6" t="s">
         <v>101</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1613,8 +1661,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14" s="6" t="s">
         <v>111</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1648,8 +1696,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15" s="6" t="s">
         <v>121</v>
       </c>
       <c r="B15" s="1"/>
@@ -1667,43 +1715,43 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A16" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K16" s="11" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A17" s="6" t="s">
         <v>125</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1737,8 +1785,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A18" s="6" t="s">
         <v>135</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1772,8 +1820,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A19" s="6" t="s">
         <v>145</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -1807,8 +1855,8 @@
         <v>154</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A20" s="6" t="s">
         <v>155</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1842,8 +1890,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A21" s="6" t="s">
         <v>165</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1877,8 +1925,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A22" s="6" t="s">
         <v>174</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1912,8 +1960,8 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A23" s="6" t="s">
         <v>185</v>
       </c>
       <c r="B23" s="1"/>
@@ -1931,43 +1979,43 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A24" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="K24" s="11" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A25" s="6" t="s">
         <v>187</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2001,8 +2049,8 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A26" s="6" t="s">
         <v>196</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2036,8 +2084,8 @@
         <v>206</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="7" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A27" s="6" t="s">
         <v>207</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2071,8 +2119,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A28" s="6" t="s">
         <v>218</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -2106,8 +2154,8 @@
         <v>225</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A29" s="6" t="s">
         <v>226</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2141,8 +2189,8 @@
         <v>234</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="7" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A30" s="6" t="s">
         <v>235</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2176,8 +2224,8 @@
         <v>242</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="7" t="s">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A31" s="6" t="s">
         <v>243</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -2211,43 +2259,43 @@
         <v>248</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="6" t="s">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A32" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H32" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I32" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="J32" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="K32" s="11" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="8" t="s">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A33" s="7" t="s">
         <v>250</v>
       </c>
       <c r="B33" s="4"/>
@@ -2273,38 +2321,38 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34">
-      <c r="A34" s="7"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="7"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="7"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="7"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="7"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="7"/>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A34" s="6"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A35" s="6"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A36" s="6"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A37" s="6"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A38" s="6"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A39" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A32:K32"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A32:K32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Output/AllModels_final_with_plan_12000.xlsx
+++ b/Output/AllModels_final_with_plan_12000.xlsx
@@ -1,800 +1,793 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pascku\Repos\02TimeAndTiesControl\Output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F2E034-EC03-406B-A714-FE8DCAF55D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-22510" yWindow="760" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="256">
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Subjective MVPA Hurdle Lognormal</t>
-  </si>
-  <si>
-    <t>Device-Based MVPA Log (Gaussian)</t>
-  </si>
-  <si>
-    <t>Mood Gaussian</t>
-  </si>
-  <si>
-    <t>Reactance Dichotome</t>
-  </si>
-  <si>
-    <t>Hurdle Component</t>
-  </si>
-  <si>
-    <t>Non-Zero Component</t>
-  </si>
-  <si>
-    <t>exp(Est.)_hu pa_sub</t>
-  </si>
-  <si>
-    <t>95% CI_hu pa_sub</t>
-  </si>
-  <si>
-    <t>exp(Est.)_nonzero pa_sub</t>
-  </si>
-  <si>
-    <t>95% CI_nonzero pa_sub</t>
-  </si>
-  <si>
-    <t>exp(Est.) pa_obj_log</t>
-  </si>
-  <si>
-    <t>95% CI pa_obj_log</t>
-  </si>
-  <si>
-    <t>Est. mood_gauss</t>
-  </si>
-  <si>
-    <t>95% CI mood_gauss</t>
-  </si>
-  <si>
-    <t>OR is_reactance</t>
-  </si>
-  <si>
-    <t>95% CI is_reactance</t>
-  </si>
-  <si>
-    <t>Intercept</t>
-  </si>
-  <si>
-    <t>0.21***</t>
-  </si>
-  <si>
-    <t>[ 0.15,  0.30]</t>
-  </si>
-  <si>
-    <t>35.17***</t>
-  </si>
-  <si>
-    <t>[29.76, 41.52]</t>
-  </si>
-  <si>
-    <t>110.43***</t>
-  </si>
-  <si>
-    <t>[99.31, 123.00]</t>
-  </si>
-  <si>
-    <t>3.67***</t>
-  </si>
-  <si>
-    <t>[ 3.45, 3.87]</t>
-  </si>
-  <si>
-    <t>0.37**</t>
-  </si>
-  <si>
-    <t>[0.19,   0.72]</t>
-  </si>
-  <si>
-    <t>Within-Person Effects</t>
-  </si>
-  <si>
-    <t>Daily individual's experienced persuasion</t>
-  </si>
-  <si>
-    <t>1.58***</t>
-  </si>
-  <si>
-    <t>[ 1.37,  1.84]</t>
-  </si>
-  <si>
-    <t>1.03</t>
-  </si>
-  <si>
-    <t>[ 0.98,  1.09]</t>
-  </si>
-  <si>
-    <t>[ 1.00,   1.06]</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>[-0.04, 0.04]</t>
-  </si>
-  <si>
-    <t>0.84</t>
-  </si>
-  <si>
-    <t>[0.68,   1.02]</t>
-  </si>
-  <si>
-    <t>Daily partner's experienced persuasion</t>
-  </si>
-  <si>
-    <t>1.34***</t>
-  </si>
-  <si>
-    <t>[ 1.18,  1.53]</t>
-  </si>
-  <si>
-    <t>[ 0.99,  1.08]</t>
-  </si>
-  <si>
-    <t>1.02</t>
-  </si>
-  <si>
-    <t>[ 0.98,   1.05]</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>[-0.03, 0.07]</t>
-  </si>
-  <si>
-    <t>1.12</t>
-  </si>
-  <si>
-    <t>[0.83,   1.57]</t>
-  </si>
-  <si>
-    <t>Daily individual's experienced pressure</t>
-  </si>
-  <si>
-    <t>0.98</t>
-  </si>
-  <si>
-    <t>[ 0.69,  1.36]</t>
-  </si>
-  <si>
-    <t>0.90*</t>
-  </si>
-  <si>
-    <t>[ 0.80,  0.99]</t>
-  </si>
-  <si>
-    <t>0.94</t>
-  </si>
-  <si>
-    <t>[ 0.88,   1.01]</t>
-  </si>
-  <si>
-    <t>-0.02</t>
-  </si>
-  <si>
-    <t>[-0.14, 0.08]</t>
-  </si>
-  <si>
-    <t>2.02*</t>
-  </si>
-  <si>
-    <t>[1.04,   4.77]</t>
-  </si>
-  <si>
-    <t>Daily partner's experienced pressure</t>
-  </si>
-  <si>
-    <t>1.55*</t>
-  </si>
-  <si>
-    <t>[ 1.04,  2.67]</t>
-  </si>
-  <si>
-    <t>0.95</t>
-  </si>
-  <si>
-    <t>[ 0.86,  1.03]</t>
-  </si>
-  <si>
-    <t>[ 0.92,   1.05]</t>
-  </si>
-  <si>
-    <t>-0.01</t>
-  </si>
-  <si>
-    <t>[-0.13, 0.10]</t>
-  </si>
-  <si>
-    <t>1.47</t>
-  </si>
-  <si>
-    <t>[0.55,   4.90]</t>
-  </si>
-  <si>
-    <t>Daily individual's experienced pushing</t>
-  </si>
-  <si>
-    <t>1.01</t>
-  </si>
-  <si>
-    <t>[ 0.76,  1.37]</t>
-  </si>
-  <si>
-    <t>0.99</t>
-  </si>
-  <si>
-    <t>[ 0.93,  1.06]</t>
-  </si>
-  <si>
-    <t>[ 0.96,   1.07]</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>[-0.06, 0.07]</t>
-  </si>
-  <si>
-    <t>1.33*</t>
-  </si>
-  <si>
-    <t>[1.03,   1.77]</t>
-  </si>
-  <si>
-    <t>Daily partner's experienced pushing</t>
-  </si>
-  <si>
-    <t>1.34**</t>
-  </si>
-  <si>
-    <t>[ 1.07,  1.72]</t>
-  </si>
-  <si>
-    <t>0.96</t>
-  </si>
-  <si>
-    <t>[ 0.90,  1.02]</t>
-  </si>
-  <si>
-    <t>1.00</t>
-  </si>
-  <si>
-    <t>[ 0.96,   1.05]</t>
-  </si>
-  <si>
-    <t>0.07*</t>
-  </si>
-  <si>
-    <t>[ 0.00, 0.14]</t>
-  </si>
-  <si>
-    <t>0.89</t>
-  </si>
-  <si>
-    <t>[0.58,   1.35]</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>0.81</t>
-  </si>
-  <si>
-    <t>[ 0.60,  1.09]</t>
-  </si>
-  <si>
-    <t>[ 0.87,  1.11]</t>
-  </si>
-  <si>
-    <t>0.97</t>
-  </si>
-  <si>
-    <t>[ 0.91,   1.04]</t>
-  </si>
-  <si>
-    <t>0.25***</t>
-  </si>
-  <si>
-    <t>[ 0.14, 0.36]</t>
-  </si>
-  <si>
-    <t>1.71</t>
-  </si>
-  <si>
-    <t>[0.77,   3.81]</t>
-  </si>
-  <si>
-    <t>Own Actionplan</t>
-  </si>
-  <si>
-    <t>10.50***</t>
-  </si>
-  <si>
-    <t>[ 8.57, 12.90]</t>
-  </si>
-  <si>
-    <t>[ 1.21,  1.47]</t>
-  </si>
-  <si>
-    <t>1.07**</t>
-  </si>
-  <si>
-    <t>[ 1.02,   1.12]</t>
-  </si>
-  <si>
-    <t>0.11**</t>
-  </si>
-  <si>
-    <t>[ 0.04, 0.19]</t>
-  </si>
-  <si>
-    <t>0.86</t>
-  </si>
-  <si>
-    <t>[0.45,   1.63]</t>
-  </si>
-  <si>
-    <t>Partner Actionplan</t>
-  </si>
-  <si>
-    <t>1.17</t>
-  </si>
-  <si>
-    <t>[ 0.95,  1.43]</t>
-  </si>
-  <si>
-    <t>1.07</t>
-  </si>
-  <si>
-    <t>[ 0.98,  1.17]</t>
-  </si>
-  <si>
-    <t>1.05</t>
-  </si>
-  <si>
-    <t>[ 1.00,   1.10]</t>
-  </si>
-  <si>
-    <t>-0.04</t>
-  </si>
-  <si>
-    <t>[-0.11, 0.04]</t>
-  </si>
-  <si>
-    <t>[0.48,   1.56]</t>
-  </si>
-  <si>
-    <t>Daily weartime</t>
-  </si>
-  <si>
-    <t>1.00***</t>
-  </si>
-  <si>
-    <t>[ 1.00,   1.00]</t>
-  </si>
-  <si>
-    <t>Between-Person Effects</t>
-  </si>
-  <si>
-    <t>Mean individual's experienced persuasion</t>
-  </si>
-  <si>
-    <t>1.41</t>
-  </si>
-  <si>
-    <t>[ 0.65,  3.02]</t>
-  </si>
-  <si>
-    <t>[ 0.70,  1.30]</t>
-  </si>
-  <si>
-    <t>1.10</t>
-  </si>
-  <si>
-    <t>[ 0.83,   1.47]</t>
-  </si>
-  <si>
-    <t>0.34</t>
-  </si>
-  <si>
-    <t>[-0.20, 0.90]</t>
-  </si>
-  <si>
-    <t>1.82</t>
-  </si>
-  <si>
-    <t>[0.47,   7.74]</t>
-  </si>
-  <si>
-    <t>Mean partner's experienced persuasion</t>
-  </si>
-  <si>
-    <t>1.32</t>
-  </si>
-  <si>
-    <t>[ 0.61,  2.80]</t>
-  </si>
-  <si>
-    <t>0.90</t>
-  </si>
-  <si>
-    <t>[ 0.66,  1.22]</t>
-  </si>
-  <si>
-    <t>[ 0.74,   1.32]</t>
-  </si>
-  <si>
-    <t>0.21</t>
-  </si>
-  <si>
-    <t>[-0.33, 0.77]</t>
-  </si>
-  <si>
-    <t>2.08</t>
-  </si>
-  <si>
-    <t>[0.48,  10.26]</t>
-  </si>
-  <si>
-    <t>Mean individual's experienced pressure</t>
-  </si>
-  <si>
-    <t>0.17***</t>
-  </si>
-  <si>
-    <t>[ 0.05,  0.49]</t>
-  </si>
-  <si>
-    <t>0.76</t>
-  </si>
-  <si>
-    <t>[ 0.36,  1.63]</t>
-  </si>
-  <si>
-    <t>[ 0.73,   1.30]</t>
-  </si>
-  <si>
-    <t>-0.30</t>
-  </si>
-  <si>
-    <t>[-0.83, 0.24]</t>
-  </si>
-  <si>
-    <t>34.42**</t>
-  </si>
-  <si>
-    <t>[3.20, 583.15]</t>
-  </si>
-  <si>
-    <t>Mean partner's experienced pressure</t>
-  </si>
-  <si>
-    <t>0.25**</t>
-  </si>
-  <si>
-    <t>[ 0.08,  0.72]</t>
-  </si>
-  <si>
-    <t>0.56</t>
-  </si>
-  <si>
-    <t>[ 0.26,  1.20]</t>
-  </si>
-  <si>
-    <t>[ 0.73,   1.28]</t>
-  </si>
-  <si>
-    <t>-0.32</t>
-  </si>
-  <si>
-    <t>[-0.85, 0.22]</t>
-  </si>
-  <si>
-    <t>1.64</t>
-  </si>
-  <si>
-    <t>[0.09,  20.83]</t>
-  </si>
-  <si>
-    <t>Mean individual's experienced pushing</t>
-  </si>
-  <si>
-    <t>1.42</t>
-  </si>
-  <si>
-    <t>[ 0.45,  4.62]</t>
-  </si>
-  <si>
-    <t>1.51</t>
-  </si>
-  <si>
-    <t>[ 0.87,  2.62]</t>
-  </si>
-  <si>
-    <t>[ 0.64,   1.45]</t>
-  </si>
-  <si>
-    <t>0.19</t>
-  </si>
-  <si>
-    <t>[-0.59, 0.95]</t>
-  </si>
-  <si>
-    <t>[0.05,   5.49]</t>
-  </si>
-  <si>
-    <t>Mean partner's experienced pushing</t>
-  </si>
-  <si>
-    <t>2.58</t>
-  </si>
-  <si>
-    <t>[ 0.81,  8.39]</t>
-  </si>
-  <si>
-    <t>1.75*</t>
-  </si>
-  <si>
-    <t>[ 1.00,  3.04]</t>
-  </si>
-  <si>
-    <t>1.21</t>
-  </si>
-  <si>
-    <t>[ 0.81,   1.83]</t>
-  </si>
-  <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>[-0.43, 1.11]</t>
-  </si>
-  <si>
-    <t>0.06*</t>
-  </si>
-  <si>
-    <t>[0.00,   0.67]</t>
-  </si>
-  <si>
-    <t>Mean weartime</t>
-  </si>
-  <si>
-    <t>Random Effects</t>
-  </si>
-  <si>
-    <t>sd(Intercept)</t>
-  </si>
-  <si>
-    <t>[0.62, 1.08]</t>
-  </si>
-  <si>
-    <t>0.30</t>
-  </si>
-  <si>
-    <t>[0.23, 0.40]</t>
-  </si>
-  <si>
-    <t>[0.23, 0.39]</t>
-  </si>
-  <si>
-    <t>0.60</t>
-  </si>
-  <si>
-    <t>[0.48, 0.78]</t>
-  </si>
-  <si>
-    <t>1.22</t>
-  </si>
-  <si>
-    <t>[0.78, 1.86]</t>
-  </si>
-  <si>
-    <t>sd(Daily individual's experienced persuasion)</t>
-  </si>
-  <si>
-    <t>0.22</t>
-  </si>
-  <si>
-    <t>[0.04, 0.41]</t>
-  </si>
-  <si>
-    <t>0.11</t>
-  </si>
-  <si>
-    <t>[0.07, 0.16]</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>[0.02, 0.08]</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>[0.00, 0.10]</t>
-  </si>
-  <si>
-    <t>0.24</t>
-  </si>
-  <si>
-    <t>[0.02, 0.55]</t>
-  </si>
-  <si>
-    <t>sd(Daily partner's experienced persuasion)</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>[0.01, 0.35]</t>
-  </si>
-  <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>[0.04, 0.13]</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>[0.03, 0.09]</t>
-  </si>
-  <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>[0.01, 0.13]</t>
-  </si>
-  <si>
-    <t>0.51</t>
-  </si>
-  <si>
-    <t>[0.12, 1.03]</t>
-  </si>
-  <si>
-    <t>sd(Daily individual's experienced pressure)</t>
-  </si>
-  <si>
-    <t>0.20</t>
-  </si>
-  <si>
-    <t>[0.01, 0.77]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.23]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.13]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.24]</t>
-  </si>
-  <si>
-    <t>1.08</t>
-  </si>
-  <si>
-    <t>[0.12, 2.46]</t>
-  </si>
-  <si>
-    <t>sd(Daily partner's experienced pressure)</t>
-  </si>
-  <si>
-    <t>0.36</t>
-  </si>
-  <si>
-    <t>[0.02, 1.21]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.18]</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>[0.00, 0.11]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.26]</t>
-  </si>
-  <si>
-    <t>0.91</t>
-  </si>
-  <si>
-    <t>[0.05, 2.91]</t>
-  </si>
-  <si>
-    <t>sd(Daily individual's experienced pushing)</t>
-  </si>
-  <si>
-    <t>[0.20, 0.93]</t>
-  </si>
-  <si>
-    <t>0.09</t>
-  </si>
-  <si>
-    <t>[0.02, 0.17]</t>
-  </si>
-  <si>
-    <t>[0.01, 0.16]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.15]</t>
-  </si>
-  <si>
-    <t>0.26</t>
-  </si>
-  <si>
-    <t>[0.02, 0.64]</t>
-  </si>
-  <si>
-    <t>sd(Daily partner's experienced pushing)</t>
-  </si>
-  <si>
-    <t>[0.01, 0.57]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.09]</t>
-  </si>
-  <si>
-    <t>[0.01, 0.17]</t>
-  </si>
-  <si>
-    <t>0.28</t>
-  </si>
-  <si>
-    <t>[0.01, 1.03]</t>
-  </si>
-  <si>
-    <t>Additional Parameters</t>
-  </si>
-  <si>
-    <t>sigma</t>
-  </si>
-  <si>
-    <t>0.68</t>
-  </si>
-  <si>
-    <t>[0.65, 0.70]</t>
-  </si>
-  <si>
-    <t>0.57</t>
-  </si>
-  <si>
-    <t>[0.56, 0.59]</t>
-  </si>
-  <si>
-    <t>[0.94, 0.98]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="256">
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Subjective MVPA Hurdle Lognormal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Device-Based MVPA Log (Gaussian)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mood Gaussian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reactance Dichotome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hurdle Component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-Zero Component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exp(Est.)_hu pa_sub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95% CI_hu pa_sub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exp(Est.)_nonzero pa_sub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95% CI_nonzero pa_sub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exp(Est.) pa_obj_log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95% CI pa_obj_log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Est. mood_gauss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95% CI mood_gauss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR is_reactance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95% CI is_reactance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intercept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.21***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.15,  0.30]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.17***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[29.76, 41.52]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110.43***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[99.31, 123.00]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 3.45, 3.87]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.37**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.19,   0.72]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Within-Person Effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily individual's experienced persuasion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.37,  1.84]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.98,  1.09]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.00,   1.06]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.04, 0.04]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.68,   1.02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily partner's experienced persuasion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.18,  1.53]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.99,  1.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.98,   1.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.03, 0.07]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.83,   1.57]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily individual's experienced pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.69,  1.36]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.90*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.80,  0.99]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.88,   1.01]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.14, 0.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.04,   4.77]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily partner's experienced pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.04,  2.67]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.86,  1.03]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.92,   1.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.13, 0.10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.55,   4.90]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily individual's experienced pushing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.76,  1.37]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.93,  1.06]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.96,   1.07]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.06, 0.07]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.03,   1.77]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily partner's experienced pushing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.07,  1.72]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.90,  1.02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.96,   1.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.07*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.00, 0.14]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.58,   1.35]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.60,  1.09]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.87,  1.11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.91,   1.04]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.14, 0.36]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.77,   3.81]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Own Actionplan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.50***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 8.57, 12.90]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.21,  1.47]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.02,   1.12]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.04, 0.19]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.45,   1.63]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partner Actionplan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.95,  1.43]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.98,  1.17]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.00,   1.10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.11, 0.04]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.48,   1.56]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily weartime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.00,   1.00]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Between-Person Effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean individual's experienced persuasion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.65,  3.02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.70,  1.30]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.83,   1.47]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.20, 0.90]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.47,   7.74]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean partner's experienced persuasion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.61,  2.80]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.66,  1.22]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.74,   1.32]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.33, 0.77]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.48,  10.26]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean individual's experienced pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.05,  0.49]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.36,  1.63]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.73,   1.30]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.83, 0.24]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.42**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[3.20, 583.15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean partner's experienced pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.08,  0.72]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.26,  1.20]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.73,   1.28]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.85, 0.22]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.09,  20.83]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean individual's experienced pushing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.45,  4.62]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.87,  2.62]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.64,   1.45]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.59, 0.95]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.05,   5.49]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean partner's experienced pushing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.81,  8.39]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.00,  3.04]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.81,   1.83]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.43, 1.11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.06*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00,   0.67]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean weartime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random Effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Intercept)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.62, 1.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.23, 0.40]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.23, 0.39]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.48, 0.78]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.78, 1.86]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily individual's experienced persuasion)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.04, 0.41]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.07, 0.16]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.02, 0.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.02, 0.55]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily partner's experienced persuasion)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.35]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.04, 0.13]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.03, 0.09]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.13]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.12, 1.03]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily individual's experienced pressure)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.77]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.23]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.13]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.24]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.12, 2.46]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily partner's experienced pressure)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.02, 1.21]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.18]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.26]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.05, 2.91]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily individual's experienced pushing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.20, 0.93]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.02, 0.17]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.16]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.02, 0.64]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily partner's experienced pushing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.57]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.09]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.17]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 1.03]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional Parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sigma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.65, 0.70]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.56, 0.59]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.94, 0.98]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -808,16 +801,16 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <b/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <i/>
     </font>
   </fonts>
   <fills count="2">
@@ -837,28 +830,20 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -871,38 +856,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1184,77 +1151,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="39.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.46484375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.73046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.53125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.1328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.9296875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -1276,7 +1228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1311,7 +1263,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1346,43 +1298,43 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" s="10" t="s">
+    <row r="5">
+      <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" s="6" t="s">
+    <row r="6">
+      <c r="A6" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1416,8 +1368,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" s="6" t="s">
+    <row r="7">
+      <c r="A7" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1451,8 +1403,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" s="6" t="s">
+    <row r="8">
+      <c r="A8" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1486,8 +1438,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9" s="6" t="s">
+    <row r="9">
+      <c r="A9" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1521,8 +1473,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A10" s="6" t="s">
+    <row r="10">
+      <c r="A10" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1556,8 +1508,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A11" s="6" t="s">
+    <row r="11">
+      <c r="A11" s="7" t="s">
         <v>80</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1591,8 +1543,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12" s="6" t="s">
+    <row r="12">
+      <c r="A12" s="7" t="s">
         <v>91</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1626,8 +1578,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" s="6" t="s">
+    <row r="13">
+      <c r="A13" s="7" t="s">
         <v>101</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1661,8 +1613,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14" s="6" t="s">
+    <row r="14">
+      <c r="A14" s="7" t="s">
         <v>111</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1696,8 +1648,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A15" s="6" t="s">
+    <row r="15">
+      <c r="A15" s="7" t="s">
         <v>121</v>
       </c>
       <c r="B15" s="1"/>
@@ -1715,43 +1667,43 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A16" s="10" t="s">
+    <row r="16">
+      <c r="A16" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A17" s="6" t="s">
+    <row r="17">
+      <c r="A17" s="7" t="s">
         <v>125</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1785,8 +1737,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A18" s="6" t="s">
+    <row r="18">
+      <c r="A18" s="7" t="s">
         <v>135</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1820,8 +1772,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A19" s="6" t="s">
+    <row r="19">
+      <c r="A19" s="7" t="s">
         <v>145</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -1855,8 +1807,8 @@
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A20" s="6" t="s">
+    <row r="20">
+      <c r="A20" s="7" t="s">
         <v>155</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1890,8 +1842,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A21" s="6" t="s">
+    <row r="21">
+      <c r="A21" s="7" t="s">
         <v>165</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1925,8 +1877,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A22" s="6" t="s">
+    <row r="22">
+      <c r="A22" s="7" t="s">
         <v>174</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1960,8 +1912,8 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A23" s="6" t="s">
+    <row r="23">
+      <c r="A23" s="7" t="s">
         <v>185</v>
       </c>
       <c r="B23" s="1"/>
@@ -1979,43 +1931,43 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A24" s="10" t="s">
+    <row r="24">
+      <c r="A24" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="H24" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="I24" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="K24" s="11" t="s">
+      <c r="K24" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A25" s="6" t="s">
+    <row r="25">
+      <c r="A25" s="7" t="s">
         <v>187</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2049,8 +2001,8 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A26" s="6" t="s">
+    <row r="26">
+      <c r="A26" s="7" t="s">
         <v>196</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2084,8 +2036,8 @@
         <v>206</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A27" s="6" t="s">
+    <row r="27">
+      <c r="A27" s="7" t="s">
         <v>207</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2119,8 +2071,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A28" s="6" t="s">
+    <row r="28">
+      <c r="A28" s="7" t="s">
         <v>218</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -2154,8 +2106,8 @@
         <v>225</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A29" s="6" t="s">
+    <row r="29">
+      <c r="A29" s="7" t="s">
         <v>226</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2189,8 +2141,8 @@
         <v>234</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A30" s="6" t="s">
+    <row r="30">
+      <c r="A30" s="7" t="s">
         <v>235</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2224,8 +2176,8 @@
         <v>242</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A31" s="6" t="s">
+    <row r="31">
+      <c r="A31" s="7" t="s">
         <v>243</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -2259,43 +2211,43 @@
         <v>248</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A32" s="10" t="s">
+    <row r="32">
+      <c r="A32" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="G32" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="H32" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="I32" s="11" t="s">
+      <c r="I32" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="J32" s="11" t="s">
+      <c r="J32" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="K32" s="11" t="s">
+      <c r="K32" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A33" s="7" t="s">
+    <row r="33">
+      <c r="A33" s="8" t="s">
         <v>250</v>
       </c>
       <c r="B33" s="4"/>
@@ -2321,38 +2273,38 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A34" s="6"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A35" s="6"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A36" s="6"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A37" s="6"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A38" s="6"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A39" s="6"/>
+    <row r="34">
+      <c r="A34" s="7"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="7"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="7"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="7"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="7"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A32:K32"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A32:K32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Output/AllModels_final_with_plan_12000.xlsx
+++ b/Output/AllModels_final_with_plan_12000.xlsx
@@ -1,793 +1,800 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pascku\Repos\02TimeAndTiesControl\Output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D858A0-C6B0-476C-9975-9EE61845B4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="10965" windowHeight="12863" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="256">
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Subjective MVPA Hurdle Lognormal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Device-Based MVPA Log (Gaussian)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mood Gaussian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reactance Dichotome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hurdle Component</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-Zero Component</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp(Est.)_hu pa_sub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95% CI_hu pa_sub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp(Est.)_nonzero pa_sub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95% CI_nonzero pa_sub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp(Est.) pa_obj_log</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95% CI pa_obj_log</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Est. mood_gauss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95% CI mood_gauss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OR is_reactance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95% CI is_reactance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intercept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.15,  0.30]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.17***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[29.76, 41.52]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110.43***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[99.31, 123.00]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 3.45, 3.87]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.37**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.19,   0.72]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Within-Person Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily individual's experienced persuasion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.37,  1.84]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.98,  1.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.00,   1.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.04, 0.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.68,   1.02]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily partner's experienced persuasion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.18,  1.53]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.99,  1.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.98,   1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.03, 0.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.83,   1.57]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily individual's experienced pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.69,  1.36]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.90*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.80,  0.99]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.88,   1.01]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.14, 0.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.04,   4.77]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily partner's experienced pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.04,  2.67]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.86,  1.03]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.92,   1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.13, 0.10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.55,   4.90]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily individual's experienced pushing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.76,  1.37]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.93,  1.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.96,   1.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.06, 0.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.03,   1.77]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily partner's experienced pushing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.07,  1.72]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.90,  1.02]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.96,   1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.07*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.00, 0.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.58,   1.35]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.60,  1.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.87,  1.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.91,   1.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.14, 0.36]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.77,   3.81]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Own Actionplan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.50***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 8.57, 12.90]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.21,  1.47]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.02,   1.12]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.04, 0.19]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.45,   1.63]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partner Actionplan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.95,  1.43]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.98,  1.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.00,   1.10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.11, 0.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.48,   1.56]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily weartime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.00,   1.00]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Between-Person Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean individual's experienced persuasion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.65,  3.02]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.70,  1.30]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.83,   1.47]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.20, 0.90]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.47,   7.74]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean partner's experienced persuasion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.61,  2.80]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.66,  1.22]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.74,   1.32]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.33, 0.77]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.48,  10.26]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean individual's experienced pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.05,  0.49]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.36,  1.63]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.73,   1.30]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.83, 0.24]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.42**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[3.20, 583.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean partner's experienced pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.08,  0.72]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.26,  1.20]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.73,   1.28]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.85, 0.22]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.09,  20.83]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean individual's experienced pushing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.45,  4.62]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.87,  2.62]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.64,   1.45]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.59, 0.95]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.05,   5.49]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean partner's experienced pushing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.81,  8.39]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.00,  3.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.81,   1.83]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.43, 1.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.06*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00,   0.67]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean weartime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Random Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Intercept)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.62, 1.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.23, 0.40]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.23, 0.39]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.48, 0.78]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.78, 1.86]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily individual's experienced persuasion)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.04, 0.41]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.07, 0.16]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.55]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily partner's experienced persuasion)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.35]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.04, 0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.03, 0.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.12, 1.03]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily individual's experienced pressure)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.77]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.23]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.24]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.12, 2.46]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily partner's experienced pressure)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 1.21]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.18]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.26]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.05, 2.91]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily individual's experienced pushing)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.20, 0.93]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.16]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.64]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily partner's experienced pushing)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.57]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 1.03]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Additional Parameters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sigma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.65, 0.70]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.56, 0.59]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.94, 0.98]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="256">
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Subjective MVPA Hurdle Lognormal</t>
+  </si>
+  <si>
+    <t>Device-Based MVPA Log (Gaussian)</t>
+  </si>
+  <si>
+    <t>Mood Gaussian</t>
+  </si>
+  <si>
+    <t>Reactance Dichotome</t>
+  </si>
+  <si>
+    <t>Hurdle Component</t>
+  </si>
+  <si>
+    <t>Non-Zero Component</t>
+  </si>
+  <si>
+    <t>exp(Est.)_hu pa_sub</t>
+  </si>
+  <si>
+    <t>95% CI_hu pa_sub</t>
+  </si>
+  <si>
+    <t>exp(Est.)_nonzero pa_sub</t>
+  </si>
+  <si>
+    <t>95% CI_nonzero pa_sub</t>
+  </si>
+  <si>
+    <t>exp(Est.) pa_obj_log</t>
+  </si>
+  <si>
+    <t>95% CI pa_obj_log</t>
+  </si>
+  <si>
+    <t>Est. mood_gauss</t>
+  </si>
+  <si>
+    <t>95% CI mood_gauss</t>
+  </si>
+  <si>
+    <t>OR is_reactance</t>
+  </si>
+  <si>
+    <t>95% CI is_reactance</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>0.21***</t>
+  </si>
+  <si>
+    <t>[ 0.15,  0.30]</t>
+  </si>
+  <si>
+    <t>35.17***</t>
+  </si>
+  <si>
+    <t>[29.76, 41.52]</t>
+  </si>
+  <si>
+    <t>110.43***</t>
+  </si>
+  <si>
+    <t>[99.31, 123.00]</t>
+  </si>
+  <si>
+    <t>3.67***</t>
+  </si>
+  <si>
+    <t>[ 3.45, 3.87]</t>
+  </si>
+  <si>
+    <t>0.37**</t>
+  </si>
+  <si>
+    <t>[0.19,   0.72]</t>
+  </si>
+  <si>
+    <t>Within-Person Effects</t>
+  </si>
+  <si>
+    <t>Daily individual's experienced persuasion</t>
+  </si>
+  <si>
+    <t>1.58***</t>
+  </si>
+  <si>
+    <t>[ 1.37,  1.84]</t>
+  </si>
+  <si>
+    <t>1.03</t>
+  </si>
+  <si>
+    <t>[ 0.98,  1.09]</t>
+  </si>
+  <si>
+    <t>[ 1.00,   1.06]</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>[-0.04, 0.04]</t>
+  </si>
+  <si>
+    <t>0.84</t>
+  </si>
+  <si>
+    <t>[0.68,   1.02]</t>
+  </si>
+  <si>
+    <t>Daily partner's experienced persuasion</t>
+  </si>
+  <si>
+    <t>1.34***</t>
+  </si>
+  <si>
+    <t>[ 1.18,  1.53]</t>
+  </si>
+  <si>
+    <t>[ 0.99,  1.08]</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>[ 0.98,   1.05]</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>[-0.03, 0.07]</t>
+  </si>
+  <si>
+    <t>1.12</t>
+  </si>
+  <si>
+    <t>[0.83,   1.57]</t>
+  </si>
+  <si>
+    <t>Daily individual's experienced pressure</t>
+  </si>
+  <si>
+    <t>0.98</t>
+  </si>
+  <si>
+    <t>[ 0.69,  1.36]</t>
+  </si>
+  <si>
+    <t>0.90*</t>
+  </si>
+  <si>
+    <t>[ 0.80,  0.99]</t>
+  </si>
+  <si>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>[ 0.88,   1.01]</t>
+  </si>
+  <si>
+    <t>-0.02</t>
+  </si>
+  <si>
+    <t>[-0.14, 0.08]</t>
+  </si>
+  <si>
+    <t>2.02*</t>
+  </si>
+  <si>
+    <t>[1.04,   4.77]</t>
+  </si>
+  <si>
+    <t>Daily partner's experienced pressure</t>
+  </si>
+  <si>
+    <t>1.55*</t>
+  </si>
+  <si>
+    <t>[ 1.04,  2.67]</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>[ 0.86,  1.03]</t>
+  </si>
+  <si>
+    <t>[ 0.92,   1.05]</t>
+  </si>
+  <si>
+    <t>-0.01</t>
+  </si>
+  <si>
+    <t>[-0.13, 0.10]</t>
+  </si>
+  <si>
+    <t>1.47</t>
+  </si>
+  <si>
+    <t>[0.55,   4.90]</t>
+  </si>
+  <si>
+    <t>Daily individual's experienced pushing</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>[ 0.76,  1.37]</t>
+  </si>
+  <si>
+    <t>0.99</t>
+  </si>
+  <si>
+    <t>[ 0.93,  1.06]</t>
+  </si>
+  <si>
+    <t>[ 0.96,   1.07]</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>[-0.06, 0.07]</t>
+  </si>
+  <si>
+    <t>1.33*</t>
+  </si>
+  <si>
+    <t>[1.03,   1.77]</t>
+  </si>
+  <si>
+    <t>Daily partner's experienced pushing</t>
+  </si>
+  <si>
+    <t>1.34**</t>
+  </si>
+  <si>
+    <t>[ 1.07,  1.72]</t>
+  </si>
+  <si>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>[ 0.90,  1.02]</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>[ 0.96,   1.05]</t>
+  </si>
+  <si>
+    <t>0.07*</t>
+  </si>
+  <si>
+    <t>[ 0.00, 0.14]</t>
+  </si>
+  <si>
+    <t>0.89</t>
+  </si>
+  <si>
+    <t>[0.58,   1.35]</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>0.81</t>
+  </si>
+  <si>
+    <t>[ 0.60,  1.09]</t>
+  </si>
+  <si>
+    <t>[ 0.87,  1.11]</t>
+  </si>
+  <si>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>[ 0.91,   1.04]</t>
+  </si>
+  <si>
+    <t>0.25***</t>
+  </si>
+  <si>
+    <t>[ 0.14, 0.36]</t>
+  </si>
+  <si>
+    <t>1.71</t>
+  </si>
+  <si>
+    <t>[0.77,   3.81]</t>
+  </si>
+  <si>
+    <t>Own Actionplan</t>
+  </si>
+  <si>
+    <t>10.50***</t>
+  </si>
+  <si>
+    <t>[ 8.57, 12.90]</t>
+  </si>
+  <si>
+    <t>[ 1.21,  1.47]</t>
+  </si>
+  <si>
+    <t>1.07**</t>
+  </si>
+  <si>
+    <t>[ 1.02,   1.12]</t>
+  </si>
+  <si>
+    <t>0.11**</t>
+  </si>
+  <si>
+    <t>[ 0.04, 0.19]</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>[0.45,   1.63]</t>
+  </si>
+  <si>
+    <t>Partner Actionplan</t>
+  </si>
+  <si>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t>[ 0.95,  1.43]</t>
+  </si>
+  <si>
+    <t>1.07</t>
+  </si>
+  <si>
+    <t>[ 0.98,  1.17]</t>
+  </si>
+  <si>
+    <t>1.05</t>
+  </si>
+  <si>
+    <t>[ 1.00,   1.10]</t>
+  </si>
+  <si>
+    <t>-0.04</t>
+  </si>
+  <si>
+    <t>[-0.11, 0.04]</t>
+  </si>
+  <si>
+    <t>[0.48,   1.56]</t>
+  </si>
+  <si>
+    <t>Daily weartime</t>
+  </si>
+  <si>
+    <t>1.00***</t>
+  </si>
+  <si>
+    <t>[ 1.00,   1.00]</t>
+  </si>
+  <si>
+    <t>Between-Person Effects</t>
+  </si>
+  <si>
+    <t>Mean individual's experienced persuasion</t>
+  </si>
+  <si>
+    <t>1.41</t>
+  </si>
+  <si>
+    <t>[ 0.65,  3.02]</t>
+  </si>
+  <si>
+    <t>[ 0.70,  1.30]</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>[ 0.83,   1.47]</t>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>[-0.20, 0.90]</t>
+  </si>
+  <si>
+    <t>1.82</t>
+  </si>
+  <si>
+    <t>[0.47,   7.74]</t>
+  </si>
+  <si>
+    <t>Mean partner's experienced persuasion</t>
+  </si>
+  <si>
+    <t>1.32</t>
+  </si>
+  <si>
+    <t>[ 0.61,  2.80]</t>
+  </si>
+  <si>
+    <t>0.90</t>
+  </si>
+  <si>
+    <t>[ 0.66,  1.22]</t>
+  </si>
+  <si>
+    <t>[ 0.74,   1.32]</t>
+  </si>
+  <si>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>[-0.33, 0.77]</t>
+  </si>
+  <si>
+    <t>2.08</t>
+  </si>
+  <si>
+    <t>[0.48,  10.26]</t>
+  </si>
+  <si>
+    <t>Mean individual's experienced pressure</t>
+  </si>
+  <si>
+    <t>0.17***</t>
+  </si>
+  <si>
+    <t>[ 0.05,  0.49]</t>
+  </si>
+  <si>
+    <t>0.76</t>
+  </si>
+  <si>
+    <t>[ 0.36,  1.63]</t>
+  </si>
+  <si>
+    <t>[ 0.73,   1.30]</t>
+  </si>
+  <si>
+    <t>-0.30</t>
+  </si>
+  <si>
+    <t>[-0.83, 0.24]</t>
+  </si>
+  <si>
+    <t>34.42**</t>
+  </si>
+  <si>
+    <t>[3.20, 583.15]</t>
+  </si>
+  <si>
+    <t>Mean partner's experienced pressure</t>
+  </si>
+  <si>
+    <t>0.25**</t>
+  </si>
+  <si>
+    <t>[ 0.08,  0.72]</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>[ 0.26,  1.20]</t>
+  </si>
+  <si>
+    <t>[ 0.73,   1.28]</t>
+  </si>
+  <si>
+    <t>-0.32</t>
+  </si>
+  <si>
+    <t>[-0.85, 0.22]</t>
+  </si>
+  <si>
+    <t>1.64</t>
+  </si>
+  <si>
+    <t>[0.09,  20.83]</t>
+  </si>
+  <si>
+    <t>Mean individual's experienced pushing</t>
+  </si>
+  <si>
+    <t>1.42</t>
+  </si>
+  <si>
+    <t>[ 0.45,  4.62]</t>
+  </si>
+  <si>
+    <t>1.51</t>
+  </si>
+  <si>
+    <t>[ 0.87,  2.62]</t>
+  </si>
+  <si>
+    <t>[ 0.64,   1.45]</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>[-0.59, 0.95]</t>
+  </si>
+  <si>
+    <t>[0.05,   5.49]</t>
+  </si>
+  <si>
+    <t>Mean partner's experienced pushing</t>
+  </si>
+  <si>
+    <t>2.58</t>
+  </si>
+  <si>
+    <t>[ 0.81,  8.39]</t>
+  </si>
+  <si>
+    <t>1.75*</t>
+  </si>
+  <si>
+    <t>[ 1.00,  3.04]</t>
+  </si>
+  <si>
+    <t>1.21</t>
+  </si>
+  <si>
+    <t>[ 0.81,   1.83]</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>[-0.43, 1.11]</t>
+  </si>
+  <si>
+    <t>0.06*</t>
+  </si>
+  <si>
+    <t>[0.00,   0.67]</t>
+  </si>
+  <si>
+    <t>Mean weartime</t>
+  </si>
+  <si>
+    <t>Random Effects</t>
+  </si>
+  <si>
+    <t>sd(Intercept)</t>
+  </si>
+  <si>
+    <t>[0.62, 1.08]</t>
+  </si>
+  <si>
+    <t>0.30</t>
+  </si>
+  <si>
+    <t>[0.23, 0.40]</t>
+  </si>
+  <si>
+    <t>[0.23, 0.39]</t>
+  </si>
+  <si>
+    <t>0.60</t>
+  </si>
+  <si>
+    <t>[0.48, 0.78]</t>
+  </si>
+  <si>
+    <t>1.22</t>
+  </si>
+  <si>
+    <t>[0.78, 1.86]</t>
+  </si>
+  <si>
+    <t>sd(Daily individual's experienced persuasion)</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>[0.04, 0.41]</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>[0.07, 0.16]</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>[0.02, 0.08]</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>[0.00, 0.10]</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>[0.02, 0.55]</t>
+  </si>
+  <si>
+    <t>sd(Daily partner's experienced persuasion)</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>[0.01, 0.35]</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>[0.04, 0.13]</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>[0.03, 0.09]</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>[0.01, 0.13]</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>[0.12, 1.03]</t>
+  </si>
+  <si>
+    <t>sd(Daily individual's experienced pressure)</t>
+  </si>
+  <si>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>[0.01, 0.77]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.23]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.13]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.24]</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>[0.12, 2.46]</t>
+  </si>
+  <si>
+    <t>sd(Daily partner's experienced pressure)</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>[0.02, 1.21]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.18]</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>[0.00, 0.11]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.26]</t>
+  </si>
+  <si>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t>[0.05, 2.91]</t>
+  </si>
+  <si>
+    <t>sd(Daily individual's experienced pushing)</t>
+  </si>
+  <si>
+    <t>[0.20, 0.93]</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>[0.02, 0.17]</t>
+  </si>
+  <si>
+    <t>[0.01, 0.16]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.15]</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>[0.02, 0.64]</t>
+  </si>
+  <si>
+    <t>sd(Daily partner's experienced pushing)</t>
+  </si>
+  <si>
+    <t>[0.01, 0.57]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.09]</t>
+  </si>
+  <si>
+    <t>[0.01, 0.17]</t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>[0.01, 1.03]</t>
+  </si>
+  <si>
+    <t>Additional Parameters</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>[0.65, 0.70]</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>[0.56, 0.59]</t>
+  </si>
+  <si>
+    <t>[0.94, 0.98]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -799,18 +806,21 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <b/>
+      <family val="2"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <i/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -830,20 +840,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -856,20 +874,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1151,62 +1187,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.06640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.3984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -1228,7 +1279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1263,7 +1314,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1298,43 +1349,43 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1368,8 +1419,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1403,8 +1454,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1438,8 +1489,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1473,8 +1524,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" s="6" t="s">
         <v>70</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1508,8 +1559,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" s="6" t="s">
         <v>80</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1543,8 +1594,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" s="6" t="s">
         <v>91</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1578,8 +1629,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13" s="6" t="s">
         <v>101</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1613,8 +1664,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14" s="6" t="s">
         <v>111</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1648,8 +1699,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15" s="6" t="s">
         <v>121</v>
       </c>
       <c r="B15" s="1"/>
@@ -1667,43 +1718,43 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A16" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K16" s="11" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A17" s="6" t="s">
         <v>125</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1737,8 +1788,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A18" s="6" t="s">
         <v>135</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1772,8 +1823,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A19" s="6" t="s">
         <v>145</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -1807,8 +1858,8 @@
         <v>154</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A20" s="6" t="s">
         <v>155</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1842,8 +1893,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A21" s="6" t="s">
         <v>165</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1877,8 +1928,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A22" s="6" t="s">
         <v>174</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1912,8 +1963,8 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A23" s="6" t="s">
         <v>185</v>
       </c>
       <c r="B23" s="1"/>
@@ -1931,43 +1982,43 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A24" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="K24" s="11" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A25" s="6" t="s">
         <v>187</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2001,8 +2052,8 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A26" s="6" t="s">
         <v>196</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2036,8 +2087,8 @@
         <v>206</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="7" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A27" s="6" t="s">
         <v>207</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2071,8 +2122,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A28" s="6" t="s">
         <v>218</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -2106,8 +2157,8 @@
         <v>225</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A29" s="6" t="s">
         <v>226</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2141,8 +2192,8 @@
         <v>234</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="7" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A30" s="6" t="s">
         <v>235</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2176,8 +2227,8 @@
         <v>242</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="7" t="s">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A31" s="6" t="s">
         <v>243</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -2211,43 +2262,43 @@
         <v>248</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="6" t="s">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A32" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H32" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I32" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="J32" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="K32" s="11" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="8" t="s">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A33" s="7" t="s">
         <v>250</v>
       </c>
       <c r="B33" s="4"/>
@@ -2273,38 +2324,38 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34">
-      <c r="A34" s="7"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="7"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="7"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="7"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="7"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="7"/>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A34" s="6"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A35" s="6"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A36" s="6"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A37" s="6"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A38" s="6"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A39" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A32:K32"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A32:K32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Output/AllModels_final_with_plan_12000.xlsx
+++ b/Output/AllModels_final_with_plan_12000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pascku\Repos\02TimeAndTiesControl\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D858A0-C6B0-476C-9975-9EE61845B4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB74CEAD-A0B8-4CAF-BE14-6352124638C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="10965" windowHeight="12863" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-11290" yWindow="870" windowWidth="11380" windowHeight="13370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -880,16 +880,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1191,7 +1191,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1213,34 +1213,34 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="10" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1248,16 +1248,16 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="11" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -1350,37 +1350,37 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1719,37 +1719,37 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="9" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1983,37 +1983,37 @@
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="H24" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="I24" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="K24" s="11" t="s">
+      <c r="K24" s="9" t="s">
         <v>186</v>
       </c>
     </row>
@@ -2263,37 +2263,37 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="G32" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="H32" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="I32" s="11" t="s">
+      <c r="I32" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="J32" s="11" t="s">
+      <c r="J32" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="K32" s="11" t="s">
+      <c r="K32" s="9" t="s">
         <v>249</v>
       </c>
     </row>

--- a/Output/AllModels_final_with_plan_12000.xlsx
+++ b/Output/AllModels_final_with_plan_12000.xlsx
@@ -1,800 +1,793 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pascku\Repos\02TimeAndTiesControl\Output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB74CEAD-A0B8-4CAF-BE14-6352124638C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-11290" yWindow="870" windowWidth="11380" windowHeight="13370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="256">
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Subjective MVPA Hurdle Lognormal</t>
-  </si>
-  <si>
-    <t>Device-Based MVPA Log (Gaussian)</t>
-  </si>
-  <si>
-    <t>Mood Gaussian</t>
-  </si>
-  <si>
-    <t>Reactance Dichotome</t>
-  </si>
-  <si>
-    <t>Hurdle Component</t>
-  </si>
-  <si>
-    <t>Non-Zero Component</t>
-  </si>
-  <si>
-    <t>exp(Est.)_hu pa_sub</t>
-  </si>
-  <si>
-    <t>95% CI_hu pa_sub</t>
-  </si>
-  <si>
-    <t>exp(Est.)_nonzero pa_sub</t>
-  </si>
-  <si>
-    <t>95% CI_nonzero pa_sub</t>
-  </si>
-  <si>
-    <t>exp(Est.) pa_obj_log</t>
-  </si>
-  <si>
-    <t>95% CI pa_obj_log</t>
-  </si>
-  <si>
-    <t>Est. mood_gauss</t>
-  </si>
-  <si>
-    <t>95% CI mood_gauss</t>
-  </si>
-  <si>
-    <t>OR is_reactance</t>
-  </si>
-  <si>
-    <t>95% CI is_reactance</t>
-  </si>
-  <si>
-    <t>Intercept</t>
-  </si>
-  <si>
-    <t>0.21***</t>
-  </si>
-  <si>
-    <t>[ 0.15,  0.30]</t>
-  </si>
-  <si>
-    <t>35.17***</t>
-  </si>
-  <si>
-    <t>[29.76, 41.52]</t>
-  </si>
-  <si>
-    <t>110.43***</t>
-  </si>
-  <si>
-    <t>[99.31, 123.00]</t>
-  </si>
-  <si>
-    <t>3.67***</t>
-  </si>
-  <si>
-    <t>[ 3.45, 3.87]</t>
-  </si>
-  <si>
-    <t>0.37**</t>
-  </si>
-  <si>
-    <t>[0.19,   0.72]</t>
-  </si>
-  <si>
-    <t>Within-Person Effects</t>
-  </si>
-  <si>
-    <t>Daily individual's experienced persuasion</t>
-  </si>
-  <si>
-    <t>1.58***</t>
-  </si>
-  <si>
-    <t>[ 1.37,  1.84]</t>
-  </si>
-  <si>
-    <t>1.03</t>
-  </si>
-  <si>
-    <t>[ 0.98,  1.09]</t>
-  </si>
-  <si>
-    <t>[ 1.00,   1.06]</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>[-0.04, 0.04]</t>
-  </si>
-  <si>
-    <t>0.84</t>
-  </si>
-  <si>
-    <t>[0.68,   1.02]</t>
-  </si>
-  <si>
-    <t>Daily partner's experienced persuasion</t>
-  </si>
-  <si>
-    <t>1.34***</t>
-  </si>
-  <si>
-    <t>[ 1.18,  1.53]</t>
-  </si>
-  <si>
-    <t>[ 0.99,  1.08]</t>
-  </si>
-  <si>
-    <t>1.02</t>
-  </si>
-  <si>
-    <t>[ 0.98,   1.05]</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>[-0.03, 0.07]</t>
-  </si>
-  <si>
-    <t>1.12</t>
-  </si>
-  <si>
-    <t>[0.83,   1.57]</t>
-  </si>
-  <si>
-    <t>Daily individual's experienced pressure</t>
-  </si>
-  <si>
-    <t>0.98</t>
-  </si>
-  <si>
-    <t>[ 0.69,  1.36]</t>
-  </si>
-  <si>
-    <t>0.90*</t>
-  </si>
-  <si>
-    <t>[ 0.80,  0.99]</t>
-  </si>
-  <si>
-    <t>0.94</t>
-  </si>
-  <si>
-    <t>[ 0.88,   1.01]</t>
-  </si>
-  <si>
-    <t>-0.02</t>
-  </si>
-  <si>
-    <t>[-0.14, 0.08]</t>
-  </si>
-  <si>
-    <t>2.02*</t>
-  </si>
-  <si>
-    <t>[1.04,   4.77]</t>
-  </si>
-  <si>
-    <t>Daily partner's experienced pressure</t>
-  </si>
-  <si>
-    <t>1.55*</t>
-  </si>
-  <si>
-    <t>[ 1.04,  2.67]</t>
-  </si>
-  <si>
-    <t>0.95</t>
-  </si>
-  <si>
-    <t>[ 0.86,  1.03]</t>
-  </si>
-  <si>
-    <t>[ 0.92,   1.05]</t>
-  </si>
-  <si>
-    <t>-0.01</t>
-  </si>
-  <si>
-    <t>[-0.13, 0.10]</t>
-  </si>
-  <si>
-    <t>1.47</t>
-  </si>
-  <si>
-    <t>[0.55,   4.90]</t>
-  </si>
-  <si>
-    <t>Daily individual's experienced pushing</t>
-  </si>
-  <si>
-    <t>1.01</t>
-  </si>
-  <si>
-    <t>[ 0.76,  1.37]</t>
-  </si>
-  <si>
-    <t>0.99</t>
-  </si>
-  <si>
-    <t>[ 0.93,  1.06]</t>
-  </si>
-  <si>
-    <t>[ 0.96,   1.07]</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>[-0.06, 0.07]</t>
-  </si>
-  <si>
-    <t>1.33*</t>
-  </si>
-  <si>
-    <t>[1.03,   1.77]</t>
-  </si>
-  <si>
-    <t>Daily partner's experienced pushing</t>
-  </si>
-  <si>
-    <t>1.34**</t>
-  </si>
-  <si>
-    <t>[ 1.07,  1.72]</t>
-  </si>
-  <si>
-    <t>0.96</t>
-  </si>
-  <si>
-    <t>[ 0.90,  1.02]</t>
-  </si>
-  <si>
-    <t>1.00</t>
-  </si>
-  <si>
-    <t>[ 0.96,   1.05]</t>
-  </si>
-  <si>
-    <t>0.07*</t>
-  </si>
-  <si>
-    <t>[ 0.00, 0.14]</t>
-  </si>
-  <si>
-    <t>0.89</t>
-  </si>
-  <si>
-    <t>[0.58,   1.35]</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>0.81</t>
-  </si>
-  <si>
-    <t>[ 0.60,  1.09]</t>
-  </si>
-  <si>
-    <t>[ 0.87,  1.11]</t>
-  </si>
-  <si>
-    <t>0.97</t>
-  </si>
-  <si>
-    <t>[ 0.91,   1.04]</t>
-  </si>
-  <si>
-    <t>0.25***</t>
-  </si>
-  <si>
-    <t>[ 0.14, 0.36]</t>
-  </si>
-  <si>
-    <t>1.71</t>
-  </si>
-  <si>
-    <t>[0.77,   3.81]</t>
-  </si>
-  <si>
-    <t>Own Actionplan</t>
-  </si>
-  <si>
-    <t>10.50***</t>
-  </si>
-  <si>
-    <t>[ 8.57, 12.90]</t>
-  </si>
-  <si>
-    <t>[ 1.21,  1.47]</t>
-  </si>
-  <si>
-    <t>1.07**</t>
-  </si>
-  <si>
-    <t>[ 1.02,   1.12]</t>
-  </si>
-  <si>
-    <t>0.11**</t>
-  </si>
-  <si>
-    <t>[ 0.04, 0.19]</t>
-  </si>
-  <si>
-    <t>0.86</t>
-  </si>
-  <si>
-    <t>[0.45,   1.63]</t>
-  </si>
-  <si>
-    <t>Partner Actionplan</t>
-  </si>
-  <si>
-    <t>1.17</t>
-  </si>
-  <si>
-    <t>[ 0.95,  1.43]</t>
-  </si>
-  <si>
-    <t>1.07</t>
-  </si>
-  <si>
-    <t>[ 0.98,  1.17]</t>
-  </si>
-  <si>
-    <t>1.05</t>
-  </si>
-  <si>
-    <t>[ 1.00,   1.10]</t>
-  </si>
-  <si>
-    <t>-0.04</t>
-  </si>
-  <si>
-    <t>[-0.11, 0.04]</t>
-  </si>
-  <si>
-    <t>[0.48,   1.56]</t>
-  </si>
-  <si>
-    <t>Daily weartime</t>
-  </si>
-  <si>
-    <t>1.00***</t>
-  </si>
-  <si>
-    <t>[ 1.00,   1.00]</t>
-  </si>
-  <si>
-    <t>Between-Person Effects</t>
-  </si>
-  <si>
-    <t>Mean individual's experienced persuasion</t>
-  </si>
-  <si>
-    <t>1.41</t>
-  </si>
-  <si>
-    <t>[ 0.65,  3.02]</t>
-  </si>
-  <si>
-    <t>[ 0.70,  1.30]</t>
-  </si>
-  <si>
-    <t>1.10</t>
-  </si>
-  <si>
-    <t>[ 0.83,   1.47]</t>
-  </si>
-  <si>
-    <t>0.34</t>
-  </si>
-  <si>
-    <t>[-0.20, 0.90]</t>
-  </si>
-  <si>
-    <t>1.82</t>
-  </si>
-  <si>
-    <t>[0.47,   7.74]</t>
-  </si>
-  <si>
-    <t>Mean partner's experienced persuasion</t>
-  </si>
-  <si>
-    <t>1.32</t>
-  </si>
-  <si>
-    <t>[ 0.61,  2.80]</t>
-  </si>
-  <si>
-    <t>0.90</t>
-  </si>
-  <si>
-    <t>[ 0.66,  1.22]</t>
-  </si>
-  <si>
-    <t>[ 0.74,   1.32]</t>
-  </si>
-  <si>
-    <t>0.21</t>
-  </si>
-  <si>
-    <t>[-0.33, 0.77]</t>
-  </si>
-  <si>
-    <t>2.08</t>
-  </si>
-  <si>
-    <t>[0.48,  10.26]</t>
-  </si>
-  <si>
-    <t>Mean individual's experienced pressure</t>
-  </si>
-  <si>
-    <t>0.17***</t>
-  </si>
-  <si>
-    <t>[ 0.05,  0.49]</t>
-  </si>
-  <si>
-    <t>0.76</t>
-  </si>
-  <si>
-    <t>[ 0.36,  1.63]</t>
-  </si>
-  <si>
-    <t>[ 0.73,   1.30]</t>
-  </si>
-  <si>
-    <t>-0.30</t>
-  </si>
-  <si>
-    <t>[-0.83, 0.24]</t>
-  </si>
-  <si>
-    <t>34.42**</t>
-  </si>
-  <si>
-    <t>[3.20, 583.15]</t>
-  </si>
-  <si>
-    <t>Mean partner's experienced pressure</t>
-  </si>
-  <si>
-    <t>0.25**</t>
-  </si>
-  <si>
-    <t>[ 0.08,  0.72]</t>
-  </si>
-  <si>
-    <t>0.56</t>
-  </si>
-  <si>
-    <t>[ 0.26,  1.20]</t>
-  </si>
-  <si>
-    <t>[ 0.73,   1.28]</t>
-  </si>
-  <si>
-    <t>-0.32</t>
-  </si>
-  <si>
-    <t>[-0.85, 0.22]</t>
-  </si>
-  <si>
-    <t>1.64</t>
-  </si>
-  <si>
-    <t>[0.09,  20.83]</t>
-  </si>
-  <si>
-    <t>Mean individual's experienced pushing</t>
-  </si>
-  <si>
-    <t>1.42</t>
-  </si>
-  <si>
-    <t>[ 0.45,  4.62]</t>
-  </si>
-  <si>
-    <t>1.51</t>
-  </si>
-  <si>
-    <t>[ 0.87,  2.62]</t>
-  </si>
-  <si>
-    <t>[ 0.64,   1.45]</t>
-  </si>
-  <si>
-    <t>0.19</t>
-  </si>
-  <si>
-    <t>[-0.59, 0.95]</t>
-  </si>
-  <si>
-    <t>[0.05,   5.49]</t>
-  </si>
-  <si>
-    <t>Mean partner's experienced pushing</t>
-  </si>
-  <si>
-    <t>2.58</t>
-  </si>
-  <si>
-    <t>[ 0.81,  8.39]</t>
-  </si>
-  <si>
-    <t>1.75*</t>
-  </si>
-  <si>
-    <t>[ 1.00,  3.04]</t>
-  </si>
-  <si>
-    <t>1.21</t>
-  </si>
-  <si>
-    <t>[ 0.81,   1.83]</t>
-  </si>
-  <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>[-0.43, 1.11]</t>
-  </si>
-  <si>
-    <t>0.06*</t>
-  </si>
-  <si>
-    <t>[0.00,   0.67]</t>
-  </si>
-  <si>
-    <t>Mean weartime</t>
-  </si>
-  <si>
-    <t>Random Effects</t>
-  </si>
-  <si>
-    <t>sd(Intercept)</t>
-  </si>
-  <si>
-    <t>[0.62, 1.08]</t>
-  </si>
-  <si>
-    <t>0.30</t>
-  </si>
-  <si>
-    <t>[0.23, 0.40]</t>
-  </si>
-  <si>
-    <t>[0.23, 0.39]</t>
-  </si>
-  <si>
-    <t>0.60</t>
-  </si>
-  <si>
-    <t>[0.48, 0.78]</t>
-  </si>
-  <si>
-    <t>1.22</t>
-  </si>
-  <si>
-    <t>[0.78, 1.86]</t>
-  </si>
-  <si>
-    <t>sd(Daily individual's experienced persuasion)</t>
-  </si>
-  <si>
-    <t>0.22</t>
-  </si>
-  <si>
-    <t>[0.04, 0.41]</t>
-  </si>
-  <si>
-    <t>0.11</t>
-  </si>
-  <si>
-    <t>[0.07, 0.16]</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>[0.02, 0.08]</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>[0.00, 0.10]</t>
-  </si>
-  <si>
-    <t>0.24</t>
-  </si>
-  <si>
-    <t>[0.02, 0.55]</t>
-  </si>
-  <si>
-    <t>sd(Daily partner's experienced persuasion)</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>[0.01, 0.35]</t>
-  </si>
-  <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>[0.04, 0.13]</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>[0.03, 0.09]</t>
-  </si>
-  <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>[0.01, 0.13]</t>
-  </si>
-  <si>
-    <t>0.51</t>
-  </si>
-  <si>
-    <t>[0.12, 1.03]</t>
-  </si>
-  <si>
-    <t>sd(Daily individual's experienced pressure)</t>
-  </si>
-  <si>
-    <t>0.20</t>
-  </si>
-  <si>
-    <t>[0.01, 0.77]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.23]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.13]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.24]</t>
-  </si>
-  <si>
-    <t>1.08</t>
-  </si>
-  <si>
-    <t>[0.12, 2.46]</t>
-  </si>
-  <si>
-    <t>sd(Daily partner's experienced pressure)</t>
-  </si>
-  <si>
-    <t>0.36</t>
-  </si>
-  <si>
-    <t>[0.02, 1.21]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.18]</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>[0.00, 0.11]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.26]</t>
-  </si>
-  <si>
-    <t>0.91</t>
-  </si>
-  <si>
-    <t>[0.05, 2.91]</t>
-  </si>
-  <si>
-    <t>sd(Daily individual's experienced pushing)</t>
-  </si>
-  <si>
-    <t>[0.20, 0.93]</t>
-  </si>
-  <si>
-    <t>0.09</t>
-  </si>
-  <si>
-    <t>[0.02, 0.17]</t>
-  </si>
-  <si>
-    <t>[0.01, 0.16]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.15]</t>
-  </si>
-  <si>
-    <t>0.26</t>
-  </si>
-  <si>
-    <t>[0.02, 0.64]</t>
-  </si>
-  <si>
-    <t>sd(Daily partner's experienced pushing)</t>
-  </si>
-  <si>
-    <t>[0.01, 0.57]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.09]</t>
-  </si>
-  <si>
-    <t>[0.01, 0.17]</t>
-  </si>
-  <si>
-    <t>0.28</t>
-  </si>
-  <si>
-    <t>[0.01, 1.03]</t>
-  </si>
-  <si>
-    <t>Additional Parameters</t>
-  </si>
-  <si>
-    <t>sigma</t>
-  </si>
-  <si>
-    <t>0.68</t>
-  </si>
-  <si>
-    <t>[0.65, 0.70]</t>
-  </si>
-  <si>
-    <t>0.57</t>
-  </si>
-  <si>
-    <t>[0.56, 0.59]</t>
-  </si>
-  <si>
-    <t>[0.94, 0.98]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="256">
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Subjective MVPA Hurdle Lognormal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Device-Based MVPA Log (Gaussian)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mood Gaussian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reactance Dichotome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hurdle Component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-Zero Component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exp(Est.)_hu pa_sub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95% CI_hu pa_sub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exp(Est.)_nonzero pa_sub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95% CI_nonzero pa_sub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exp(Est.) pa_obj_log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95% CI pa_obj_log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Est. mood_gauss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95% CI mood_gauss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR is_reactance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95% CI is_reactance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intercept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.21***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.15,  0.30]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.17***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[29.76, 41.52]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110.43***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[99.31, 123.00]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 3.45, 3.87]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.37**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.19,   0.72]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Within-Person Effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily individual's experienced persuasion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.37,  1.84]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.98,  1.09]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.00,   1.06]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.04, 0.04]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.68,   1.02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily partner's experienced persuasion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.18,  1.53]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.99,  1.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.98,   1.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.03, 0.07]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.83,   1.57]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily individual's experienced pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.69,  1.36]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.90*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.80,  0.99]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.88,   1.01]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.14, 0.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.04,   4.77]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily partner's experienced pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.04,  2.67]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.86,  1.03]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.92,   1.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.13, 0.10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.55,   4.90]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily individual's experienced pushing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.76,  1.37]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.93,  1.06]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.96,   1.07]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.06, 0.07]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.03,   1.77]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily partner's experienced pushing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.07,  1.72]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.90,  1.02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.96,   1.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.07*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.00, 0.14]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.58,   1.35]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.60,  1.09]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.87,  1.11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.91,   1.04]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.14, 0.36]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.77,   3.81]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Own Actionplan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.50***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 8.57, 12.90]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.21,  1.47]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.02,   1.12]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.04, 0.19]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.45,   1.63]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partner Actionplan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.95,  1.43]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.98,  1.17]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.00,   1.10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.11, 0.04]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.48,   1.56]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily wear time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.00,   1.00]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Between-Person Effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean individual's experienced persuasion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.65,  3.02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.70,  1.30]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.83,   1.47]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.20, 0.90]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.47,   7.74]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean partner's experienced persuasion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.61,  2.80]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.66,  1.22]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.74,   1.32]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.33, 0.77]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.48,  10.26]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean individual's experienced pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.05,  0.49]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.36,  1.63]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.73,   1.30]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.83, 0.24]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.42**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[3.20, 583.15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean partner's experienced pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.08,  0.72]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.26,  1.20]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.73,   1.28]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.85, 0.22]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.09,  20.83]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean individual's experienced pushing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.45,  4.62]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.87,  2.62]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.64,   1.45]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.59, 0.95]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.05,   5.49]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean partner's experienced pushing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.81,  8.39]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.00,  3.04]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.81,   1.83]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.43, 1.11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.06*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00,   0.67]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean wear time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random Effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Intercept)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.62, 1.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.23, 0.40]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.23, 0.39]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.48, 0.78]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.78, 1.86]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily individual's experienced persuasion)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.04, 0.41]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.07, 0.16]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.02, 0.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.02, 0.55]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily partner's experienced persuasion)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.35]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.04, 0.13]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.03, 0.09]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.13]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.12, 1.03]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily individual's experienced pressure)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.77]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.23]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.13]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.24]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.12, 2.46]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily partner's experienced pressure)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.02, 1.21]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.18]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.26]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.05, 2.91]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily individual's experienced pushing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.20, 0.93]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.02, 0.17]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.16]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.02, 0.64]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily partner's experienced pushing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.57]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.09]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.17]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 1.03]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional Parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sigma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.65, 0.70]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.56, 0.59]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.94, 0.98]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -806,21 +799,18 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <b/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <i/>
     </font>
   </fonts>
   <fills count="2">
@@ -840,28 +830,20 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -874,38 +856,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1187,77 +1151,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.06640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.53125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.73046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.3984375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -1279,7 +1228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1314,7 +1263,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1349,43 +1298,43 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" s="8" t="s">
+    <row r="5">
+      <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" s="6" t="s">
+    <row r="6">
+      <c r="A6" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1419,8 +1368,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" s="6" t="s">
+    <row r="7">
+      <c r="A7" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1454,8 +1403,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" s="6" t="s">
+    <row r="8">
+      <c r="A8" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1489,8 +1438,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9" s="6" t="s">
+    <row r="9">
+      <c r="A9" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1524,8 +1473,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A10" s="6" t="s">
+    <row r="10">
+      <c r="A10" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1559,8 +1508,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A11" s="6" t="s">
+    <row r="11">
+      <c r="A11" s="7" t="s">
         <v>80</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1594,8 +1543,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12" s="6" t="s">
+    <row r="12">
+      <c r="A12" s="7" t="s">
         <v>91</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1629,8 +1578,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" s="6" t="s">
+    <row r="13">
+      <c r="A13" s="7" t="s">
         <v>101</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1664,8 +1613,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14" s="6" t="s">
+    <row r="14">
+      <c r="A14" s="7" t="s">
         <v>111</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1699,8 +1648,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A15" s="6" t="s">
+    <row r="15">
+      <c r="A15" s="7" t="s">
         <v>121</v>
       </c>
       <c r="B15" s="1"/>
@@ -1718,43 +1667,43 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A16" s="8" t="s">
+    <row r="16">
+      <c r="A16" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J16" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K16" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A17" s="6" t="s">
+    <row r="17">
+      <c r="A17" s="7" t="s">
         <v>125</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1788,8 +1737,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A18" s="6" t="s">
+    <row r="18">
+      <c r="A18" s="7" t="s">
         <v>135</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1823,8 +1772,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A19" s="6" t="s">
+    <row r="19">
+      <c r="A19" s="7" t="s">
         <v>145</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -1858,8 +1807,8 @@
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A20" s="6" t="s">
+    <row r="20">
+      <c r="A20" s="7" t="s">
         <v>155</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1893,8 +1842,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A21" s="6" t="s">
+    <row r="21">
+      <c r="A21" s="7" t="s">
         <v>165</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1928,8 +1877,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A22" s="6" t="s">
+    <row r="22">
+      <c r="A22" s="7" t="s">
         <v>174</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1963,8 +1912,8 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A23" s="6" t="s">
+    <row r="23">
+      <c r="A23" s="7" t="s">
         <v>185</v>
       </c>
       <c r="B23" s="1"/>
@@ -1982,43 +1931,43 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A24" s="8" t="s">
+    <row r="24">
+      <c r="A24" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="I24" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="J24" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="K24" s="9" t="s">
+      <c r="K24" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A25" s="6" t="s">
+    <row r="25">
+      <c r="A25" s="7" t="s">
         <v>187</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2052,8 +2001,8 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A26" s="6" t="s">
+    <row r="26">
+      <c r="A26" s="7" t="s">
         <v>196</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2087,8 +2036,8 @@
         <v>206</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A27" s="6" t="s">
+    <row r="27">
+      <c r="A27" s="7" t="s">
         <v>207</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2122,8 +2071,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A28" s="6" t="s">
+    <row r="28">
+      <c r="A28" s="7" t="s">
         <v>218</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -2157,8 +2106,8 @@
         <v>225</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A29" s="6" t="s">
+    <row r="29">
+      <c r="A29" s="7" t="s">
         <v>226</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2192,8 +2141,8 @@
         <v>234</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A30" s="6" t="s">
+    <row r="30">
+      <c r="A30" s="7" t="s">
         <v>235</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2227,8 +2176,8 @@
         <v>242</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A31" s="6" t="s">
+    <row r="31">
+      <c r="A31" s="7" t="s">
         <v>243</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -2262,43 +2211,43 @@
         <v>248</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A32" s="8" t="s">
+    <row r="32">
+      <c r="A32" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H32" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="I32" s="9" t="s">
+      <c r="I32" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="J32" s="9" t="s">
+      <c r="J32" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="K32" s="9" t="s">
+      <c r="K32" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A33" s="7" t="s">
+    <row r="33">
+      <c r="A33" s="8" t="s">
         <v>250</v>
       </c>
       <c r="B33" s="4"/>
@@ -2324,38 +2273,38 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A34" s="6"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A35" s="6"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A36" s="6"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A37" s="6"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A38" s="6"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A39" s="6"/>
+    <row r="34">
+      <c r="A34" s="7"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="7"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="7"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="7"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="7"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A32:K32"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A32:K32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Output/AllModels_final_with_plan_12000.xlsx
+++ b/Output/AllModels_final_with_plan_12000.xlsx
@@ -1,793 +1,800 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pascku\Repos\02TimeAndTiesControl\Output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFDA6AA-7E7C-4DBA-AFB1-FB3ABD6E0062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="256">
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Subjective MVPA Hurdle Lognormal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Device-Based MVPA Log (Gaussian)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mood Gaussian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reactance Dichotome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hurdle Component</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-Zero Component</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp(Est.)_hu pa_sub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95% CI_hu pa_sub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp(Est.)_nonzero pa_sub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95% CI_nonzero pa_sub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp(Est.) pa_obj_log</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95% CI pa_obj_log</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Est. mood_gauss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95% CI mood_gauss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OR is_reactance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95% CI is_reactance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intercept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.15,  0.30]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.17***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[29.76, 41.52]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110.43***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[99.31, 123.00]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 3.45, 3.87]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.37**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.19,   0.72]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Within-Person Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily individual's experienced persuasion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.37,  1.84]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.98,  1.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.00,   1.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.04, 0.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.68,   1.02]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily partner's experienced persuasion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.18,  1.53]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.99,  1.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.98,   1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.03, 0.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.83,   1.57]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily individual's experienced pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.69,  1.36]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.90*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.80,  0.99]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.88,   1.01]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.14, 0.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.04,   4.77]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily partner's experienced pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.04,  2.67]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.86,  1.03]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.92,   1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.13, 0.10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.55,   4.90]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily individual's experienced pushing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.76,  1.37]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.93,  1.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.96,   1.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.06, 0.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.03,   1.77]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily partner's experienced pushing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.07,  1.72]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.90,  1.02]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.96,   1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.07*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.00, 0.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.58,   1.35]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.60,  1.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.87,  1.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.91,   1.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.14, 0.36]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.77,   3.81]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Own Actionplan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.50***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 8.57, 12.90]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.21,  1.47]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.02,   1.12]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.04, 0.19]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.45,   1.63]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partner Actionplan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.95,  1.43]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.98,  1.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.00,   1.10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.11, 0.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.48,   1.56]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily wear time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.00,   1.00]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Between-Person Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean individual's experienced persuasion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.65,  3.02]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.70,  1.30]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.83,   1.47]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.20, 0.90]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.47,   7.74]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean partner's experienced persuasion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.61,  2.80]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.66,  1.22]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.74,   1.32]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.33, 0.77]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.48,  10.26]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean individual's experienced pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.05,  0.49]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.36,  1.63]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.73,   1.30]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.83, 0.24]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.42**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[3.20, 583.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean partner's experienced pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.08,  0.72]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.26,  1.20]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.73,   1.28]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.85, 0.22]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.09,  20.83]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean individual's experienced pushing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.45,  4.62]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.87,  2.62]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.64,   1.45]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.59, 0.95]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.05,   5.49]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean partner's experienced pushing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.81,  8.39]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.00,  3.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.81,   1.83]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.43, 1.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.06*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00,   0.67]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean wear time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Random Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Intercept)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.62, 1.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.23, 0.40]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.23, 0.39]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.48, 0.78]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.78, 1.86]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily individual's experienced persuasion)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.04, 0.41]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.07, 0.16]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.55]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily partner's experienced persuasion)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.35]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.04, 0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.03, 0.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.12, 1.03]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily individual's experienced pressure)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.77]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.23]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.24]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.12, 2.46]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily partner's experienced pressure)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 1.21]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.18]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.26]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.05, 2.91]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily individual's experienced pushing)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.20, 0.93]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.16]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.64]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily partner's experienced pushing)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.57]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 1.03]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Additional Parameters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sigma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.65, 0.70]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.56, 0.59]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.94, 0.98]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="256">
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Subjective MVPA Hurdle Lognormal</t>
+  </si>
+  <si>
+    <t>Device-Based MVPA Log (Gaussian)</t>
+  </si>
+  <si>
+    <t>Mood Gaussian</t>
+  </si>
+  <si>
+    <t>Reactance Dichotome</t>
+  </si>
+  <si>
+    <t>Hurdle Component</t>
+  </si>
+  <si>
+    <t>Non-Zero Component</t>
+  </si>
+  <si>
+    <t>exp(Est.)_hu pa_sub</t>
+  </si>
+  <si>
+    <t>95% CI_hu pa_sub</t>
+  </si>
+  <si>
+    <t>exp(Est.)_nonzero pa_sub</t>
+  </si>
+  <si>
+    <t>95% CI_nonzero pa_sub</t>
+  </si>
+  <si>
+    <t>exp(Est.) pa_obj_log</t>
+  </si>
+  <si>
+    <t>95% CI pa_obj_log</t>
+  </si>
+  <si>
+    <t>Est. mood_gauss</t>
+  </si>
+  <si>
+    <t>95% CI mood_gauss</t>
+  </si>
+  <si>
+    <t>OR is_reactance</t>
+  </si>
+  <si>
+    <t>95% CI is_reactance</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>0.21***</t>
+  </si>
+  <si>
+    <t>[ 0.15,  0.30]</t>
+  </si>
+  <si>
+    <t>35.17***</t>
+  </si>
+  <si>
+    <t>[29.76, 41.52]</t>
+  </si>
+  <si>
+    <t>110.43***</t>
+  </si>
+  <si>
+    <t>[99.31, 123.00]</t>
+  </si>
+  <si>
+    <t>3.67***</t>
+  </si>
+  <si>
+    <t>[ 3.45, 3.87]</t>
+  </si>
+  <si>
+    <t>0.37**</t>
+  </si>
+  <si>
+    <t>[0.19,   0.72]</t>
+  </si>
+  <si>
+    <t>Within-Person Effects</t>
+  </si>
+  <si>
+    <t>Daily individual's experienced persuasion</t>
+  </si>
+  <si>
+    <t>1.58***</t>
+  </si>
+  <si>
+    <t>[ 1.37,  1.84]</t>
+  </si>
+  <si>
+    <t>1.03</t>
+  </si>
+  <si>
+    <t>[ 0.98,  1.09]</t>
+  </si>
+  <si>
+    <t>[ 1.00,   1.06]</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>[-0.04, 0.04]</t>
+  </si>
+  <si>
+    <t>0.84</t>
+  </si>
+  <si>
+    <t>[0.68,   1.02]</t>
+  </si>
+  <si>
+    <t>Daily partner's experienced persuasion</t>
+  </si>
+  <si>
+    <t>1.34***</t>
+  </si>
+  <si>
+    <t>[ 1.18,  1.53]</t>
+  </si>
+  <si>
+    <t>[ 0.99,  1.08]</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>[ 0.98,   1.05]</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>[-0.03, 0.07]</t>
+  </si>
+  <si>
+    <t>1.12</t>
+  </si>
+  <si>
+    <t>[0.83,   1.57]</t>
+  </si>
+  <si>
+    <t>Daily individual's experienced pressure</t>
+  </si>
+  <si>
+    <t>0.98</t>
+  </si>
+  <si>
+    <t>[ 0.69,  1.36]</t>
+  </si>
+  <si>
+    <t>0.90*</t>
+  </si>
+  <si>
+    <t>[ 0.80,  0.99]</t>
+  </si>
+  <si>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>[ 0.88,   1.01]</t>
+  </si>
+  <si>
+    <t>-0.02</t>
+  </si>
+  <si>
+    <t>[-0.14, 0.08]</t>
+  </si>
+  <si>
+    <t>2.02*</t>
+  </si>
+  <si>
+    <t>[1.04,   4.77]</t>
+  </si>
+  <si>
+    <t>Daily partner's experienced pressure</t>
+  </si>
+  <si>
+    <t>1.55*</t>
+  </si>
+  <si>
+    <t>[ 1.04,  2.67]</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>[ 0.86,  1.03]</t>
+  </si>
+  <si>
+    <t>[ 0.92,   1.05]</t>
+  </si>
+  <si>
+    <t>-0.01</t>
+  </si>
+  <si>
+    <t>[-0.13, 0.10]</t>
+  </si>
+  <si>
+    <t>1.47</t>
+  </si>
+  <si>
+    <t>[0.55,   4.90]</t>
+  </si>
+  <si>
+    <t>Daily individual's experienced pushing</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>[ 0.76,  1.37]</t>
+  </si>
+  <si>
+    <t>0.99</t>
+  </si>
+  <si>
+    <t>[ 0.93,  1.06]</t>
+  </si>
+  <si>
+    <t>[ 0.96,   1.07]</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>[-0.06, 0.07]</t>
+  </si>
+  <si>
+    <t>1.33*</t>
+  </si>
+  <si>
+    <t>[1.03,   1.77]</t>
+  </si>
+  <si>
+    <t>Daily partner's experienced pushing</t>
+  </si>
+  <si>
+    <t>1.34**</t>
+  </si>
+  <si>
+    <t>[ 1.07,  1.72]</t>
+  </si>
+  <si>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>[ 0.90,  1.02]</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>[ 0.96,   1.05]</t>
+  </si>
+  <si>
+    <t>0.07*</t>
+  </si>
+  <si>
+    <t>[ 0.00, 0.14]</t>
+  </si>
+  <si>
+    <t>0.89</t>
+  </si>
+  <si>
+    <t>[0.58,   1.35]</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>0.81</t>
+  </si>
+  <si>
+    <t>[ 0.60,  1.09]</t>
+  </si>
+  <si>
+    <t>[ 0.87,  1.11]</t>
+  </si>
+  <si>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>[ 0.91,   1.04]</t>
+  </si>
+  <si>
+    <t>0.25***</t>
+  </si>
+  <si>
+    <t>[ 0.14, 0.36]</t>
+  </si>
+  <si>
+    <t>1.71</t>
+  </si>
+  <si>
+    <t>[0.77,   3.81]</t>
+  </si>
+  <si>
+    <t>Own Actionplan</t>
+  </si>
+  <si>
+    <t>10.50***</t>
+  </si>
+  <si>
+    <t>[ 8.57, 12.90]</t>
+  </si>
+  <si>
+    <t>[ 1.21,  1.47]</t>
+  </si>
+  <si>
+    <t>1.07**</t>
+  </si>
+  <si>
+    <t>[ 1.02,   1.12]</t>
+  </si>
+  <si>
+    <t>0.11**</t>
+  </si>
+  <si>
+    <t>[ 0.04, 0.19]</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>[0.45,   1.63]</t>
+  </si>
+  <si>
+    <t>Partner Actionplan</t>
+  </si>
+  <si>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t>[ 0.95,  1.43]</t>
+  </si>
+  <si>
+    <t>1.07</t>
+  </si>
+  <si>
+    <t>[ 0.98,  1.17]</t>
+  </si>
+  <si>
+    <t>1.05</t>
+  </si>
+  <si>
+    <t>[ 1.00,   1.10]</t>
+  </si>
+  <si>
+    <t>-0.04</t>
+  </si>
+  <si>
+    <t>[-0.11, 0.04]</t>
+  </si>
+  <si>
+    <t>[0.48,   1.56]</t>
+  </si>
+  <si>
+    <t>Daily wear time</t>
+  </si>
+  <si>
+    <t>1.00***</t>
+  </si>
+  <si>
+    <t>[ 1.00,   1.00]</t>
+  </si>
+  <si>
+    <t>Between-Person Effects</t>
+  </si>
+  <si>
+    <t>Mean individual's experienced persuasion</t>
+  </si>
+  <si>
+    <t>1.41</t>
+  </si>
+  <si>
+    <t>[ 0.65,  3.02]</t>
+  </si>
+  <si>
+    <t>[ 0.70,  1.30]</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>[ 0.83,   1.47]</t>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>[-0.20, 0.90]</t>
+  </si>
+  <si>
+    <t>1.82</t>
+  </si>
+  <si>
+    <t>[0.47,   7.74]</t>
+  </si>
+  <si>
+    <t>Mean partner's experienced persuasion</t>
+  </si>
+  <si>
+    <t>1.32</t>
+  </si>
+  <si>
+    <t>[ 0.61,  2.80]</t>
+  </si>
+  <si>
+    <t>0.90</t>
+  </si>
+  <si>
+    <t>[ 0.66,  1.22]</t>
+  </si>
+  <si>
+    <t>[ 0.74,   1.32]</t>
+  </si>
+  <si>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>[-0.33, 0.77]</t>
+  </si>
+  <si>
+    <t>2.08</t>
+  </si>
+  <si>
+    <t>[0.48,  10.26]</t>
+  </si>
+  <si>
+    <t>Mean individual's experienced pressure</t>
+  </si>
+  <si>
+    <t>0.17***</t>
+  </si>
+  <si>
+    <t>[ 0.05,  0.49]</t>
+  </si>
+  <si>
+    <t>0.76</t>
+  </si>
+  <si>
+    <t>[ 0.36,  1.63]</t>
+  </si>
+  <si>
+    <t>[ 0.73,   1.30]</t>
+  </si>
+  <si>
+    <t>-0.30</t>
+  </si>
+  <si>
+    <t>[-0.83, 0.24]</t>
+  </si>
+  <si>
+    <t>34.42**</t>
+  </si>
+  <si>
+    <t>[3.20, 583.15]</t>
+  </si>
+  <si>
+    <t>Mean partner's experienced pressure</t>
+  </si>
+  <si>
+    <t>0.25**</t>
+  </si>
+  <si>
+    <t>[ 0.08,  0.72]</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>[ 0.26,  1.20]</t>
+  </si>
+  <si>
+    <t>[ 0.73,   1.28]</t>
+  </si>
+  <si>
+    <t>-0.32</t>
+  </si>
+  <si>
+    <t>[-0.85, 0.22]</t>
+  </si>
+  <si>
+    <t>1.64</t>
+  </si>
+  <si>
+    <t>[0.09,  20.83]</t>
+  </si>
+  <si>
+    <t>Mean individual's experienced pushing</t>
+  </si>
+  <si>
+    <t>1.42</t>
+  </si>
+  <si>
+    <t>[ 0.45,  4.62]</t>
+  </si>
+  <si>
+    <t>1.51</t>
+  </si>
+  <si>
+    <t>[ 0.87,  2.62]</t>
+  </si>
+  <si>
+    <t>[ 0.64,   1.45]</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>[-0.59, 0.95]</t>
+  </si>
+  <si>
+    <t>[0.05,   5.49]</t>
+  </si>
+  <si>
+    <t>Mean partner's experienced pushing</t>
+  </si>
+  <si>
+    <t>2.58</t>
+  </si>
+  <si>
+    <t>[ 0.81,  8.39]</t>
+  </si>
+  <si>
+    <t>1.75*</t>
+  </si>
+  <si>
+    <t>[ 1.00,  3.04]</t>
+  </si>
+  <si>
+    <t>1.21</t>
+  </si>
+  <si>
+    <t>[ 0.81,   1.83]</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>[-0.43, 1.11]</t>
+  </si>
+  <si>
+    <t>0.06*</t>
+  </si>
+  <si>
+    <t>[0.00,   0.67]</t>
+  </si>
+  <si>
+    <t>Mean wear time</t>
+  </si>
+  <si>
+    <t>Random Effects</t>
+  </si>
+  <si>
+    <t>sd(Intercept)</t>
+  </si>
+  <si>
+    <t>[0.62, 1.08]</t>
+  </si>
+  <si>
+    <t>0.30</t>
+  </si>
+  <si>
+    <t>[0.23, 0.40]</t>
+  </si>
+  <si>
+    <t>[0.23, 0.39]</t>
+  </si>
+  <si>
+    <t>0.60</t>
+  </si>
+  <si>
+    <t>[0.48, 0.78]</t>
+  </si>
+  <si>
+    <t>1.22</t>
+  </si>
+  <si>
+    <t>[0.78, 1.86]</t>
+  </si>
+  <si>
+    <t>sd(Daily individual's experienced persuasion)</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>[0.04, 0.41]</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>[0.07, 0.16]</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>[0.02, 0.08]</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>[0.00, 0.10]</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>[0.02, 0.55]</t>
+  </si>
+  <si>
+    <t>sd(Daily partner's experienced persuasion)</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>[0.01, 0.35]</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>[0.04, 0.13]</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>[0.03, 0.09]</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>[0.01, 0.13]</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>[0.12, 1.03]</t>
+  </si>
+  <si>
+    <t>sd(Daily individual's experienced pressure)</t>
+  </si>
+  <si>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>[0.01, 0.77]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.23]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.13]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.24]</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>[0.12, 2.46]</t>
+  </si>
+  <si>
+    <t>sd(Daily partner's experienced pressure)</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>[0.02, 1.21]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.18]</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>[0.00, 0.11]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.26]</t>
+  </si>
+  <si>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t>[0.05, 2.91]</t>
+  </si>
+  <si>
+    <t>sd(Daily individual's experienced pushing)</t>
+  </si>
+  <si>
+    <t>[0.20, 0.93]</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>[0.02, 0.17]</t>
+  </si>
+  <si>
+    <t>[0.01, 0.16]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.15]</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>[0.02, 0.64]</t>
+  </si>
+  <si>
+    <t>sd(Daily partner's experienced pushing)</t>
+  </si>
+  <si>
+    <t>[0.01, 0.57]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.09]</t>
+  </si>
+  <si>
+    <t>[0.01, 0.17]</t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>[0.01, 1.03]</t>
+  </si>
+  <si>
+    <t>Additional Parameters</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>[0.65, 0.70]</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>[0.56, 0.59]</t>
+  </si>
+  <si>
+    <t>[0.94, 0.98]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -801,16 +808,16 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <b/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <i/>
     </font>
   </fonts>
   <fills count="2">
@@ -830,20 +837,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -856,20 +871,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1151,62 +1184,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="39.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.53125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.9296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -1228,7 +1276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1263,7 +1311,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1298,43 +1346,43 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1368,8 +1416,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1403,8 +1451,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1438,8 +1486,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1473,8 +1521,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" s="6" t="s">
         <v>70</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1508,8 +1556,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" s="6" t="s">
         <v>80</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1543,8 +1591,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" s="6" t="s">
         <v>91</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1578,8 +1626,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13" s="6" t="s">
         <v>101</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1613,8 +1661,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14" s="6" t="s">
         <v>111</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1648,8 +1696,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15" s="6" t="s">
         <v>121</v>
       </c>
       <c r="B15" s="1"/>
@@ -1667,43 +1715,43 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A16" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K16" s="11" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A17" s="6" t="s">
         <v>125</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1737,8 +1785,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A18" s="6" t="s">
         <v>135</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1772,8 +1820,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A19" s="6" t="s">
         <v>145</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -1807,8 +1855,8 @@
         <v>154</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A20" s="6" t="s">
         <v>155</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1842,8 +1890,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A21" s="6" t="s">
         <v>165</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1877,8 +1925,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A22" s="6" t="s">
         <v>174</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1912,8 +1960,8 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A23" s="6" t="s">
         <v>185</v>
       </c>
       <c r="B23" s="1"/>
@@ -1931,43 +1979,43 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A24" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="K24" s="11" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A25" s="6" t="s">
         <v>187</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2001,8 +2049,8 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A26" s="6" t="s">
         <v>196</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2036,8 +2084,8 @@
         <v>206</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="7" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A27" s="6" t="s">
         <v>207</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2071,8 +2119,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A28" s="6" t="s">
         <v>218</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -2106,8 +2154,8 @@
         <v>225</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A29" s="6" t="s">
         <v>226</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2141,8 +2189,8 @@
         <v>234</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="7" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A30" s="6" t="s">
         <v>235</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2176,8 +2224,8 @@
         <v>242</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="7" t="s">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A31" s="6" t="s">
         <v>243</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -2211,43 +2259,43 @@
         <v>248</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="6" t="s">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A32" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H32" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I32" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="J32" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="K32" s="11" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="8" t="s">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A33" s="7" t="s">
         <v>250</v>
       </c>
       <c r="B33" s="4"/>
@@ -2273,38 +2321,38 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34">
-      <c r="A34" s="7"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="7"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="7"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="7"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="7"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="7"/>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A34" s="6"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A35" s="6"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A36" s="6"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A37" s="6"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A38" s="6"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A39" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A32:K32"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A32:K32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>